--- a/Scrapin/AmazonScrapin/BasesDeDatosLimpias/Computadoras.xlsx
+++ b/Scrapin/AmazonScrapin/BasesDeDatosLimpias/Computadoras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-almacenamiento-microborde-Microsoft/dp/B0947BJ67M/ref=sr_1_1?dib=eyJ2IjoiMSJ9.0S0CzbnLxwZ4_dDSN987lh_3iK0el56Ac5f73RmAKJ2g3OzPRpJ4_gfmZ_SEfXfWGczktgBhVAwsNwDwmKcIQ1t6-erx1xtEF_GFXlhCeLVZs6MJAA6MUSqQZCNUDWufeoeNmL2ZVwNAcFYUdaFvU0KsKhwNopxy8EdxrMpFEY2_a3W7_l6cduC59AYx7QBpEKjc1rmU-MpNiTcbUiJRbF04k78OudmQ_PwdiPkPBY0.BURzMAdEIBgcXRww_8Jo6wubfXvmXkUASe0GVwdE9gk&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875937&amp;sr=8-1</t>
+          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-almacenamiento-microborde-Microsoft/dp/B0947BJ67M/ref=sr_1_1?dib=eyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759300&amp;sr=8-1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>183.49</v>
+        <v>179.98</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
         <v>3.9</v>
       </c>
       <c r="H2" t="n">
-        <v>1661</v>
+        <v>1697</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -532,21 +532,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Dell-Inspiron-3000-3520-Computadora/dp/B0CC936WF1/ref=sr_1_2?dib=eyJ2IjoiMSJ9.0S0CzbnLxwZ4_dDSN987lh_3iK0el56Ac5f73RmAKJ2g3OzPRpJ4_gfmZ_SEfXfWGczktgBhVAwsNwDwmKcIQ1t6-erx1xtEF_GFXlhCeLVZs6MJAA6MUSqQZCNUDWufeoeNmL2ZVwNAcFYUdaFvU0KsKhwNopxy8EdxrMpFEY2_a3W7_l6cduC59AYx7QBpEKjc1rmU-MpNiTcbUiJRbF04k78OudmQ_PwdiPkPBY0.BURzMAdEIBgcXRww_8Jo6wubfXvmXkUASe0GVwdE9gk&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875937&amp;sr=8-2</t>
+          <t>https://www.amazon.com/-/es/OptiPlex-computadora-escritorio-procesador-auriculares/dp/B0BLQNXY8B/ref=sr_1_2?dib=eyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759300&amp;sr=8-2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dell Inspiron 15 3000 3520 - Computadora portátil empresarial [Windows 11 Pro], pantalla táctil FHD de 15.6 pulgadas, Intel Quad-Core i5-1135G7 de 11ª generación, 16 GB de RAM, SSD PCIe de 1 TB,</t>
+          <t>Dell OptiPlex PC de computadora RGB de escritorio, procesador Intel Core i7 de cuatro núcleos, 16 GB de RAM, SSD de 512 GB, monitor HDMI de 24 pulgadas, teclado y auriculares RGB, WiFi, Windows 10 Pro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>B0CC936WF1</t>
+          <t>B0BLQNXY8B</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>494.94</v>
+        <v>269.98</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -555,28 +555,28 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>126</v>
+        <v>324</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71gbrvRJI-L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81EqXKkN85L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Port%C3%A1til-port%C3%A1til-estudiante-empresarial-Quad-Core/dp/B0CPKS65P5/ref=sr_1_3?dib=eyJ2IjoiMSJ9.0S0CzbnLxwZ4_dDSN987lh_3iK0el56Ac5f73RmAKJ2g3OzPRpJ4_gfmZ_SEfXfWGczktgBhVAwsNwDwmKcIQ1t6-erx1xtEF_GFXlhCeLVZs6MJAA6MUSqQZCNUDWufeoeNmL2ZVwNAcFYUdaFvU0KsKhwNopxy8EdxrMpFEY2_a3W7_l6cduC59AYx7QBpEKjc1rmU-MpNiTcbUiJRbF04k78OudmQ_PwdiPkPBY0.BURzMAdEIBgcXRww_8Jo6wubfXvmXkUASe0GVwdE9gk&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875937&amp;sr=8-3</t>
+          <t>https://www.amazon.com/-/es/Port%C3%A1til-port%C3%A1til-estudiante-empresarial-Quad-Core/dp/B0CPKS65P5/ref=sr_1_3?dib=eyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759300&amp;sr=8-3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>227.99</v>
+        <v>219.3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>4.1</v>
       </c>
       <c r="H4" t="n">
-        <v>1410</v>
+        <v>1453</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -620,21 +620,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/OptiPlex-computadora-escritorio-procesador-auriculares/dp/B0BLQNXY8B/ref=sr_1_4?dib=eyJ2IjoiMSJ9.0S0CzbnLxwZ4_dDSN987lh_3iK0el56Ac5f73RmAKJ2g3OzPRpJ4_gfmZ_SEfXfWGczktgBhVAwsNwDwmKcIQ1t6-erx1xtEF_GFXlhCeLVZs6MJAA6MUSqQZCNUDWufeoeNmL2ZVwNAcFYUdaFvU0KsKhwNopxy8EdxrMpFEY2_a3W7_l6cduC59AYx7QBpEKjc1rmU-MpNiTcbUiJRbF04k78OudmQ_PwdiPkPBY0.BURzMAdEIBgcXRww_8Jo6wubfXvmXkUASe0GVwdE9gk&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875937&amp;sr=8-4</t>
+          <t>https://www.amazon.com/-/es/OptiPlex-escritorio-computadora-generaci%C3%B3n-pulgadas/dp/B09TN242Q5/ref=sr_1_4?dib=eyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759300&amp;sr=8-4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dell OptiPlex PC de computadora RGB de escritorio, procesador Intel Core i7 de cuatro núcleos, 16 GB de RAM, SSD de 512 GB, monitor HDMI de 24 pulgadas, teclado y auriculares RGB, WiFi, Windows 10 Pro</t>
+          <t>Dell OptiPlex PC de escritorio para computadora, Intel Core i5 de 3ª generación de 3.2 GHz, 16 GB de RAM, disco duro de 2 TB, nuevo monitor LED de 22 pulgadas, teclado y mouse RGB, WiFi, Windows 10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B0BLQNXY8B</t>
+          <t>B09TN242Q5</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>269.98</v>
+        <v>183.99</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -643,42 +643,42 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>200+ comprados el mes pasado</t>
+          <t>500+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
-        <v>311</v>
+        <v>1973</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81EqXKkN85L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/91Fb+Pcxe-L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Lenovo-IdeaPad-privacidad-cancelaci%C3%B3n-inteligente/dp/B0CJB5N9BQ/ref=sr_1_5?dib=eyJ2IjoiMSJ9.0S0CzbnLxwZ4_dDSN987lh_3iK0el56Ac5f73RmAKJ2g3OzPRpJ4_gfmZ_SEfXfWGczktgBhVAwsNwDwmKcIQ1t6-erx1xtEF_GFXlhCeLVZs6MJAA6MUSqQZCNUDWufeoeNmL2ZVwNAcFYUdaFvU0KsKhwNopxy8EdxrMpFEY2_a3W7_l6cduC59AYx7QBpEKjc1rmU-MpNiTcbUiJRbF04k78OudmQ_PwdiPkPBY0.BURzMAdEIBgcXRww_8Jo6wubfXvmXkUASe0GVwdE9gk&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875937&amp;sr=8-5</t>
+          <t>https://www.amazon.com/-/es/Dell-Inspiron-3000-3520-Computadora/dp/B0CC936WF1/ref=sr_1_5?dib=eyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759300&amp;sr=8-5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lenovo IdeaPad 1 - Laptop con pantalla FHD de 15.6 pulgadas, AMD Ryzen 5 5500U, 8 GB de RAM, SSD de 512 GB, Windows 11 Home, cámara de 720p con obturador de privacidad, cancelación inteligente de</t>
+          <t>Dell Inspiron 15 3000 3520 - Computadora portátil empresarial [Windows 11 Pro], pantalla táctil FHD de 15.6 pulgadas, Intel Quad-Core i5-1135G7 de 11ª generación, 16 GB de RAM, SSD PCIe de 1 TB,</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B0CJB5N9BQ</t>
+          <t>B0CC936WF1</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>304.99</v>
+        <v>490.97</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -687,42 +687,42 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6 K+ comprados el mes pasado</t>
+          <t>1 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H6" t="n">
-        <v>422</v>
+        <v>136</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51h3oOo7XnL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71gbrvRJI-L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>6000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-Stream-14-pulgadas-procesador-GB/dp/B08KSKH9MJ/ref=sr_1_6?dib=eyJ2IjoiMSJ9.0S0CzbnLxwZ4_dDSN987lh_3iK0el56Ac5f73RmAKJ2g3OzPRpJ4_gfmZ_SEfXfWGczktgBhVAwsNwDwmKcIQ1t6-erx1xtEF_GFXlhCeLVZs6MJAA6MUSqQZCNUDWufeoeNmL2ZVwNAcFYUdaFvU0KsKhwNopxy8EdxrMpFEY2_a3W7_l6cduC59AYx7QBpEKjc1rmU-MpNiTcbUiJRbF04k78OudmQ_PwdiPkPBY0.BURzMAdEIBgcXRww_8Jo6wubfXvmXkUASe0GVwdE9gk&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875937&amp;sr=8-6</t>
+          <t>https://www.amazon.com/-/es/pulgadas-procesador-almacenamiento-Bluetooth-Microsoft/dp/B096WDL7N6/ref=sr_1_6?dib=eyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759300&amp;sr=8-6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HP Stream - Laptop con pantalla HD SVA de 14 pulgadas, procesador Intel Celeron N4000, 4 GB de RAM, eMMC de 64 GB, gráficos Intel UHD 600, Windows 10S, rosado, tarjeta USB SnowBell de 128 GB</t>
+          <t>Laptop HP Stream 2022 de 14 pulgadas, procesador Intel Celeron N4020 de doble núcleo, memoria DDR4 de 4 GB, almacenamiento de 128 GB (64 GB eMMC + tarjeta), WiFi, cámara web, Bluetooth, Microsoft 365</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B08KSKH9MJ</t>
+          <t>B096WDL7N6</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>225</v>
+        <v>199.66</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -731,28 +731,26 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>Más opciones de compra</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/6164gAduugL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61pUDde2c2L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/IdeaPad-port%C3%A1til-Celeron-almacenamiento-gr%C3%A1ficos/dp/B0CK66T68X/ref=sr_1_7?dib=eyJ2IjoiMSJ9.0S0CzbnLxwZ4_dDSN987lh_3iK0el56Ac5f73RmAKJ2g3OzPRpJ4_gfmZ_SEfXfWGczktgBhVAwsNwDwmKcIQ1t6-erx1xtEF_GFXlhCeLVZs6MJAA6MUSqQZCNUDWufeoeNmL2ZVwNAcFYUdaFvU0KsKhwNopxy8EdxrMpFEY2_a3W7_l6cduC59AYx7QBpEKjc1rmU-MpNiTcbUiJRbF04k78OudmQ_PwdiPkPBY0.BURzMAdEIBgcXRww_8Jo6wubfXvmXkUASe0GVwdE9gk&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875937&amp;sr=8-7</t>
+          <t>https://www.amazon.com/-/es/IdeaPad-port%C3%A1til-Celeron-almacenamiento-gr%C3%A1ficos/dp/B0CK66T68X/ref=sr_1_7?dib=eyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759300&amp;sr=8-7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -765,7 +763,9 @@
           <t>B0CK66T68X</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>161.99</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -780,7 +780,7 @@
         <v>3.7</v>
       </c>
       <c r="H8" t="n">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -794,21 +794,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/OptiPlex-escritorio-computadora-generaci%C3%B3n-pulgadas/dp/B09TN242Q5/ref=sr_1_8?dib=eyJ2IjoiMSJ9.0S0CzbnLxwZ4_dDSN987lh_3iK0el56Ac5f73RmAKJ2g3OzPRpJ4_gfmZ_SEfXfWGczktgBhVAwsNwDwmKcIQ1t6-erx1xtEF_GFXlhCeLVZs6MJAA6MUSqQZCNUDWufeoeNmL2ZVwNAcFYUdaFvU0KsKhwNopxy8EdxrMpFEY2_a3W7_l6cduC59AYx7QBpEKjc1rmU-MpNiTcbUiJRbF04k78OudmQ_PwdiPkPBY0.BURzMAdEIBgcXRww_8Jo6wubfXvmXkUASe0GVwdE9gk&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875937&amp;sr=8-8</t>
+          <t>https://www.amazon.com/-/es/HP-Stream-14-pulgadas-procesador-GB/dp/B08KSKH9MJ/ref=sr_1_8?dib=eyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759300&amp;sr=8-8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dell OptiPlex PC de escritorio para computadora, Intel Core i5 de 3ª generación de 3.2 GHz, 16 GB de RAM, disco duro de 2 TB, nuevo monitor LED de 22 pulgadas, teclado y mouse RGB, WiFi, Windows 10</t>
+          <t>HP Stream - Laptop con pantalla HD SVA de 14 pulgadas, procesador Intel Celeron N4000, 4 GB de RAM, eMMC de 64 GB, gráficos Intel UHD 600, Windows 10S, rosado, tarjeta USB SnowBell de 128 GB</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>B09TN242Q5</t>
+          <t>B08KSKH9MJ</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>189.89</v>
+        <v>225</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -817,42 +817,42 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>500+ comprados el mes pasado</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="H9" t="n">
-        <v>1952</v>
+        <v>240</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/91Fb+Pcxe-L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/6164gAduugL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-Stream-BrightView-almacenamiento-acoplamiento/dp/B0CZL2SLCJ/ref=sr_1_9?dib=eyJ2IjoiMSJ9.0S0CzbnLxwZ4_dDSN987lh_3iK0el56Ac5f73RmAKJ2g3OzPRpJ4_gfmZ_SEfXfWGczktgBhVAwsNwDwmKcIQ1t6-erx1xtEF_GFXlhCeLVZs6MJAA6MUSqQZCNUDWufeoeNmL2ZVwNAcFYUdaFvU0KsKhwNopxy8EdxrMpFEY2_a3W7_l6cduC59AYx7QBpEKjc1rmU-MpNiTcbUiJRbF04k78OudmQ_PwdiPkPBY0.BURzMAdEIBgcXRww_8Jo6wubfXvmXkUASe0GVwdE9gk&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875937&amp;sr=8-9</t>
+          <t>https://www.amazon.com/-/es/Optiplex-7050-escritorio-compatible-Excelente/dp/B08X1KKVCZ/ref=sr_1_9?dib=eyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759300&amp;sr=8-9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HP Stream - Laptop BrightView HD de 14 pulgadas, Intel Celeron N4120, 16 GB de RAM, 288 GB de almacenamiento (128 GB eMMC + 160 GB de estación de acoplamiento), gráficos Intel UHD, cámara web 720p,</t>
+          <t>Dell Optiplex 7050 SFF PC de escritorio Intel i7-7700 4 núcleos 3.60GHz 32GB DDR4 1TB SSD WiFi BT HDMI Duel Monitor compatible con Windows 10 Pro Excelente estado (renovado)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>B0CZL2SLCJ</t>
+          <t>B08X1KKVCZ</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>309</v>
+        <v>238.99</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -861,42 +861,42 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>500+ comprados el mes pasado</t>
+          <t>2 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>1909</v>
+        <v>1844</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61QuxlKVZbL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61FVIijQp2L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Optiplex-7050-escritorio-compatible-Excelente/dp/B08X1KKVCZ/ref=sr_1_10?dib=eyJ2IjoiMSJ9.0S0CzbnLxwZ4_dDSN987lh_3iK0el56Ac5f73RmAKJ2g3OzPRpJ4_gfmZ_SEfXfWGczktgBhVAwsNwDwmKcIQ1t6-erx1xtEF_GFXlhCeLVZs6MJAA6MUSqQZCNUDWufeoeNmL2ZVwNAcFYUdaFvU0KsKhwNopxy8EdxrMpFEY2_a3W7_l6cduC59AYx7QBpEKjc1rmU-MpNiTcbUiJRbF04k78OudmQ_PwdiPkPBY0.BURzMAdEIBgcXRww_8Jo6wubfXvmXkUASe0GVwdE9gk&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875937&amp;sr=8-10</t>
+          <t>https://www.amazon.com/-/es/HP-Stream-BrightView-almacenamiento-acoplamiento/dp/B0CZL2SLCJ/ref=sr_1_10?dib=eyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759300&amp;sr=8-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dell Optiplex 7050 SFF PC de escritorio Intel i7-7700 4 núcleos 3.60GHz 32GB DDR4 1TB SSD WiFi BT HDMI Duel Monitor compatible con Windows 10 Pro Excelente estado (renovado)</t>
+          <t>HP Stream - Laptop BrightView HD de 14 pulgadas, Intel Celeron N4120, 16 GB de RAM, 288 GB de almacenamiento (128 GB eMMC + 160 GB de estación de acoplamiento), gráficos Intel UHD, cámara web 720p,</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>B08X1KKVCZ</t>
+          <t>B0CZL2SLCJ</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>238.99</v>
+        <v>309</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -905,42 +905,42 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2 K+ comprados el mes pasado</t>
+          <t>300+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1812</v>
+        <v>1917</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61FVIijQp2L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61QuxlKVZbL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-Chromebook-pantalla-procesador-Bluetooth/dp/B0C7MR5RDH/ref=sr_1_11?dib=eyJ2IjoiMSJ9.0S0CzbnLxwZ4_dDSN987lh_3iK0el56Ac5f73RmAKJ2g3OzPRpJ4_gfmZ_SEfXfWGczktgBhVAwsNwDwmKcIQ1t6-erx1xtEF_GFXlhCeLVZs6MJAA6MUSqQZCNUDWufeoeNmL2ZVwNAcFYUdaFvU0KsKhwNopxy8EdxrMpFEY2_a3W7_l6cduC59AYx7QBpEKjc1rmU-MpNiTcbUiJRbF04k78OudmQ_PwdiPkPBY0.BURzMAdEIBgcXRww_8Jo6wubfXvmXkUASe0GVwdE9gk&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875937&amp;sr=8-11</t>
+          <t>https://www.amazon.com/-/es/Port%C3%A1til-negocios-procesador-i3-1125G4-generaci%C3%B3n/dp/B0C6NC4KRT/ref=sr_1_11?dib=eyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759300&amp;sr=8-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HP Laptop Chromebook 2023, pantalla de 14 pulgadas, procesador Intel Celeron N4120, 4 GB de RAM, 64 GB eMMC, gráficos Intel UHD 600, WiFi, Bluetooth, Chrome OS, gris moderno</t>
+          <t>HP Portátil de negocios 17, pantalla HD+ de 17.3", procesador Intel Core i3-1125G4 de 11ª generación, 32 GB de RAM, SSD de 1 TB, Wi-Fi, HDMI, cámara web, Windows 11 Pro, color plateado</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>B0C7MR5RDH</t>
+          <t>B0C6NC4KRT</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>173.95</v>
+        <v>485.99</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -949,42 +949,42 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>2 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>4.2</v>
       </c>
       <c r="H12" t="n">
-        <v>399</v>
+        <v>1311</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51PsNbMd-CL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61TGRBGTNzL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTozNzM2MTE3MDcwODY4MDY1OjE3MjU4NzU5Mzc6c3BfbXRmOjMwMDE3MjA2NTc0NjEwMjo6MDo6&amp;url=%2FHP-2024-pulgadas-estudiantes-negocios%2Fdp%2FB0D1LFWV8K%2Fref%3Dsr_1_12_sspa%3Fdib%3DeyJ2IjoiMSJ9.0S0CzbnLxwZ4_dDSN987lh_3iK0el56Ac5f73RmAKJ2g3OzPRpJ4_gfmZ_SEfXfWGczktgBhVAwsNwDwmKcIQ1t6-erx1xtEF_GFXlhCeLVZs6MJAA6MUSqQZCNUDWufeoeNmL2ZVwNAcFYUdaFvU0KsKhwNopxy8EdxrMpFEY2_a3W7_l6cduC59AYx7QBpEKjc1rmU-MpNiTcbUiJRbF04k78OudmQ_PwdiPkPBY0.BURzMAdEIBgcXRww_8Jo6wubfXvmXkUASe0GVwdE9gk%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725875937%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0Njk2MjEzMTIwMTMxNTc5OjE3MjY3NTkzMDA6c3BfbXRmOjMwMDMzOTU0NzQ3ODYwMjo6MDo6&amp;url=%2FHP-Premium-Stream-BrightView-almacenamiento%2Fdp%2FB0C4P29ZXH%2Fref%3Dsr_1_12_sspa%3Fdib%3DeyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759300%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HP 2024 - Laptop de 14 pulgadas, delgada, luz para estudiantes de negocios, Intel N4120 de cuatro núcleos, 16 GB de RAM, 320 GB (64 GB eMMC+ tarjeta de 256 GB), 1 año Office 365, cámara web WiFi,</t>
+          <t>HP Premium Stream - Laptop BrightView HD de 14 pulgadas, Intel Celeron N4120, 16 GB de RAM, 64 GB de almacenamiento eMMC, gráficos UHD, cámara web HD, 1 año Office 365, Bluetooth, WiFi, HDMI, Win 11s,</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>B0D1LFWV8K</t>
+          <t>B0C4P29ZXH</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -993,26 +993,28 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>34</v>
+        <v>472</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61nXgmERYNL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61PpSLdUnKL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Escritorio-pantalla-pulgadas-procesador-Celeron/dp/B0B6523VBD/ref=sr_1_13?dib=eyJ2IjoiMSJ9.0S0CzbnLxwZ4_dDSN987lh_3iK0el56Ac5f73RmAKJ2g3OzPRpJ4_gfmZ_SEfXfWGczktgBhVAwsNwDwmKcIQ1t6-erx1xtEF_GFXlhCeLVZs6MJAA6MUSqQZCNUDWufeoeNmL2ZVwNAcFYUdaFvU0KsKhwNopxy8EdxrMpFEY2_a3W7_l6cduC59AYx7QBpEKjc1rmU-MpNiTcbUiJRbF04k78OudmQ_PwdiPkPBY0.BURzMAdEIBgcXRww_8Jo6wubfXvmXkUASe0GVwdE9gk&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875937&amp;sr=8-13</t>
+          <t>https://www.amazon.com/-/es/Escritorio-pantalla-pulgadas-procesador-Celeron/dp/B0B6523VBD/ref=sr_1_13?dib=eyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759300&amp;sr=8-13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1026,7 +1028,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>435</v>
+        <v>434.61</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1039,10 +1041,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H14" t="n">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1056,21 +1058,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-ultraligera-estudiantes-Quad-Core-almacenamiento/dp/B0B2D77YB8/ref=sr_1_14?dib=eyJ2IjoiMSJ9.0S0CzbnLxwZ4_dDSN987lh_3iK0el56Ac5f73RmAKJ2g3OzPRpJ4_gfmZ_SEfXfWGczktgBhVAwsNwDwmKcIQ1t6-erx1xtEF_GFXlhCeLVZs6MJAA6MUSqQZCNUDWufeoeNmL2ZVwNAcFYUdaFvU0KsKhwNopxy8EdxrMpFEY2_a3W7_l6cduC59AYx7QBpEKjc1rmU-MpNiTcbUiJRbF04k78OudmQ_PwdiPkPBY0.BURzMAdEIBgcXRww_8Jo6wubfXvmXkUASe0GVwdE9gk&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875937&amp;sr=8-14</t>
+          <t>https://www.amazon.com/-/es/Acer-Aspire-A115-32-C96U-procesador-suscripci%C3%B3n/dp/B0BL35XNF5/ref=sr_1_14?dib=eyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759300&amp;sr=8-14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HP Laptop ultraligera de 14 pulgadas para estudiantes y negocios, Intel Quad-Core N4120, 8 GB de RAM, 192 GB de almacenamiento (64 GB eMMC + 128 GB Micro SD), 1 año Office 365, cámara web, HDMI, WiFi,</t>
+          <t>Acer Aspire 1 A115-32-C96U - Laptop delgada, pantalla FHD de 15.6 pulgadas, procesador Intel Celeron N4500, DDR4 de 4 GB, eMMC de 128 GB, WiFi 5, suscripción personal de 1 año de Microsoft 365,</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>B0B2D77YB8</t>
+          <t>B0BL35XNF5</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>249.99</v>
+        <v>214.99</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1079,42 +1081,42 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5 K+ comprados el mes pasado</t>
+          <t>400+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1806</v>
+        <v>1160</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/711OHeRmEaL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81ux3SQKXrL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>5000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-Elite-computadora-escritorio-pulgadas/dp/B09TNS1FNC/ref=sr_1_15?dib=eyJ2IjoiMSJ9.0S0CzbnLxwZ4_dDSN987lh_3iK0el56Ac5f73RmAKJ2g3OzPRpJ4_gfmZ_SEfXfWGczktgBhVAwsNwDwmKcIQ1t6-erx1xtEF_GFXlhCeLVZs6MJAA6MUSqQZCNUDWufeoeNmL2ZVwNAcFYUdaFvU0KsKhwNopxy8EdxrMpFEY2_a3W7_l6cduC59AYx7QBpEKjc1rmU-MpNiTcbUiJRbF04k78OudmQ_PwdiPkPBY0.BURzMAdEIBgcXRww_8Jo6wubfXvmXkUASe0GVwdE9gk&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875937&amp;sr=8-15</t>
+          <t>https://www.amazon.com/-/es/HP-Chromebook-pantalla-procesador-Bluetooth/dp/B0C7MR5RDH/ref=sr_1_15?dib=eyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759300&amp;sr=8-15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HP Elite PC de computadora de escritorio, 3.1 GHz, Intel Core i5, 16 GB, RAM, disco duro de 2 TB, nuevo monitor LED de 22 pulgadas, altavoz RGB y teclado mouse, WiFi, Windows 10 Pro (renovado)</t>
+          <t>HP Laptop Chromebook 2023, pantalla de 14 pulgadas, procesador Intel Celeron N4120, 4 GB de RAM, 64 GB eMMC, gráficos Intel UHD 600, WiFi, Bluetooth, Chrome OS, gris moderno</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>B09TNS1FNC</t>
+          <t>B0C7MR5RDH</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>170.99</v>
+        <v>177.5</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1123,42 +1125,42 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>300+ comprados el mes pasado</t>
+          <t>1 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="H16" t="n">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71CJt6BB-lL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51PsNbMd-CL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Port%C3%A1til-negocios-procesador-i3-1125G4-generaci%C3%B3n/dp/B0C6NC4KRT/ref=sr_1_16?dib=eyJ2IjoiMSJ9.0S0CzbnLxwZ4_dDSN987lh_3iK0el56Ac5f73RmAKJ2g3OzPRpJ4_gfmZ_SEfXfWGczktgBhVAwsNwDwmKcIQ1t6-erx1xtEF_GFXlhCeLVZs6MJAA6MUSqQZCNUDWufeoeNmL2ZVwNAcFYUdaFvU0KsKhwNopxy8EdxrMpFEY2_a3W7_l6cduC59AYx7QBpEKjc1rmU-MpNiTcbUiJRbF04k78OudmQ_PwdiPkPBY0.BURzMAdEIBgcXRww_8Jo6wubfXvmXkUASe0GVwdE9gk&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875937&amp;sr=8-16</t>
+          <t>https://www.amazon.com/-/es/HP-ultraligera-estudiantes-Quad-Core-almacenamiento/dp/B0B2D77YB8/ref=sr_1_16?dib=eyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759300&amp;sr=8-16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HP Portátil de negocios 17, pantalla HD+ de 17.3", procesador Intel Core i3-1125G4 de 11ª generación, 32 GB de RAM, SSD de 1 TB, Wi-Fi, HDMI, cámara web, Windows 11 Pro, color plateado</t>
+          <t>HP Laptop ultraligera de 14 pulgadas para estudiantes y negocios, Intel Quad-Core N4120, 8 GB de RAM, 192 GB de almacenamiento (64 GB eMMC + 128 GB Micro SD), 1 año Office 365, cámara web, HDMI, WiFi,</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>B0C6NC4KRT</t>
+          <t>B0B2D77YB8</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>498.99</v>
+        <v>249.99</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1167,42 +1169,42 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2 K+ comprados el mes pasado</t>
+          <t>6 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
-        <v>1254</v>
+        <v>1869</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61TGRBGTNzL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/711OHeRmEaL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTozNzM2MTE3MDcwODY4MDY1OjE3MjU4NzU5Mzc6c3BfbXRmOjMwMDA3NDIxNTkzMDMwMjo6MDo6&amp;url=%2Fpantalla-pulgadas-AMD-procesador-n%25C3%25BAcleos%2Fdp%2FB0CDR2D1QV%2Fref%3Dsr_1_17_sspa%3Fdib%3DeyJ2IjoiMSJ9.0S0CzbnLxwZ4_dDSN987lh_3iK0el56Ac5f73RmAKJ2g3OzPRpJ4_gfmZ_SEfXfWGczktgBhVAwsNwDwmKcIQ1t6-erx1xtEF_GFXlhCeLVZs6MJAA6MUSqQZCNUDWufeoeNmL2ZVwNAcFYUdaFvU0KsKhwNopxy8EdxrMpFEY2_a3W7_l6cduC59AYx7QBpEKjc1rmU-MpNiTcbUiJRbF04k78OudmQ_PwdiPkPBY0.BURzMAdEIBgcXRww_8Jo6wubfXvmXkUASe0GVwdE9gk%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725875937%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0Njk2MjEzMTIwMTMxNTc5OjE3MjY3NTkzMDA6c3BfbXRmOjMwMDM3MDg3NzU3NjcwMjo6MDo6&amp;url=%2FComputadora-escritorio-I5-6500-Bluetooth-renovado%2Fdp%2FB0CFVDQMNQ%2Fref%3Dsr_1_17_sspa%3Fdib%3DeyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759300%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>acer Aspire 3 Slim Laptop, pantalla IPS FHD de 15.6 pulgadas (1920 x 1080), AMD Ryzen 3 7320U, procesador de 4 núcleos, 8 GB LPDDR5 RAM, 256 GB SSD, cámara web, Wi-Fi 6, Windows 11S, EAT Cloth</t>
+          <t>Dell Computadora de escritorio para juegos RGB, Intel Quad Core I5-6500 hasta 3.6 GHz, Radeon RX 550 4G, memoria de 16 GB, SSD 1T, teclado y mouse RGB, WiFi y Bluetooth de 600 M, Win 10 Pro (renovado)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>B0CDR2D1QV</t>
+          <t>B0CFVDQMNQ</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>349</v>
+        <v>289.99</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1215,14 +1217,14 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/5123L8-wxfL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81sUFbkpjdL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1230,21 +1232,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Acer-Aspire-A115-32-C96U-procesador-suscripci%C3%B3n/dp/B0BL35XNF5/ref=sr_1_18?dib=eyJ2IjoiMSJ9.0S0CzbnLxwZ4_dDSN987lh_3iK0el56Ac5f73RmAKJ2g3OzPRpJ4_gfmZ_SEfXfWGczktgBhVAwsNwDwmKcIQ1t6-erx1xtEF_GFXlhCeLVZs6MJAA6MUSqQZCNUDWufeoeNmL2ZVwNAcFYUdaFvU0KsKhwNopxy8EdxrMpFEY2_a3W7_l6cduC59AYx7QBpEKjc1rmU-MpNiTcbUiJRbF04k78OudmQ_PwdiPkPBY0.BURzMAdEIBgcXRww_8Jo6wubfXvmXkUASe0GVwdE9gk&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875937&amp;sr=8-18</t>
+          <t>https://www.amazon.com/-/es/Dell-OptiPlex-5040-SFF-computadora/dp/B0CZDS18J4/ref=sr_1_18?dib=eyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759300&amp;sr=8-18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Acer Aspire 1 A115-32-C96U - Laptop delgada, pantalla FHD de 15.6 pulgadas, procesador Intel Celeron N4500, DDR4 de 4 GB, eMMC de 128 GB, WiFi 5, suscripción personal de 1 año de Microsoft 365,</t>
+          <t>Dell OptiPlex 5040 SFF - Paquete de computadora de escritorio con nuevo monitor FHD de 23.8 pulgadas, Inter Core i5-6600 3.3GHz 4 núcleos 8 GB 256 GB SSD, teclado y mouse, Wi-Fi, Bluetooth, Windows 10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>B0BL35XNF5</t>
+          <t>B0CZDS18J4</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>214.99</v>
+        <v>186.98</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1253,42 +1255,42 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>500+ comprados el mes pasado</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>771</v>
+        <v>26</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81ux3SQKXrL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81gheHSYV+L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTozNzM2MTE3MDcwODY4MDY1OjE3MjU4NzU5Mzc6c3BfYnRmOjMwMDIzMDA5MjgyNTAwMjo6MDo6&amp;url=%2FLatitude-5550-pulgadas-Bluetooth-retroiluminado%2Fdp%2FB0CRVDQB65%2Fref%3Dsr_1_20_sspa%3Fdib%3DeyJ2IjoiMSJ9.0S0CzbnLxwZ4_dDSN987lh_3iK0el56Ac5f73RmAKJ2g3OzPRpJ4_gfmZ_SEfXfWGczktgBhVAwsNwDwmKcIQ1t6-erx1xtEF_GFXlhCeLVZs6MJAA6MUSqQZCNUDWufeoeNmL2ZVwNAcFYUdaFvU0KsKhwNopxy8EdxrMpFEY2_a3W7_l6cduC59AYx7QBpEKjc1rmU-MpNiTcbUiJRbF04k78OudmQ_PwdiPkPBY0.BURzMAdEIBgcXRww_8Jo6wubfXvmXkUASe0GVwdE9gk%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725875937%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0Njk2MjEzMTIwMTMxNTc5OjE3MjY3NTkzMDA6c3BfYnRmOjMwMDM5NTc5NTA4OTQwMjo6MDo6&amp;url=%2FGearIT-Paquete-conexi%25C3%25B3n-Ethernet-enganches%2Fdp%2FB003F1UB46%2Fref%3Dsr_1_19_sspa%3Fdib%3DeyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759300%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dell Latitude 5550 15 15.6 pulgadas FHD Business AI Computer, Intel Ultra 5 125U (Beat i7-1355U), 16 GB DDR5 RAM, 512 GB SSD, WiFi 6, Bluetooth 5.3, teclado retroiluminado, lector de huellas</t>
+          <t>GearIT Paquete de 20 cables de conexión Ethernet Cat5e de 10 pies, cable de red LAN RJ45 sin enganches, color azul</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>B0CRVDQB65</t>
+          <t>B003F1UB46</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>999</v>
+        <v>65.98</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1297,42 +1299,42 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>(
+US$3.30
+US$3.30/Count)</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>448</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/817MHeDkSFL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/91G4f0TRziL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTozNzM2MTE3MDcwODY4MDY1OjE3MjU4NzU5Mzc6c3BfYnRmOjMwMDIwMDcxODU0MjIwMjo6MDo6&amp;url=%2FGearIT-Paquete-cables-conexi%25C3%25B3n-Ethernet%2Fdp%2FB00X8EJZH4%2Fref%3Dsr_1_21_sspa%3Fdib%3DeyJ2IjoiMSJ9.0S0CzbnLxwZ4_dDSN987lh_3iK0el56Ac5f73RmAKJ2g3OzPRpJ4_gfmZ_SEfXfWGczktgBhVAwsNwDwmKcIQ1t6-erx1xtEF_GFXlhCeLVZs6MJAA6MUSqQZCNUDWufeoeNmL2ZVwNAcFYUdaFvU0KsKhwNopxy8EdxrMpFEY2_a3W7_l6cduC59AYx7QBpEKjc1rmU-MpNiTcbUiJRbF04k78OudmQ_PwdiPkPBY0.BURzMAdEIBgcXRww_8Jo6wubfXvmXkUASe0GVwdE9gk%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725875937%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0Njk2MjEzMTIwMTMxNTc5OjE3MjY3NTkzMDA6c3BfYnRmOjIwMDA0Nzc2OTQ5Mjc5ODo6MDo6&amp;url=%2FWEIDIAN-Windows-computadora-escritorio-Ethernet%2Fdp%2FB09MHHK9CZ%2Fref%3Dsr_1_20_sspa%3Fdib%3DeyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759300%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GearIT Paquete de 24 cables de conexión Ethernet Cat5e de 10 pies – Cable de red LAN RJ45 sin enganches para computadora, azul, compatible con conmutadores de 24 puertos de 48 puertos POE para montaje</t>
+          <t>WEIDIAN Mini PC con Windows 10, Mini computadora de escritorio con Celeron J4125, 16 GB DDR4 RAM + 512 GB SSD, HDMI/VGA Dual Display 4K, WiFi de doble banda, 4USB, puerto Com 2RS232, Ethernet Gigabit</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>B00X8EJZH4</t>
+          <t>B09MHHK9CZ</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>64.98</v>
+        <v>390</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1341,20 +1343,18 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(
-US$0.27
-US$0.27/Foot)</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H21" t="n">
-        <v>341</v>
+        <v>7</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/91kwZBAsUkL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61V8cWiWLLL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1362,21 +1362,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1Mzc5NzcxNTU2NjkzMjQxOjE3MjU4NzU5NTQ6c3BfYXRmX25leHQ6MzAwMDAwMDkyMTIyMDAyOjowOjo&amp;url=%2FOriginal-ADP-180-Cargador-Adaptador-corriente%2Fdp%2FB07R1596N7%2Fref%3Dsr_1_17_sspa%3Fdib%3DeyJ2IjoiMSJ9.bN1VnP2w-BJbFmehqjf-K1jY9FTaowH6m1EM-Isk8tXEPxAuya_F7FA7L3FU3GcNXutwgUGJlfIek6Xc5AkLTWBEHMENNsblqfXopzuq8m_SHWr0o9wStnrWt9e21-qGiWx_E628E9bK7ukRU-zwPPgH1aSd23mR3qkjCm6G5DinOjQc4xlivM_oABtqsUtEWu3ceswXm26Hfn4w9YVldyUXyjJmGTH522G6sClrWDs.1bI4m01It9aD7T12Uli6rG9GHBFgl3M4ZSUFVEdxfYg%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725875954%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0Njk2MjEzMTIwMTMxNTc5OjE3MjY3NTkzMDA6c3BfYnRmOjIwMDEzOTY3MjU1ODY5ODo6MDo6&amp;url=%2FPD-67W%2Fdp%2FB08KTG9L3H%2Fref%3Dsr_1_21_sspa%3Fdib%3DeyJ2IjoiMSJ9.dSOW8FAwKd7yilt15G4aFo_Fo95CEkEb3yUWeRggClcfw__03fs5TKE-mxWWk7bA2lxsrjhmLKcwtZnVolpvCkWY18RCYDOX6HkAhdPkARWjXN8egpvkS94iSTePLjMlDgRFkY4EVQKXBsgfPW8HSRnEVP3XZ0EalStLkXqwjsz4Lc47MLuEKUfDKnb3DwtrUT6Zgo2KeSASIpy61kn4N5jjLavxRjiFkqNcAOxwpCw.SWUj_jX2rJJ1ED7brq8RwZGDI25S_wHZCG4UiocYDg4%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759300%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Original 180 W 19.5 V 9.23 A ADP-180 MB F Gaming Laptop Cargador para Asus ROG G75VW G75VX GL502VT FX502VM FX702VM G751JM G750JW G750JM G750JS G752VL para MSI 180 W Adaptador de corriente. Tamaño del</t>
+          <t>Mac Book Pro Charger, 61W/67W USB C Charger Power Adapter for MacBook Pro/Air 13/14 Inch, for MacBook 12 Inch, Included USB-C to USB-C Charge Cable (6.6ft/2m)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>B07R1596N7</t>
+          <t>B08KTG9L3H</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>35.99</v>
+        <v>25.99</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1385,42 +1385,42 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>1 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H22" t="n">
-        <v>409</v>
+        <v>3124</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/610gUTjsP2L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51t8n-LwqxL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1Mzc5NzcxNTU2NjkzMjQxOjE3MjU4NzU5NTQ6c3BfYXRmX25leHQ6MzAwMDEwNzI1MTgwNTAyOjowOjo&amp;url=%2Fvariedades-estudiantes-auriculares-giratorios-aprendizaje%2Fdp%2FB088NHNW8B%2Fref%3Dsr_1_18_sspa%3Fdib%3DeyJ2IjoiMSJ9.bN1VnP2w-BJbFmehqjf-K1jY9FTaowH6m1EM-Isk8tXEPxAuya_F7FA7L3FU3GcNXutwgUGJlfIek6Xc5AkLTWBEHMENNsblqfXopzuq8m_SHWr0o9wStnrWt9e21-qGiWx_E628E9bK7ukRU-zwPPgH1aSd23mR3qkjCm6G5DinOjQc4xlivM_oABtqsUtEWu3ceswXm26Hfn4w9YVldyUXyjJmGTH522G6sClrWDs.1bI4m01It9aD7T12Uli6rG9GHBFgl3M4ZSUFVEdxfYg%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725875954%26sr%3D8-18-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxMTYwMzQxMDg5NjgyNTM2OjE3MjY3NTkzMTU6c3BfYXRmX25leHQ6MzAwMTcxNTk3ODczNDAyOjowOjo&amp;url=%2FWindows-computadora-escritorio-Ethernet-G3%2Fdp%2FB0CQ4C9ZY1%2Fref%3Dsr_1_17_sspa%3Fdib%3DeyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759315%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Paquete de 5 audífonos para niños, variedades de colores para estudiantes, cómodos auriculares giratorios para aula, biblioteca, escuela, avión, para aprendizaje y viajes en línea, sonido estéreo con</t>
+          <t>GMKtec Mini PC, Intel N100 Windows 11 Pro (3.4GHz), 16GB DDR4 1TB PCIe M.2 NVMe SSD, computadora de escritorio 4K Dual HDMI Display/4x USB3.2/WiFi 6/BT5.2/RJ45 Ethernet Nucbox G3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>B088NHNW8B</t>
+          <t>B0CQ4C9ZY1</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>39.97</v>
+        <v>239.99</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1429,42 +1429,42 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6 K+ comprados el mes pasado</t>
+          <t>500+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H23" t="n">
-        <v>2851</v>
+        <v>437</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71p16+H82HL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/617s525H+rL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>6000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Lenovo-IdeaPad-14-pantalla-almacenamiento/dp/B0BLW25MB7/ref=sr_1_19?dib=eyJ2IjoiMSJ9.bN1VnP2w-BJbFmehqjf-K1jY9FTaowH6m1EM-Isk8tXEPxAuya_F7FA7L3FU3GcNXutwgUGJlfIek6Xc5AkLTWBEHMENNsblqfXopzuq8m_SHWr0o9wStnrWt9e21-qGiWx_E628E9bK7ukRU-zwPPgH1aSd23mR3qkjCm6G5DinOjQc4xlivM_oABtqsUtEWu3ceswXm26Hfn4w9YVldyUXyjJmGTH522G6sClrWDs.1bI4m01It9aD7T12Uli6rG9GHBFgl3M4ZSUFVEdxfYg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875954&amp;sr=8-19</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxMTYwMzQxMDg5NjgyNTM2OjE3MjY3NTkzMTU6c3BfYXRmX25leHQ6MjAwMDc4NDk4MDE4MDk4OjowOjo&amp;url=%2FConmutador-Computadoras-Auriculares-Emuladores-Interruptor%2Fdp%2FB09JSYF8J3%2Fref%3Dsr_1_18_sspa%3Fdib%3DeyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759315%26sr%3D8-18-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Lenovo IdeaPad 1 14 - Laptop con pantalla HD de 14 pulgadas, Intel Celeron N4020, 4 GB de RAM, 64 GB de almacenamiento, gráficos Intel UHD 600, Win 11 en modo S, gris nube</t>
+          <t>TESmart Conmutador KVM HDMI USB 3.0 3 Monitores 4 Computadoras 4K@60Hz, Auriculares, Audio y Micrófono, Emuladores EDID, Interruptor Hotkey, Red con cable, Rack-ears, Conmutador KVM de 4 Puertos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>B0BLW25MB7</t>
+          <t>B09JSYF8J3</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>151</v>
+        <v>599.99</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1473,28 +1473,26 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>500+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
-        <v>686</v>
+        <v>52</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71bphKmt0DL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J24" t="n">
-        <v>500</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71NDCBQwy+L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Dell-OptiPlex-Computadora-escritorio-integrado/dp/B0C4N7GTXB/ref=sr_1_20?dib=eyJ2IjoiMSJ9.bN1VnP2w-BJbFmehqjf-K1jY9FTaowH6m1EM-Isk8tXEPxAuya_F7FA7L3FU3GcNXutwgUGJlfIek6Xc5AkLTWBEHMENNsblqfXopzuq8m_SHWr0o9wStnrWt9e21-qGiWx_E628E9bK7ukRU-zwPPgH1aSd23mR3qkjCm6G5DinOjQc4xlivM_oABtqsUtEWu3ceswXm26Hfn4w9YVldyUXyjJmGTH522G6sClrWDs.1bI4m01It9aD7T12Uli6rG9GHBFgl3M4ZSUFVEdxfYg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875954&amp;sr=8-20</t>
+          <t>https://www.amazon.com/-/es/Dell-OptiPlex-Computadora-escritorio-integrado/dp/B0C4N7GTXB/ref=sr_1_19?dib=eyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759315&amp;sr=8-19</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1508,7 +1506,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>265</v>
+        <v>212.99</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1524,7 +1522,7 @@
         <v>3.9</v>
       </c>
       <c r="H25" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1538,21 +1536,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/pulgadas-procesador-almacenamiento-Bluetooth-Microsoft/dp/B096WDL7N6/ref=sr_1_21?dib=eyJ2IjoiMSJ9.bN1VnP2w-BJbFmehqjf-K1jY9FTaowH6m1EM-Isk8tXEPxAuya_F7FA7L3FU3GcNXutwgUGJlfIek6Xc5AkLTWBEHMENNsblqfXopzuq8m_SHWr0o9wStnrWt9e21-qGiWx_E628E9bK7ukRU-zwPPgH1aSd23mR3qkjCm6G5DinOjQc4xlivM_oABtqsUtEWu3ceswXm26Hfn4w9YVldyUXyjJmGTH522G6sClrWDs.1bI4m01It9aD7T12Uli6rG9GHBFgl3M4ZSUFVEdxfYg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875954&amp;sr=8-21</t>
+          <t>https://www.amazon.com/-/es/Lenovo-IdeaPad-privacidad-cancelaci%C3%B3n-inteligente/dp/B0CJB5N9BQ/ref=sr_1_20?dib=eyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759315&amp;sr=8-20</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Laptop HP Stream 2022 de 14 pulgadas, procesador Intel Celeron N4020 de doble núcleo, memoria DDR4 de 4 GB, almacenamiento de 128 GB (64 GB eMMC + tarjeta), WiFi, cámara web, Bluetooth, Microsoft 365</t>
+          <t>Lenovo IdeaPad 1 - Laptop con pantalla FHD de 15.6 pulgadas, AMD Ryzen 5 5500U, 8 GB de RAM, SSD de 512 GB, Windows 11 Home, cámara de 720p con obturador de privacidad, cancelación inteligente de</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>B096WDL7N6</t>
+          <t>B0CJB5N9BQ</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>199.75</v>
+        <v>399</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1561,40 +1559,42 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Más opciones de compra</t>
+          <t>5 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H26" t="n">
-        <v>80</v>
+        <v>464</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61pUDde2c2L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/51h3oOo7XnL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-ProDesk-600-G3-SFF/dp/B0CY4Y22HS/ref=sr_1_22?dib=eyJ2IjoiMSJ9.bN1VnP2w-BJbFmehqjf-K1jY9FTaowH6m1EM-Isk8tXEPxAuya_F7FA7L3FU3GcNXutwgUGJlfIek6Xc5AkLTWBEHMENNsblqfXopzuq8m_SHWr0o9wStnrWt9e21-qGiWx_E628E9bK7ukRU-zwPPgH1aSd23mR3qkjCm6G5DinOjQc4xlivM_oABtqsUtEWu3ceswXm26Hfn4w9YVldyUXyjJmGTH522G6sClrWDs.1bI4m01It9aD7T12Uli6rG9GHBFgl3M4ZSUFVEdxfYg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875954&amp;sr=8-22</t>
+          <t>https://www.amazon.com/-/es/HP-Elite-computadora-escritorio-pulgadas/dp/B09TNS1FNC/ref=sr_1_21?dib=eyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759315&amp;sr=8-21</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HP ProDesk 600 G3 SFF - Computadora de escritorio con monitor FHD de 21.5 pulgadas, Intel Quad Core i5-6500, 16 GB DDR4 RAM, 256 GB SSD, Type-C, DisplayPort, teclado y mouse, WiFi, BT, Windows 10 Pro</t>
+          <t>HP Elite PC de computadora de escritorio, 3.1 GHz, Intel Core i5, 16 GB, RAM, disco duro de 2 TB, nuevo monitor LED de 22 pulgadas, altavoz RGB y teclado mouse, WiFi, Windows 10 Pro (renovado)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>B0CY4Y22HS</t>
+          <t>B09TNS1FNC</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>142.98</v>
+        <v>170.99</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1607,14 +1607,14 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H27" t="n">
-        <v>16</v>
+        <v>460</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61qla0-FwcL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71CJt6BB-lL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1624,21 +1624,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Acer-Aspire-A315-24P-R7VH-pantalla-procesador/dp/B0BS4BP8FB/ref=sr_1_23?dib=eyJ2IjoiMSJ9.bN1VnP2w-BJbFmehqjf-K1jY9FTaowH6m1EM-Isk8tXEPxAuya_F7FA7L3FU3GcNXutwgUGJlfIek6Xc5AkLTWBEHMENNsblqfXopzuq8m_SHWr0o9wStnrWt9e21-qGiWx_E628E9bK7ukRU-zwPPgH1aSd23mR3qkjCm6G5DinOjQc4xlivM_oABtqsUtEWu3ceswXm26Hfn4w9YVldyUXyjJmGTH522G6sClrWDs.1bI4m01It9aD7T12Uli6rG9GHBFgl3M4ZSUFVEdxfYg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875954&amp;sr=8-23</t>
+          <t>https://www.amazon.com/-/es/HP-2022-Stream-BrightView-procesador/dp/B0C6J73Z9D/ref=sr_1_22?dib=eyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759315&amp;sr=8-22</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Acer Aspire 3 A315-24P-R7VH - Laptop delgada, pantalla IPS Full HD de 15.6 pulgadas, procesador AMD Ryzen 3 7320U de cuatro núcleos, gráficos AMD Radeon, 8 GB LPDDR5, SSD NVMe de 128 GB, Wi-Fi 6,</t>
+          <t>HP 2022 Stream - Laptop BrightView HD de 14 pulgadas, procesador Intel Celeron N4020, 8 GB de RAM, 64 GB SSD, gráficos Intel HD, cámara web 720p, 1 año Office 365, rosa, Win 11, tarjeta USB Snowbell</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>B0BS4BP8FB</t>
+          <t>B0C6J73Z9D</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>299.99</v>
+        <v>289</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1647,42 +1647,42 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2 K+ comprados el mes pasado</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H28" t="n">
-        <v>3125</v>
+        <v>472</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61gKkYQn6lL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61PpSLdUnKL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-Premium-Stream-BrightView-almacenamiento/dp/B0C4P29ZXH/ref=sr_1_24?dib=eyJ2IjoiMSJ9.bN1VnP2w-BJbFmehqjf-K1jY9FTaowH6m1EM-Isk8tXEPxAuya_F7FA7L3FU3GcNXutwgUGJlfIek6Xc5AkLTWBEHMENNsblqfXopzuq8m_SHWr0o9wStnrWt9e21-qGiWx_E628E9bK7ukRU-zwPPgH1aSd23mR3qkjCm6G5DinOjQc4xlivM_oABtqsUtEWu3ceswXm26Hfn4w9YVldyUXyjJmGTH522G6sClrWDs.1bI4m01It9aD7T12Uli6rG9GHBFgl3M4ZSUFVEdxfYg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875954&amp;sr=8-24</t>
+          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-pulgadas-procesador-port%C3%A1tiles/dp/B0D3HRQ3WJ/ref=sr_1_23?dib=eyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759315&amp;sr=8-23</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HP Premium Stream - Laptop BrightView HD de 14 pulgadas, Intel Celeron N4120, 16 GB de RAM, 64 GB de almacenamiento eMMC, gráficos UHD, cámara web HD, 1 año Office 365, Bluetooth, WiFi, HDMI, Win 11s,</t>
+          <t>BIGASUO Computadora portátil de 16 pulgadas, 16 GB DDR4 RAM SSD de 1 TB, procesador N100 de cuatro núcleos hasta 3.4 GHz, pantalla IPS FHD de 1200P, portátiles Windows 11 con USB 3.0, tipo C,</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>B0C4P29ZXH</t>
+          <t>B0D3HRQ3WJ</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>309</v>
+        <v>399.98</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1695,14 +1695,14 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H29" t="n">
-        <v>462</v>
+        <v>7</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61PpSLdUnKL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81VXH9dwFEL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -1712,21 +1712,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-procesador-port%C3%A1tiles-computadora/dp/B0D66DHSZF/ref=sr_1_25?dib=eyJ2IjoiMSJ9.bN1VnP2w-BJbFmehqjf-K1jY9FTaowH6m1EM-Isk8tXEPxAuya_F7FA7L3FU3GcNXutwgUGJlfIek6Xc5AkLTWBEHMENNsblqfXopzuq8m_SHWr0o9wStnrWt9e21-qGiWx_E628E9bK7ukRU-zwPPgH1aSd23mR3qkjCm6G5DinOjQc4xlivM_oABtqsUtEWu3ceswXm26Hfn4w9YVldyUXyjJmGTH522G6sClrWDs.1bI4m01It9aD7T12Uli6rG9GHBFgl3M4ZSUFVEdxfYg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875954&amp;sr=8-25</t>
+          <t>https://www.amazon.com/-/es/pulgadas-computadora-procesador-Quad-Core-ampliable/dp/B0DB66ZL4N/ref=sr_1_24?dib=eyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759315&amp;sr=8-24</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AOC Computadora portátil con pantalla FHD de 15.6 pulgadas con procesador N97 (hasta 3.6 GHz) 16 GB de RAM 512 GB SSD, portátiles para juegos, Windows 11, computadora portátil, ligera y delgada,</t>
+          <t>SGIN Laptop de 15.6 pulgadas, computadora portátil con procesador Celeron Quad-Core (hasta 2.6 GHz), 4 GB de RAM 128 GB SSD, ampliable 1 TB, gráficos UHD 600, tipo C, USB 3.2 x 2, Mini HDMI, WiFi 5G,</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>B0D66DHSZF</t>
+          <t>B0DB66ZL4N</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>359.99</v>
+        <v>159.99</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1735,42 +1735,42 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>400+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71Dsy9r6CrL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71j+FdgCMaL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Morostron-Computadora-Quad-Core-computadoras-port%C3%A1tiles/dp/B0D149GCMY/ref=sr_1_26?dib=eyJ2IjoiMSJ9.bN1VnP2w-BJbFmehqjf-K1jY9FTaowH6m1EM-Isk8tXEPxAuya_F7FA7L3FU3GcNXutwgUGJlfIek6Xc5AkLTWBEHMENNsblqfXopzuq8m_SHWr0o9wStnrWt9e21-qGiWx_E628E9bK7ukRU-zwPPgH1aSd23mR3qkjCm6G5DinOjQc4xlivM_oABtqsUtEWu3ceswXm26Hfn4w9YVldyUXyjJmGTH522G6sClrWDs.1bI4m01It9aD7T12Uli6rG9GHBFgl3M4ZSUFVEdxfYg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875954&amp;sr=8-26</t>
+          <t>https://www.amazon.com/-/es/Acer-Aspire-A315-24P-R7VH-pantalla-procesador/dp/B0BS4BP8FB/ref=sr_1_25?dib=eyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759315&amp;sr=8-25</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Morostron Computadora portátil de 14 pulgadas, Celeron Quad-Core hasta 2.2 GHz, 4 GB de RAM y SSD de 192 GB, computadoras portátiles Win11 con FHD IPS, portátil delgado y ligero, portátiles de trabajo</t>
+          <t>Acer Aspire 3 A315-24P-R7VH - Laptop delgada, pantalla IPS Full HD de 15.6 pulgadas, procesador AMD Ryzen 3 7320U de cuatro núcleos, gráficos AMD Radeon, 8 GB LPDDR5, SSD NVMe de 128 GB, Wi-Fi 6,</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>B0D149GCMY</t>
+          <t>B0BS4BP8FB</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>169.99</v>
+        <v>299.99</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1779,42 +1779,42 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>2 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H31" t="n">
-        <v>14</v>
+        <v>3155</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61fBA3zeDDL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61gKkYQn6lL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>50</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-pulgadas-procesador-port%C3%A1tiles/dp/B0D3HRQ3WJ/ref=sr_1_27?dib=eyJ2IjoiMSJ9.bN1VnP2w-BJbFmehqjf-K1jY9FTaowH6m1EM-Isk8tXEPxAuya_F7FA7L3FU3GcNXutwgUGJlfIek6Xc5AkLTWBEHMENNsblqfXopzuq8m_SHWr0o9wStnrWt9e21-qGiWx_E628E9bK7ukRU-zwPPgH1aSd23mR3qkjCm6G5DinOjQc4xlivM_oABtqsUtEWu3ceswXm26Hfn4w9YVldyUXyjJmGTH522G6sClrWDs.1bI4m01It9aD7T12Uli6rG9GHBFgl3M4ZSUFVEdxfYg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875954&amp;sr=8-27</t>
+          <t>https://www.amazon.com/-/es/Lenovo-IdeaPad-14-pantalla-almacenamiento/dp/B0BLW25MB7/ref=sr_1_26?dib=eyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759315&amp;sr=8-26</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIGASUO Computadora portátil de 16 pulgadas, 16 GB DDR4 RAM SSD de 1 TB, procesador N100 de cuatro núcleos hasta 3.4 GHz, pantalla IPS FHD de 1200P, portátiles Windows 11 con USB 3.0, tipo C,</t>
+          <t>Lenovo IdeaPad 1 14 - Laptop con pantalla HD de 14 pulgadas, Intel Celeron N4020, 4 GB de RAM, 64 GB de almacenamiento, gráficos Intel UHD 600, Win 11 en modo S, gris nube</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>B0D3HRQ3WJ</t>
+          <t>B0BLW25MB7</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>399.98</v>
+        <v>150.99</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1823,42 +1823,42 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>500+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="H32" t="n">
-        <v>5</v>
+        <v>533</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81VXH9dwFEL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71bphKmt0DL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Port%C3%A1til-pulgadas-pantalla-i3-1215U-15-dy5599nr/dp/B0BVD8LZQL/ref=sr_1_28?dib=eyJ2IjoiMSJ9.bN1VnP2w-BJbFmehqjf-K1jY9FTaowH6m1EM-Isk8tXEPxAuya_F7FA7L3FU3GcNXutwgUGJlfIek6Xc5AkLTWBEHMENNsblqfXopzuq8m_SHWr0o9wStnrWt9e21-qGiWx_E628E9bK7ukRU-zwPPgH1aSd23mR3qkjCm6G5DinOjQc4xlivM_oABtqsUtEWu3ceswXm26Hfn4w9YVldyUXyjJmGTH522G6sClrWDs.1bI4m01It9aD7T12Uli6rG9GHBFgl3M4ZSUFVEdxfYg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875954&amp;sr=8-28</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxMTYwMzQxMDg5NjgyNTM2OjE3MjY3NTkzMTU6c3BfbXRmOjMwMDE0MjEzODM0NzUwMjo6MDo6&amp;url=%2FHP-Laptop-2024-14-retroiluminada%2Fdp%2FB0CVYT64X8%2Fref%3Dsr_1_27_sspa%3Fdib%3DeyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759315%26sr%3D8-27-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HP Portátil de 15 pulgadas, pantalla FHD, Intel Core i3-1215U, 8 GB de RAM, SSD de 128 GB, gráficos Intel UHD, Windows 11 Home en modo S, 15-dy5599nr (2023), gris</t>
+          <t>HP Laptop Essential 2024, pantalla FHD IPS de 14 pulgadas, procesador Intel de cuatro núcleos de hasta 3.7 GHz, memoria de 8 GB, SSD de 256 GB, KB retroiluminada, cámara web WiFi 6, carga rápida,</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>B0BVD8LZQL</t>
+          <t>B0CVYT64X8</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>345.99</v>
+        <v>399</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1867,18 +1867,18 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Más opciones de compra</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="H33" t="n">
-        <v>230</v>
+        <v>3</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71jcs5zlkzL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81bmPVgc1kL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1886,21 +1886,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Dell-OptiPlex-5040-SFF-computadora/dp/B0CZDS18J4/ref=sr_1_29?dib=eyJ2IjoiMSJ9.bN1VnP2w-BJbFmehqjf-K1jY9FTaowH6m1EM-Isk8tXEPxAuya_F7FA7L3FU3GcNXutwgUGJlfIek6Xc5AkLTWBEHMENNsblqfXopzuq8m_SHWr0o9wStnrWt9e21-qGiWx_E628E9bK7ukRU-zwPPgH1aSd23mR3qkjCm6G5DinOjQc4xlivM_oABtqsUtEWu3ceswXm26Hfn4w9YVldyUXyjJmGTH522G6sClrWDs.1bI4m01It9aD7T12Uli6rG9GHBFgl3M4ZSUFVEdxfYg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875954&amp;sr=8-29</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxMTYwMzQxMDg5NjgyNTM2OjE3MjY3NTkzMTU6c3BfbXRmOjMwMDE3MTQwNTgyNzYwMjo6MDo6&amp;url=%2FLenovo-IdeaPad-2023-15-6-i3-1115G4%2Fdp%2FB0CMT314YT%2Fref%3Dsr_1_28_sspa%3Fdib%3DeyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759315%26sr%3D8-28-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Dell OptiPlex 5040 SFF - Paquete de computadora de escritorio con nuevo monitor FHD de 23.8 pulgadas, Inter Core i5-6600 3.3GHz 4 núcleos 8 GB 256 GB SSD, teclado y mouse, Wi-Fi, Bluetooth, Windows 10</t>
+          <t>Lenovo IdeaPad 3i Business Laptop 2023, pantalla táctil FHD IPS de 15.6 pulgadas, Intel Core i3-1115G4 (hasta 4.10 GHz), 8 GB de RAM, 512 GB SSD, gráficos UHD, cámara web, Wi-Fi 6, batería larga, Win</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>B0CZDS18J4</t>
+          <t>B0CMT314YT</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>186.98</v>
+        <v>429</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1909,42 +1909,40 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H34" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81gheHSYV+L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71L6gXn3wiL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Chromebook-procesador-pantalla-computadora-micr%C3%B3fonos/dp/B08YKGZF7P/ref=sr_1_30?dib=eyJ2IjoiMSJ9.bN1VnP2w-BJbFmehqjf-K1jY9FTaowH6m1EM-Isk8tXEPxAuya_F7FA7L3FU3GcNXutwgUGJlfIek6Xc5AkLTWBEHMENNsblqfXopzuq8m_SHWr0o9wStnrWt9e21-qGiWx_E628E9bK7ukRU-zwPPgH1aSd23mR3qkjCm6G5DinOjQc4xlivM_oABtqsUtEWu3ceswXm26Hfn4w9YVldyUXyjJmGTH522G6sClrWDs.1bI4m01It9aD7T12Uli6rG9GHBFgl3M4ZSUFVEdxfYg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875954&amp;sr=8-30</t>
+          <t>https://www.amazon.com/-/es/Dell-Optiplex-9020-Escritorio-DisplayPort/dp/B08BJDFZRF/ref=sr_1_29?dib=eyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759315&amp;sr=8-29</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HP Laptop Chromebook 14, procesador Intel Celeron N4000, 4 GB de RAM, 32 GB eMMC, pantalla HD de 14 pulgadas, cromo, computadora ligera con cámara web y micrófonos duales, hogar, escuela, música,</t>
+          <t>Dell Optiplex 9020 - Escritorio de factor de forma pequeño con Intel Core i7-4770 hasta 3.9 GHz, soporte de gráficos HD 4600 4K, 32 GB de RAM, SSD de 1 TB, DisplayPort, HDMI, Wi-Fi, Bluetooth, Windows</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>B08YKGZF7P</t>
+          <t>B08BJDFZRF</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>191.9</v>
+        <v>204.89</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1953,42 +1951,42 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>400+ comprados el mes pasado</t>
+          <t>1 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H35" t="n">
-        <v>3858</v>
+        <v>3470</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81b6IIclRfS._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61S5alwyFLL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-pantalla-procesador-almacenamiento/dp/B0DD7L237D/ref=sr_1_31?dib=eyJ2IjoiMSJ9.bN1VnP2w-BJbFmehqjf-K1jY9FTaowH6m1EM-Isk8tXEPxAuya_F7FA7L3FU3GcNXutwgUGJlfIek6Xc5AkLTWBEHMENNsblqfXopzuq8m_SHWr0o9wStnrWt9e21-qGiWx_E628E9bK7ukRU-zwPPgH1aSd23mR3qkjCm6G5DinOjQc4xlivM_oABtqsUtEWu3ceswXm26Hfn4w9YVldyUXyjJmGTH522G6sClrWDs.1bI4m01It9aD7T12Uli6rG9GHBFgl3M4ZSUFVEdxfYg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875954&amp;sr=8-31</t>
+          <t>https://www.amazon.com/-/es/procesador-pulgadas-pantalla-port%C3%A1til-retroiluminado/dp/B0D9Y31WVZ/ref=sr_1_30?dib=eyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759315&amp;sr=8-30</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>jumper Computadora portátil, pantalla FHD de 16 pulgadas, procesador 5305U, 12 GB de RAM, 640 GB de almacenamiento (128 GB eMMC+512 GB SSD), 1 año de Office 365, WiFi, USB-A y C, sistema de</t>
+          <t>AOC Laptop para juegos con procesador AMD Ryzen 7 5700U (8C/16T, hasta 4.3 GHz) 16.1 pulgadas FHD pantalla portátil con teclado retroiluminado, 16 GB RAM 512 GB NVMe SSD, WiFi 6, HDMI, USB3.2, tipo C,</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>B0DD7L237D</t>
+          <t>B0D9Y31WVZ</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>299.99</v>
+        <v>599.99</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1997,42 +1995,42 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="H36" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71yVnwLcvZL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71QgxDBvIEL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/C424MA-AS48F-Chromebook-pantalla-procesador-almacenamiento/dp/B0BSP51S36/ref=sr_1_32?dib=eyJ2IjoiMSJ9.bN1VnP2w-BJbFmehqjf-K1jY9FTaowH6m1EM-Isk8tXEPxAuya_F7FA7L3FU3GcNXutwgUGJlfIek6Xc5AkLTWBEHMENNsblqfXopzuq8m_SHWr0o9wStnrWt9e21-qGiWx_E628E9bK7ukRU-zwPPgH1aSd23mR3qkjCm6G5DinOjQc4xlivM_oABtqsUtEWu3ceswXm26Hfn4w9YVldyUXyjJmGTH522G6sClrWDs.1bI4m01It9aD7T12Uli6rG9GHBFgl3M4ZSUFVEdxfYg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875954&amp;sr=8-32</t>
+          <t>https://www.amazon.com/-/es/Port%C3%A1til-pulgadas-pantalla-i3-1215U-15-dy5599nr/dp/B0BVD8LZQL/ref=sr_1_31?dib=eyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759315&amp;sr=8-31</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ASUS C424MA-AS48F Chromebook C424, pantalla FHD NanoEdge de 14.0 pulgadas y 180 grados, procesador Intel Dual Core Celeron, RAM LPDDR4 de 4 GB, almacenamiento de 128 GB, color plateado, C424MA-AS48F</t>
+          <t>HP Portátil de 15 pulgadas, pantalla FHD, Intel Core i3-1215U, 8 GB de RAM, SSD de 128 GB, gráficos Intel UHD, Windows 11 Home en modo S, 15-dy5599nr (2023), gris</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>B0BSP51S36</t>
+          <t>B0BVD8LZQL</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>240.95</v>
+        <v>345.99</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2041,42 +2039,40 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>Más opciones de compra</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H37" t="n">
-        <v>404</v>
+        <v>231</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71DL+S6ihBL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>100</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71jcs5zlkzL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-Stream-pantalla-14-pulgadas-GB/dp/B08RPBG7G4/ref=sr_1_33?dib=eyJ2IjoiMSJ9.bN1VnP2w-BJbFmehqjf-K1jY9FTaowH6m1EM-Isk8tXEPxAuya_F7FA7L3FU3GcNXutwgUGJlfIek6Xc5AkLTWBEHMENNsblqfXopzuq8m_SHWr0o9wStnrWt9e21-qGiWx_E628E9bK7ukRU-zwPPgH1aSd23mR3qkjCm6G5DinOjQc4xlivM_oABtqsUtEWu3ceswXm26Hfn4w9YVldyUXyjJmGTH522G6sClrWDs.1bI4m01It9aD7T12Uli6rG9GHBFgl3M4ZSUFVEdxfYg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875954&amp;sr=8-33</t>
+          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-computadora-pulgadas-procesador/dp/B0CZDTN2JK/ref=sr_1_32?dib=eyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759315&amp;sr=8-32</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HP Stream - Laptop con pantalla HD SVA de 14 pulgadas, Intel Celeron N4000, 4 GB de RAM, eMMC de 64 GB, cámara web, gráficos Intel UHD 600, Windows 10S, rosado rosa, tarjeta USB SnowBell de 32 GB</t>
+          <t>Computadora portátil 2024, computadora portátil de 14.1 pulgadas con procesador Intel N4000, 8 GB DDR4 RAM / 256 GB SSD, pantalla FHD de 1080P, WiFi de doble banda, BT, puerto Ethernet para escuela,</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>B08RPBG7G4</t>
+          <t>B0CZDTN2JK</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2085,39 +2081,43 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H38" t="n">
-        <v>1251</v>
+        <v>1</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61PpSLdUnKL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61l0W917haL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Apple-Laptop-MacBook-2024-pulgadas/dp/B0CX23GFMJ/ref=sr_1_34?dib=eyJ2IjoiMSJ9.bN1VnP2w-BJbFmehqjf-K1jY9FTaowH6m1EM-Isk8tXEPxAuya_F7FA7L3FU3GcNXutwgUGJlfIek6Xc5AkLTWBEHMENNsblqfXopzuq8m_SHWr0o9wStnrWt9e21-qGiWx_E628E9bK7ukRU-zwPPgH1aSd23mR3qkjCm6G5DinOjQc4xlivM_oABtqsUtEWu3ceswXm26Hfn4w9YVldyUXyjJmGTH522G6sClrWDs.1bI4m01It9aD7T12Uli6rG9GHBFgl3M4ZSUFVEdxfYg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875954&amp;sr=8-34</t>
+          <t>https://www.amazon.com/-/es/Computadora-procesador-computadora-suscripci%C3%B3n-expansi%C3%B3n/dp/B0D6B2V32D/ref=sr_1_33?dib=eyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759315&amp;sr=8-33</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Apple Laptop MacBook Air 2024 de 15 pulgadas con chip M3: diseñada para Apple Intelligence, pantalla de retina líquida de 15.3 pulgadas, memoria unificada de 8 GB, almacenamiento SSD de 256 GB,</t>
+          <t>jumper Computadora portátil, 4 GB RAM 128 GB SSD, procesador 5205U, pantalla HD de 15.6 pulgadas, computadora portátil con batería de 38 Wh, suscripción de 1 año de Office 365, expansión de 512 GB, 2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>B0CX23GFMJ</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>B0D6B2V32D</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>199.99</v>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -2125,42 +2125,42 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3 K+ comprados el mes pasado</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H39" t="n">
-        <v>534</v>
+        <v>65</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71O14N5GYLL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/6194G+5e3RL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>3000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1Mzc5NzcxNTU2NjkzMjQxOjE3MjU4NzU5NTQ6c3BfYnRmOjMwMDM4MjUwMzA0MjYwMjo6MDo6&amp;url=%2FCargador-Mac-Book-Pro-compatible%2Fdp%2FB091M93CQN%2Fref%3Dsr_1_35_sspa%3Fdib%3DeyJ2IjoiMSJ9.bN1VnP2w-BJbFmehqjf-K1jY9FTaowH6m1EM-Isk8tXEPxAuya_F7FA7L3FU3GcNXutwgUGJlfIek6Xc5AkLTWBEHMENNsblqfXopzuq8m_SHWr0o9wStnrWt9e21-qGiWx_E628E9bK7ukRU-zwPPgH1aSd23mR3qkjCm6G5DinOjQc4xlivM_oABtqsUtEWu3ceswXm26Hfn4w9YVldyUXyjJmGTH522G6sClrWDs.1bI4m01It9aD7T12Uli6rG9GHBFgl3M4ZSUFVEdxfYg%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725875954%26sr%3D8-35-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/C424MA-AS48F-Chromebook-pantalla-procesador-almacenamiento/dp/B0BSP51S36/ref=sr_1_34?dib=eyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759315&amp;sr=8-34</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cargador Mac Book Pro - Adaptador de corriente USB C de 87 W compatible con 13/14/15 pulgadas después de 2016, para Mac Book Air después de 2018, funciona 70 W, 67 W, 61 W, 30 W, 29 W, incluye cable</t>
+          <t>ASUS C424MA-AS48F Chromebook C424, pantalla FHD NanoEdge de 14.0 pulgadas y 180 grados, procesador Intel Dual Core Celeron, RAM LPDDR4 de 4 GB, almacenamiento de 128 GB, color plateado, C424MA-AS48F</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>B091M93CQN</t>
+          <t>B0BSP51S36</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>22.49</v>
+        <v>239.77</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2169,42 +2169,42 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2 K+ comprados el mes pasado</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H40" t="n">
-        <v>1978</v>
+        <v>412</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51mswdU7g6L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71DL+S6ihBL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>2000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1Mzc5NzcxNTU2NjkzMjQxOjE3MjU4NzU5NTQ6c3BfYnRmOjMwMDE2NTIxNTEzMTEwMjo6MDo6&amp;url=%2Fi7-13700-i9-12900-Bluetooth-computadora-escritorio%2Fdp%2FB0BHF49Z7F%2Fref%3Dsr_1_36_sspa%3Fdib%3DeyJ2IjoiMSJ9.bN1VnP2w-BJbFmehqjf-K1jY9FTaowH6m1EM-Isk8tXEPxAuya_F7FA7L3FU3GcNXutwgUGJlfIek6Xc5AkLTWBEHMENNsblqfXopzuq8m_SHWr0o9wStnrWt9e21-qGiWx_E628E9bK7ukRU-zwPPgH1aSd23mR3qkjCm6G5DinOjQc4xlivM_oABtqsUtEWu3ceswXm26Hfn4w9YVldyUXyjJmGTH522G6sClrWDs.1bI4m01It9aD7T12Uli6rG9GHBFgl3M4ZSUFVEdxfYg%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725875954%26sr%3D8-36-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Vivobook-pulgadas-Windows-transparente-M515DA-WS33/dp/B0CRDCFNHW/ref=sr_1_35?dib=eyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759315&amp;sr=8-35</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>VCI HP Elite 800 G9 SFF, Intel i7-13700 (16 núcleos, Beats Intel i9-12900), 16 GB DDR5 RAM, 256 GB SSD, Wi-Fi, Bluetooth, KB y mouse con cable, Win 11 Pro de 64 bits, computadora de escritorio</t>
+          <t>ASUS Vivobook Laptop FHD de 15.6 pulgadas, AMD Ryzen 3 3250U, 8 GB de RAM, SSD de 128 GB, Windows 11 Home, plata transparente, M515DA-WS33</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>B0BHF49Z7F</t>
+          <t>B0CRDCFNHW</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>899</v>
+        <v>250</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2213,41 +2213,41 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Compra productos de marcas de pequeñas empresas que se venden en la plataforma Amazon. Descubre más sobre las pequeñas empresas que se asocian con Amazon y el compromiso de Amazon de empoderarlas.</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>194</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41fl7d1UMcL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61FYc36J93L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0MTUxOTU1NTQyNTU5MDY2OjE3MjU4NzU5NjY6c3BfYXRmX25leHQ6MjAwMTA2NjQ0NjEzMjk4OjowOjo&amp;url=%2Fprotectora-resistente-computadora-port%25C3%25A1til-accesorios%2Fdp%2FB0BMGC5WFY%2Fref%3Dsr_1_33_sspa%3Fdib%3DeyJ2IjoiMSJ9.Stzhu8YQi9cjRcD9N3o8kdZujs4FwlDQr5tdWc5UhI6Ux_mP5gi8fz18ZVfozex0ux8IHa9OjpI4nvd3ZWzKm3vAX_KW4WQRnOd0TLH7qpiCEYBj9v9a_ojYsruLL60ublpE-Ni-KypZTmofp2C375OX4SBgPyJoF1Zj5JiB8S6IRNNdBFLATqOYJFNxwoH16TugCbLKJm5qWfsUrBck2v1nuEd7yqEwRGQAZX1IyZk.82YvfukanaAq9_LQxEOv-U2vOm5lbuaWO0uNABocmK4%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725875966%26sr%3D8-33-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Paquete-computadora-escritorio-Elite-800G1/dp/B07WFWQ2WJ/ref=sr_1_36?dib=eyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759315&amp;sr=8-36</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Funda protectora resistente con correa de mano para Zebra TC51 TC52 TC56 TC57 TC510K, funda para computadora portátil táctil de código de barras portátil, accesorios para escáner (negro)</t>
+          <t>HP Paquete de computadora de escritorio Elite 800G1 - Intel Quad Core i5 3.3GHz, 16 GB de RAM, 240 GB SSD 2 TB HDD, Windows 10 Pro, monitores duales de 19 pulgadas, teclado, mouse (renovado)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>B0BMGC5WFY</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>26.49</v>
-      </c>
+          <t>B07WFWQ2WJ</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -2259,14 +2259,14 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H42" t="n">
-        <v>10</v>
+        <v>845</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71uIjCLBs3L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/712ASxPbZqL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2276,21 +2276,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0MTUxOTU1NTQyNTU5MDY2OjE3MjU4NzU5NjY6c3BfYXRmX25leHQ6MzAwMjMwMzQyNDk0ODAyOjowOjo&amp;url=%2Falimentaci%25C3%25B3n-repuesto-adaptador-001-719309-001HSTNN-CA40-ADP-45WD%2Fdp%2FB01D8BK8YA%2Fref%3Dsr_1_34_sspa%3Fdib%3DeyJ2IjoiMSJ9.Stzhu8YQi9cjRcD9N3o8kdZujs4FwlDQr5tdWc5UhI6Ux_mP5gi8fz18ZVfozex0ux8IHa9OjpI4nvd3ZWzKm3vAX_KW4WQRnOd0TLH7qpiCEYBj9v9a_ojYsruLL60ublpE-Ni-KypZTmofp2C375OX4SBgPyJoF1Zj5JiB8S6IRNNdBFLATqOYJFNxwoH16TugCbLKJm5qWfsUrBck2v1nuEd7yqEwRGQAZX1IyZk.82YvfukanaAq9_LQxEOv-U2vOm5lbuaWO0uNABocmK4%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725875966%26sr%3D8-34-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxMTYwMzQxMDg5NjgyNTM2OjE3MjY3NTkzMTU6c3BfYnRmOjMwMDQyMDk4NjQ4MTQwMjo6MDo6&amp;url=%2FACEMAGIC-Windows-Computer-altavoces-micr%25C3%25B3fono%2Fdp%2FB0DFG63QNT%2Fref%3Dsr_1_37_sspa%3Fdib%3DeyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759315%26sr%3D8-37-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BULL® 45 W 19.5 V 2.31 A 4.5 x 3.0 mm Cable de alimentación de repuesto adaptador de CA para Laptop para HP 719309 – 001 719309 – 003, 721092 – 001, 741727 – 001, 740015 – 001HSTNN-CA40 ADP-45WD B</t>
+          <t>ACEMAGIC Laptop de 15.6" 16GB DDR4 512GB SSD 12th Alder Lake N95(hasta 3.4GHz) con Windows 11 Pro Thin Computer, Light Metal Laptop PC Soporte FHD, 2.4G/5G WiFi, BT5.0, 2 altavoces, micrófono, USB 3.2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>B01D8BK8YA</t>
+          <t>B0DFG63QNT</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>29.99</v>
+        <v>359.99</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2299,42 +2299,40 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>500+ comprados el mes pasado</t>
+          <t>Típico:</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H43" t="n">
-        <v>1886</v>
+        <v>5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71opCXJi2hL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
-        <v>500</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71qWV4C-0jL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-procesador-suscripci%C3%B3n-computadora-altavoces/dp/B0D9VH2TC9/ref=sr_1_35?dib=eyJ2IjoiMSJ9.Stzhu8YQi9cjRcD9N3o8kdZujs4FwlDQr5tdWc5UhI6Ux_mP5gi8fz18ZVfozex0ux8IHa9OjpI4nvd3ZWzKm3vAX_KW4WQRnOd0TLH7qpiCEYBj9v9a_ojYsruLL60ublpE-Ni-KypZTmofp2C375OX4SBgPyJoF1Zj5JiB8S6IRNNdBFLATqOYJFNxwoH16TugCbLKJm5qWfsUrBck2v1nuEd7yqEwRGQAZX1IyZk.82YvfukanaAq9_LQxEOv-U2vOm5lbuaWO0uNABocmK4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875966&amp;sr=8-35</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxMTYwMzQxMDg5NjgyNTM2OjE3MjY3NTkzMTU6c3BfYnRmOjMwMDAwMDA5MjEyMjAwMjo6MDo6&amp;url=%2FOriginal-ADP-180-Cargador-Adaptador-corriente%2Fdp%2FB07R1596N7%2Fref%3Dsr_1_38_sspa%3Fdib%3DeyJ2IjoiMSJ9.PdJMKwVBOJHwl8cYqApFlIGXlwCeMiAJIyU39MWgRo-qhnZNYqfW75hLZWkn_kVFHs-MpkRMEP4TJfsLPibW8pia6DRFwNl_8-bUAK4v8LrfGkabSmH2QrWBFd-oeZm805JKS16x9DSsNRlf0-hKRf9JUv9skRKPJffc7iYp3eDqz2riGsSkoAm-aeX3x6uSvcUuFn21Vz-YqsmmkHTzzSXZLwylR8UQOlVVyrYiuvU.NQqVBmPHBSsnugx1W_zdWfXlLSio6kJZr0Zg5WjX0xU%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759315%26sr%3D8-38-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jumper Computadora portátil, pantalla FHD IPS 1200p de 16 pulgadas, procesador 5305U, 4 GB RAM 128 GB SSD, suscripción a Office 365 1 año, computadora con teclado numérico, altavoces estéreo, HDMI,</t>
+          <t>Original 180 W 19.5 V 9.23 A ADP-180 MB F Gaming Laptop Cargador para Asus ROG G75VW G75VX GL502VT FX502VM FX702VM G751JM G750JW G750JM G750JS G752VL para MSI 180 W Adaptador de corriente. Tamaño del</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>B0D9VH2TC9</t>
+          <t>B07R1596N7</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>469.99</v>
+        <v>35.99</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2343,42 +2341,42 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>400+ comprados el mes pasado</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>410</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71Vwv5YkXGL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/610gUTjsP2L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-almacenamiento-microborde-Microsoft/dp/B094BKKPXX/ref=sr_1_36?dib=eyJ2IjoiMSJ9.Stzhu8YQi9cjRcD9N3o8kdZujs4FwlDQr5tdWc5UhI6Ux_mP5gi8fz18ZVfozex0ux8IHa9OjpI4nvd3ZWzKm3vAX_KW4WQRnOd0TLH7qpiCEYBj9v9a_ojYsruLL60ublpE-Ni-KypZTmofp2C375OX4SBgPyJoF1Zj5JiB8S6IRNNdBFLATqOYJFNxwoH16TugCbLKJm5qWfsUrBck2v1nuEd7yqEwRGQAZX1IyZk.82YvfukanaAq9_LQxEOv-U2vOm5lbuaWO0uNABocmK4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875966&amp;sr=8-36</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3Mzc3MjYyODc3NDc3Mjk3OjE3MjY3NTkzMjY6c3BfYXRmX25leHQ6MjAwMDcyNjM1NTg3Mzk4OjowOjo&amp;url=%2Fj5create-Soporte-laptop-concentrador-pantalla%2Fdp%2FB09YGZ8C5V%2Fref%3Dsr_1_33_sspa%3Fdib%3DeyJ2IjoiMSJ9.ref_BXZ3pEi3JvViMsJeNfPcdqbyQXPaCGlrfV_3pAVgw4Jp9jYd-wGber4k-lqRQa-2_hW5wTIcSl5SZ3Vk6ROyFmdgsIjKUWgd9DTLA7TYKFED6icrg1L8jiejCGfy7g_Ur7SdHzqtgffmT4RjvRX3CW72elPxsxxLjTa7cMN3OC0XGpelqNLwhn3qF8-HRw7ceXr1r-gzVevEz9m_-kW4H1-tRohgdCt1zkjEZzY.O-7OS1NozozZGiRMhd2bXH5e_2wcvdA1neyj8_wZAy4%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759326%26sr%3D8-33-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HP Computadora portátil 14, Intel Celeron N4020, 4 GB de RAM, 64 GB de almacenamiento, pantalla HD de microborde de 14 pulgadas, Windows 11 Home, delgada y portátil, gráficos 4K, un año de Microsoft</t>
+          <t>j5create Soporte para laptop con concentrador de pantalla HDMI USB C 4K - 2 USB A 5Gbps, PD 100W con USB-C 5Gbps | Elevador de computadora de aluminio para MacBook y Windows Notebook (JTS327)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>B094BKKPXX</t>
+          <t>B09YGZ8C5V</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>209.49</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2387,42 +2385,40 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H45" t="n">
-        <v>1170</v>
+        <v>22</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/818vEGdvS+S._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>100</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61Xy6JSnJML._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-pulgadas-1920x1080-pantalla/dp/B0CS328F1F/ref=sr_1_37?dib=eyJ2IjoiMSJ9.Stzhu8YQi9cjRcD9N3o8kdZujs4FwlDQr5tdWc5UhI6Ux_mP5gi8fz18ZVfozex0ux8IHa9OjpI4nvd3ZWzKm3vAX_KW4WQRnOd0TLH7qpiCEYBj9v9a_ojYsruLL60ublpE-Ni-KypZTmofp2C375OX4SBgPyJoF1Zj5JiB8S6IRNNdBFLATqOYJFNxwoH16TugCbLKJm5qWfsUrBck2v1nuEd7yqEwRGQAZX1IyZk.82YvfukanaAq9_LQxEOv-U2vOm5lbuaWO0uNABocmK4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875966&amp;sr=8-37</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3Mzc3MjYyODc3NDc3Mjk3OjE3MjY3NTkzMjY6c3BfYXRmX25leHQ6MzAwMDgyNTA1ODMzMTAyOjowOjo&amp;url=%2FDELTAHUB-Carpio-2-0-Reposamu%25C3%25B1ecas-deslizamiento%2Fdp%2FB098P8C3BT%2Fref%3Dsr_1_34_sspa%3Fdib%3DeyJ2IjoiMSJ9.ref_BXZ3pEi3JvViMsJeNfPcdqbyQXPaCGlrfV_3pAVgw4Jp9jYd-wGber4k-lqRQa-2_hW5wTIcSl5SZ3Vk6ROyFmdgsIjKUWgd9DTLA7TYKFED6icrg1L8jiejCGfy7g_Ur7SdHzqtgffmT4RjvRX3CW72elPxsxxLjTa7cMN3OC0XGpelqNLwhn3qF8-HRw7ceXr1r-gzVevEz9m_-kW4H1-tRohgdCt1zkjEZzY.O-7OS1NozozZGiRMhd2bXH5e_2wcvdA1neyj8_wZAy4%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759326%26sr%3D8-34-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Computadora portátil de 14 pulgadas, 8 GB DDR4 512 GB SSD, Intel Celeron J4125 4M caché, hasta 2.70 GHz Gemini Lake, Windows 11 FHD 1920x1080 pantalla, WiFi de doble banda, cámara web</t>
+          <t>DELTAHUB Carpio 2.0 - Reposamuñecas ergonómico para diestros para ratón, soporte para túnel carpiano, alivio del dolor, antifatiga, fácil deslizamiento, elegante, oficina, computadora, laptop, juegos,</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>B0CS328F1F</t>
+          <t>B098P8C3BT</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>228.99</v>
+        <v>39.9</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2431,42 +2427,42 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>500+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H46" t="n">
-        <v>24</v>
+        <v>1599</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71DSSOAy-VL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/514HVds0DzL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Business-pulgadas-HD_Pentium-Procesador-Intel-UHD/dp/B0D9Y2TQ48/ref=sr_1_38?dib=eyJ2IjoiMSJ9.Stzhu8YQi9cjRcD9N3o8kdZujs4FwlDQr5tdWc5UhI6Ux_mP5gi8fz18ZVfozex0ux8IHa9OjpI4nvd3ZWzKm3vAX_KW4WQRnOd0TLH7qpiCEYBj9v9a_ojYsruLL60ublpE-Ni-KypZTmofp2C375OX4SBgPyJoF1Zj5JiB8S6IRNNdBFLATqOYJFNxwoH16TugCbLKJm5qWfsUrBck2v1nuEd7yqEwRGQAZX1IyZk.82YvfukanaAq9_LQxEOv-U2vOm5lbuaWO0uNABocmK4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875966&amp;sr=8-38</t>
+          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-pulgadas-1920x1080-pantalla/dp/B0CS328F1F/ref=sr_1_36?dib=eyJ2IjoiMSJ9.ref_BXZ3pEi3JvViMsJeNfPcdqbyQXPaCGlrfV_3pAVgw4Jp9jYd-wGber4k-lqRQa-2_hW5wTIcSl5SZ3Vk6ROyFmdgsIjKUWgd9DTLA7TYKFED6icrg1L8jiejCGfy7g_Ur7SdHzqtgffmT4RjvRX3CW72elPxsxxLjTa7cMN3OC0XGpelqNLwhn3qF8-HRw7ceXr1r-gzVevEz9m_-kW4H1-tRohgdCt1zkjEZzY.O-7OS1NozozZGiRMhd2bXH5e_2wcvdA1neyj8_wZAy4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759326&amp;sr=8-36</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NewHP Business &amp; Student Laptop de 14 pulgadas HD_Pentium Silver N5030 Procesador 4GB RAM 128GB SSD. Gráficos Intel.UHD Cámara web USB-C HDMI SD lector de tarjetas Wi-Fi 1 año Office 365 Win 11 H en</t>
+          <t>Computadora portátil de 14 pulgadas, 8 GB DDR4 512 GB SSD, Intel Celeron J4125 4M caché, hasta 2.70 GHz Gemini Lake, Windows 11 FHD 1920x1080 pantalla, WiFi de doble banda, cámara web</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>B0D9Y2TQ48</t>
+          <t>B0CS328F1F</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>229</v>
+        <v>228.99</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2475,42 +2471,42 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H47" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/611jVyxszFL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71DSSOAy-VL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Vivobook-pulgadas-Windows-transparente-M515DA-WS33/dp/B0CRDCFNHW/ref=sr_1_39?dib=eyJ2IjoiMSJ9.Stzhu8YQi9cjRcD9N3o8kdZujs4FwlDQr5tdWc5UhI6Ux_mP5gi8fz18ZVfozex0ux8IHa9OjpI4nvd3ZWzKm3vAX_KW4WQRnOd0TLH7qpiCEYBj9v9a_ojYsruLL60ublpE-Ni-KypZTmofp2C375OX4SBgPyJoF1Zj5JiB8S6IRNNdBFLATqOYJFNxwoH16TugCbLKJm5qWfsUrBck2v1nuEd7yqEwRGQAZX1IyZk.82YvfukanaAq9_LQxEOv-U2vOm5lbuaWO0uNABocmK4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875966&amp;sr=8-39</t>
+          <t>https://www.amazon.com/-/es/ASUS-Vivobook-L410-ultradelgado-procesador/dp/B0CDKLYZPV/ref=sr_1_37?dib=eyJ2IjoiMSJ9.ref_BXZ3pEi3JvViMsJeNfPcdqbyQXPaCGlrfV_3pAVgw4Jp9jYd-wGber4k-lqRQa-2_hW5wTIcSl5SZ3Vk6ROyFmdgsIjKUWgd9DTLA7TYKFED6icrg1L8jiejCGfy7g_Ur7SdHzqtgffmT4RjvRX3CW72elPxsxxLjTa7cMN3OC0XGpelqNLwhn3qF8-HRw7ceXr1r-gzVevEz9m_-kW4H1-tRohgdCt1zkjEZzY.O-7OS1NozozZGiRMhd2bXH5e_2wcvdA1neyj8_wZAy4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759326&amp;sr=8-37</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ASUS Vivobook Laptop FHD de 15.6 pulgadas, AMD Ryzen 3 3250U, 8 GB de RAM, SSD de 128 GB, Windows 11 Home, plata transparente, M515DA-WS33</t>
+          <t>ASUS Vivobook Go 14 L410 - Laptop ultradelgado, pantalla FHD de 14†, procesador Intel Celeron N4020, 4 GB de RAM, 64 GB eMMC, NumberPad, Windows 11 Home en modo S, 1 año Microsoft 365, Star Black,</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>B0CRDCFNHW</t>
+          <t>B0CDKLYZPV</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>255.8</v>
+        <v>175</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2519,42 +2515,40 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>Más opciones de compra</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H48" t="n">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61FYc36J93L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
-        <v>1000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71RDNz9y4aL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Dell-Optiplex-7040-Business-SFF/dp/B07K6YG7YY/ref=sr_1_40?dib=eyJ2IjoiMSJ9.Stzhu8YQi9cjRcD9N3o8kdZujs4FwlDQr5tdWc5UhI6Ux_mP5gi8fz18ZVfozex0ux8IHa9OjpI4nvd3ZWzKm3vAX_KW4WQRnOd0TLH7qpiCEYBj9v9a_ojYsruLL60ublpE-Ni-KypZTmofp2C375OX4SBgPyJoF1Zj5JiB8S6IRNNdBFLATqOYJFNxwoH16TugCbLKJm5qWfsUrBck2v1nuEd7yqEwRGQAZX1IyZk.82YvfukanaAq9_LQxEOv-U2vOm5lbuaWO0uNABocmK4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875966&amp;sr=8-40</t>
+          <t>https://www.amazon.com/-/es/Lenovo-IdeaPad-Chromebook-pantalla-Celeron/dp/B0BSJ46KY9/ref=sr_1_38?dib=eyJ2IjoiMSJ9.ref_BXZ3pEi3JvViMsJeNfPcdqbyQXPaCGlrfV_3pAVgw4Jp9jYd-wGber4k-lqRQa-2_hW5wTIcSl5SZ3Vk6ROyFmdgsIjKUWgd9DTLA7TYKFED6icrg1L8jiejCGfy7g_Ur7SdHzqtgffmT4RjvRX3CW72elPxsxxLjTa7cMN3OC0XGpelqNLwhn3qF8-HRw7ceXr1r-gzVevEz9m_-kW4H1-tRohgdCt1zkjEZzY.O-7OS1NozozZGiRMhd2bXH5e_2wcvdA1neyj8_wZAy4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759326&amp;sr=8-38</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Dell Optiplex 7040 Business SFF - Computadora de torre pequeña (Intel Core i5-6500, 16 GB de RAM, 256 GB SSD, DVD-RW, WiFi) Win 10 Pro (renovado)</t>
+          <t>Lenovo IdeaPad 3i Chromebook, pantalla FHD de 15.6", Intel Celeron N4500, 8 GB de RAM, 64 GB eMMC, 1920 x 1080 px, cámara de 720p, Chrome OS, azul abismo</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>B07K6YG7YY</t>
+          <t>B0BSJ46KY9</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>105.99</v>
+        <v>268</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2563,42 +2557,42 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>200+ comprados el mes pasado</t>
+          <t>2 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H49" t="n">
-        <v>611</v>
+        <v>297</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61CLSk-XVfL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71bwzCMcQvL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Escritorio-pantalla-pulgadas-procesador-Celeron/dp/B0B7BRXXMX/ref=sr_1_41?dib=eyJ2IjoiMSJ9.Stzhu8YQi9cjRcD9N3o8kdZujs4FwlDQr5tdWc5UhI6Ux_mP5gi8fz18ZVfozex0ux8IHa9OjpI4nvd3ZWzKm3vAX_KW4WQRnOd0TLH7qpiCEYBj9v9a_ojYsruLL60ublpE-Ni-KypZTmofp2C375OX4SBgPyJoF1Zj5JiB8S6IRNNdBFLATqOYJFNxwoH16TugCbLKJm5qWfsUrBck2v1nuEd7yqEwRGQAZX1IyZk.82YvfukanaAq9_LQxEOv-U2vOm5lbuaWO0uNABocmK4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875966&amp;sr=8-41</t>
+          <t>https://www.amazon.com/-/es/escritorio-pulgadas-pantalla-gr%C3%A1ficos-24-cr0042/dp/B0CBXZP9PR/ref=sr_1_39?dib=eyJ2IjoiMSJ9.ref_BXZ3pEi3JvViMsJeNfPcdqbyQXPaCGlrfV_3pAVgw4Jp9jYd-wGber4k-lqRQa-2_hW5wTIcSl5SZ3Vk6ROyFmdgsIjKUWgd9DTLA7TYKFED6icrg1L8jiejCGfy7g_Ur7SdHzqtgffmT4RjvRX3CW72elPxsxxLjTa7cMN3OC0XGpelqNLwhn3qF8-HRw7ceXr1r-gzVevEz9m_-kW4H1-tRohgdCt1zkjEZzY.O-7OS1NozozZGiRMhd2bXH5e_2wcvdA1neyj8_wZAy4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759326&amp;sr=8-39</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HP Escritorio todo en uno 2022, pantalla FHD de 21.5 pulgadas, procesador Intel Celeron J4025, 8 GB de RAM, 256 GB PCIe SSD, cámara web, WiFi, HDMI, RJ-45, teclado y mouse con cable, Windows 11 Home,</t>
+          <t>HP PC de escritorio todo en uno de 23.8 pulgadas, pantalla FHD, Intel Core i3-N300, 8 GB de RAM, SSD de 512 GB, gráficos Intel UHD, Windows 11 Home, 24-cr0042 (2023)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>B0B7BRXXMX</t>
+          <t>B0CBXZP9PR</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>395</v>
+        <v>604</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2607,42 +2601,42 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>300+ comprados el mes pasado</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H50" t="n">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/91f9y+HBacL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71z-+iyRfaL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Micro-computadora-OptiPlex-7050-Bit-Multi-idioma/dp/B08GCX4JKJ/ref=sr_1_42?dib=eyJ2IjoiMSJ9.Stzhu8YQi9cjRcD9N3o8kdZujs4FwlDQr5tdWc5UhI6Ux_mP5gi8fz18ZVfozex0ux8IHa9OjpI4nvd3ZWzKm3vAX_KW4WQRnOd0TLH7qpiCEYBj9v9a_ojYsruLL60ublpE-Ni-KypZTmofp2C375OX4SBgPyJoF1Zj5JiB8S6IRNNdBFLATqOYJFNxwoH16TugCbLKJm5qWfsUrBck2v1nuEd7yqEwRGQAZX1IyZk.82YvfukanaAq9_LQxEOv-U2vOm5lbuaWO0uNABocmK4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875966&amp;sr=8-42</t>
+          <t>https://www.amazon.com/-/es/Morostron-Computadora-Quad-Core-computadoras-port%C3%A1tiles/dp/B0D149GCMY/ref=sr_1_40?dib=eyJ2IjoiMSJ9.ref_BXZ3pEi3JvViMsJeNfPcdqbyQXPaCGlrfV_3pAVgw4Jp9jYd-wGber4k-lqRQa-2_hW5wTIcSl5SZ3Vk6ROyFmdgsIjKUWgd9DTLA7TYKFED6icrg1L8jiejCGfy7g_Ur7SdHzqtgffmT4RjvRX3CW72elPxsxxLjTa7cMN3OC0XGpelqNLwhn3qF8-HRw7ceXr1r-gzVevEz9m_-kW4H1-tRohgdCt1zkjEZzY.O-7OS1NozozZGiRMhd2bXH5e_2wcvdA1neyj8_wZAy4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759326&amp;sr=8-40</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Dell Micro computadora OptiPlex 7050, Intel Quad Core i5-6500T hasta 3.1GHz, 16G DDR4, 256G SSD, Windows 10 Pro 64 Bit-Multi-idioma compatible con inglés/español/francés (renovado)</t>
+          <t>Morostron Computadora portátil de 14 pulgadas, Celeron Quad-Core hasta 2.2 GHz, 4 GB de RAM y SSD de 192 GB, computadoras portátiles Win11 con FHD IPS, portátil delgado y ligero, portátiles de trabajo</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>B08GCX4JKJ</t>
+          <t>B0D149GCMY</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>149.99</v>
+        <v>169.99</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2651,42 +2645,42 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>500+ comprados el mes pasado</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="H51" t="n">
-        <v>473</v>
+        <v>4</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51muPv+cJzL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61fBA3zeDDL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-i5-6440EQ-pantalla-retroiluminado/dp/B0CN14L7W7/ref=sr_1_44?dib=eyJ2IjoiMSJ9.Stzhu8YQi9cjRcD9N3o8kdZujs4FwlDQr5tdWc5UhI6Ux_mP5gi8fz18ZVfozex0ux8IHa9OjpI4nvd3ZWzKm3vAX_KW4WQRnOd0TLH7qpiCEYBj9v9a_ojYsruLL60ublpE-Ni-KypZTmofp2C375OX4SBgPyJoF1Zj5JiB8S6IRNNdBFLATqOYJFNxwoH16TugCbLKJm5qWfsUrBck2v1nuEd7yqEwRGQAZX1IyZk.82YvfukanaAq9_LQxEOv-U2vOm5lbuaWO0uNABocmK4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875966&amp;sr=8-44</t>
+          <t>https://www.amazon.com/-/es/Chromebook-pantalla-pulgadas-gr%C3%A1ficos-14a-na0226nr/dp/B09SVSBVP1/ref=sr_1_41?dib=eyJ2IjoiMSJ9.ref_BXZ3pEi3JvViMsJeNfPcdqbyQXPaCGlrfV_3pAVgw4Jp9jYd-wGber4k-lqRQa-2_hW5wTIcSl5SZ3Vk6ROyFmdgsIjKUWgd9DTLA7TYKFED6icrg1L8jiejCGfy7g_Ur7SdHzqtgffmT4RjvRX3CW72elPxsxxLjTa7cMN3OC0XGpelqNLwhn3qF8-HRw7ceXr1r-gzVevEz9m_-kW4H1-tRohgdCt1zkjEZzY.O-7OS1NozozZGiRMhd2bXH5e_2wcvdA1neyj8_wZAy4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759326&amp;sr=8-41</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Computadora portátil Windows de 32 GB de RAM, SSD PCIe NVMe M2 de 1 TB, CPU Intel N95 (Beat i5-6440EQ) de 1.7 a 3.4 GHz, pantalla LCD IPS FHD de 15.6 pulgadas, teclado retroiluminado, lector de</t>
+          <t>HP Laptop Chromebook 14, Intel Celeron N4120, 4 GB de RAM, 64 GB eMMC, pantalla HD de 14 pulgadas, Chrome OS, diseño delgado, gráficos 4K, batería de larga duración, teclado gris ceniza (14a-na0226nr,</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>B0CN14L7W7</t>
+          <t>B09SVSBVP1</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>299.99</v>
+        <v>192.6</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2695,42 +2689,42 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>3 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="H52" t="n">
-        <v>86</v>
+        <v>1743</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71CG-QT92KL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71tXLOE7wIL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-Elite-computadora-escritorio-pulgadas/dp/B09TNDLPR4/ref=sr_1_45?dib=eyJ2IjoiMSJ9.Stzhu8YQi9cjRcD9N3o8kdZujs4FwlDQr5tdWc5UhI6Ux_mP5gi8fz18ZVfozex0ux8IHa9OjpI4nvd3ZWzKm3vAX_KW4WQRnOd0TLH7qpiCEYBj9v9a_ojYsruLL60ublpE-Ni-KypZTmofp2C375OX4SBgPyJoF1Zj5JiB8S6IRNNdBFLATqOYJFNxwoH16TugCbLKJm5qWfsUrBck2v1nuEd7yqEwRGQAZX1IyZk.82YvfukanaAq9_LQxEOv-U2vOm5lbuaWO0uNABocmK4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875966&amp;sr=8-45</t>
+          <t>https://www.amazon.com/-/es/HP-Pentium-Computadora-estudiantes-Accesorios/dp/B0DB7T3QB5/ref=sr_1_42?dib=eyJ2IjoiMSJ9.ref_BXZ3pEi3JvViMsJeNfPcdqbyQXPaCGlrfV_3pAVgw4Jp9jYd-wGber4k-lqRQa-2_hW5wTIcSl5SZ3Vk6ROyFmdgsIjKUWgd9DTLA7TYKFED6icrg1L8jiejCGfy7g_Ur7SdHzqtgffmT4RjvRX3CW72elPxsxxLjTa7cMN3OC0XGpelqNLwhn3qF8-HRw7ceXr1r-gzVevEz9m_-kW4H1-tRohgdCt1zkjEZzY.O-7OS1NozozZGiRMhd2bXH5e_2wcvdA1neyj8_wZAy4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759326&amp;sr=8-42</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>HP Elite PC de computadora de escritorio, 3.1 GHz, Intel Core i5, 16 GB, RAM, disco duro de 1 TB, nuevo monitor LED de 22 pulgadas, altavoz RGB y teclado mouse, WiFi, Windows 10 Pro (renovado)</t>
+          <t>HP 14 Pentium - Computadora portátil para estudiantes, 16 GB de RAM, SSD de 1 TB, Intel Quad-Core Silver N5030 (Beat i3-1005G1, hasta 3.1 GHz), WiFi 6, Win 11 w/GM Accesorios, un año de Microsoft 365</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>B09TNDLPR4</t>
+          <t>B0DB7T3QB5</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>199.09</v>
+        <v>369.99</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2739,42 +2733,42 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>300+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="H53" t="n">
-        <v>354</v>
+        <v>22</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71CJt6BB-lL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61FFvbARAzL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/pulgadas-computadora-procesador-Quad-Core-ampliable/dp/B0DB66ZL4N/ref=sr_1_47?dib=eyJ2IjoiMSJ9.Stzhu8YQi9cjRcD9N3o8kdZujs4FwlDQr5tdWc5UhI6Ux_mP5gi8fz18ZVfozex0ux8IHa9OjpI4nvd3ZWzKm3vAX_KW4WQRnOd0TLH7qpiCEYBj9v9a_ojYsruLL60ublpE-Ni-KypZTmofp2C375OX4SBgPyJoF1Zj5JiB8S6IRNNdBFLATqOYJFNxwoH16TugCbLKJm5qWfsUrBck2v1nuEd7yqEwRGQAZX1IyZk.82YvfukanaAq9_LQxEOv-U2vOm5lbuaWO0uNABocmK4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875966&amp;sr=8-47</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3Mzc3MjYyODc3NDc3Mjk3OjE3MjY3NTkzMjY6c3BfbXRmOjMwMDM4NTg0MjE0ODgwMjo6MDo6&amp;url=%2FASUS-Chromebook-2024-procesador-almacenamiento%2Fdp%2FB0DFDXQX63%2Fref%3Dsr_1_43_sspa%3Fdib%3DeyJ2IjoiMSJ9.ref_BXZ3pEi3JvViMsJeNfPcdqbyQXPaCGlrfV_3pAVgw4Jp9jYd-wGber4k-lqRQa-2_hW5wTIcSl5SZ3Vk6ROyFmdgsIjKUWgd9DTLA7TYKFED6icrg1L8jiejCGfy7g_Ur7SdHzqtgffmT4RjvRX3CW72elPxsxxLjTa7cMN3OC0XGpelqNLwhn3qF8-HRw7ceXr1r-gzVevEz9m_-kW4H1-tRohgdCt1zkjEZzY.O-7OS1NozozZGiRMhd2bXH5e_2wcvdA1neyj8_wZAy4%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759326%26sr%3D8-43-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SGIN Laptop de 15.6 pulgadas, computadora portátil con procesador Celeron Quad-Core (hasta 2.6 GHz), 4 GB de RAM 128 GB SSD, ampliable 1 TB, gráficos UHD 600, tipo C, USB 3.2 x 2, Mini HDMI, WiFi 5G,</t>
+          <t>ASUS Laptop Chromebook 2024, pantalla FHD de 14 pulgadas, procesador MediaTek Kompanio 520 de 8 núcleos, 4 GB de RAM, almacenamiento de 128 GB (64 GB eMMC+tarjeta de 64 GB), cámara web, WiFi 6,</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>B0DB66ZL4N</t>
+          <t>B0DFDXQX63</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>189.99</v>
+        <v>239</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2783,42 +2777,40 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71j+FdgCMaL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>100</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61uJKGFqqZL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Dell-Optiplex-9020-Escritorio-DisplayPort/dp/B08BJDFZRF/ref=sr_1_48?dib=eyJ2IjoiMSJ9.Stzhu8YQi9cjRcD9N3o8kdZujs4FwlDQr5tdWc5UhI6Ux_mP5gi8fz18ZVfozex0ux8IHa9OjpI4nvd3ZWzKm3vAX_KW4WQRnOd0TLH7qpiCEYBj9v9a_ojYsruLL60ublpE-Ni-KypZTmofp2C375OX4SBgPyJoF1Zj5JiB8S6IRNNdBFLATqOYJFNxwoH16TugCbLKJm5qWfsUrBck2v1nuEd7yqEwRGQAZX1IyZk.82YvfukanaAq9_LQxEOv-U2vOm5lbuaWO0uNABocmK4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875966&amp;sr=8-48</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3Mzc3MjYyODc3NDc3Mjk3OjE3MjY3NTkzMjY6c3BfbXRmOjMwMDE2NjQ2Njc0NjQwMjo6MDo6&amp;url=%2FHP-Stream-BrightView-almacenamiento-acoplamiento%2Fdp%2FB0CVXZDQB7%2Fref%3Dsr_1_44_sspa%3Fdib%3DeyJ2IjoiMSJ9.ref_BXZ3pEi3JvViMsJeNfPcdqbyQXPaCGlrfV_3pAVgw4Jp9jYd-wGber4k-lqRQa-2_hW5wTIcSl5SZ3Vk6ROyFmdgsIjKUWgd9DTLA7TYKFED6icrg1L8jiejCGfy7g_Ur7SdHzqtgffmT4RjvRX3CW72elPxsxxLjTa7cMN3OC0XGpelqNLwhn3qF8-HRw7ceXr1r-gzVevEz9m_-kW4H1-tRohgdCt1zkjEZzY.O-7OS1NozozZGiRMhd2bXH5e_2wcvdA1neyj8_wZAy4%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759326%26sr%3D8-44-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Dell Optiplex 9020 - Escritorio de factor de forma pequeño con Intel Core i7-4770 hasta 3.9 GHz, soporte de gráficos HD 4600 4K, 32 GB de RAM, SSD de 1 TB, DisplayPort, HDMI, Wi-Fi, Bluetooth, Windows</t>
+          <t>HP Stream - Laptop BrightView HD de 14 pulgadas, Intel Celeron N4120, 8 GB de RAM, 288 GB de almacenamiento (128 GB eMMC + 160 GB de estación de acoplamiento), gráficos Intel UHD, cámara web 720p,</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>B08BJDFZRF</t>
+          <t>B0CVXZDQB7</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>209.99</v>
+        <v>349</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2827,42 +2819,40 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H55" t="n">
-        <v>3446</v>
+        <v>1917</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61S5alwyFLL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>1000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61QuxlKVZbL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Lenovo-IdeaPad-reciente-Microsoft-tarjetas/dp/B0BZXZSG4J/ref=sr_1_49?dib=eyJ2IjoiMSJ9.Stzhu8YQi9cjRcD9N3o8kdZujs4FwlDQr5tdWc5UhI6Ux_mP5gi8fz18ZVfozex0ux8IHa9OjpI4nvd3ZWzKm3vAX_KW4WQRnOd0TLH7qpiCEYBj9v9a_ojYsruLL60ublpE-Ni-KypZTmofp2C375OX4SBgPyJoF1Zj5JiB8S6IRNNdBFLATqOYJFNxwoH16TugCbLKJm5qWfsUrBck2v1nuEd7yqEwRGQAZX1IyZk.82YvfukanaAq9_LQxEOv-U2vOm5lbuaWO0uNABocmK4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875966&amp;sr=8-49</t>
+          <t>https://www.amazon.com/-/es/Business-pulgadas-HD_Pentium-Procesador-Intel-UHD/dp/B0D9Y2TQ48/ref=sr_1_45?dib=eyJ2IjoiMSJ9.ref_BXZ3pEi3JvViMsJeNfPcdqbyQXPaCGlrfV_3pAVgw4Jp9jYd-wGber4k-lqRQa-2_hW5wTIcSl5SZ3Vk6ROyFmdgsIjKUWgd9DTLA7TYKFED6icrg1L8jiejCGfy7g_Ur7SdHzqtgffmT4RjvRX3CW72elPxsxxLjTa7cMN3OC0XGpelqNLwhn3qF8-HRw7ceXr1r-gzVevEz9m_-kW4H1-tRohgdCt1zkjEZzY.O-7OS1NozozZGiRMhd2bXH5e_2wcvdA1neyj8_wZAy4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759326&amp;sr=8-45</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Lenovo IdeaPad 1 15.6" FHD Laptop más reciente, Intel Pentium Silver N6000, 12 GB de RAM, 256 GB PCIe SSD+128 GB eMMC, 1 año Microsoft Office 365, cámara web, tipo C, lector de tarjetas SD, Wi-Fi 6,</t>
+          <t>NewHP Business &amp; Student Laptop de 14 pulgadas HD_Pentium Silver N5030 Procesador 4GB RAM 128GB SSD. Gráficos Intel.UHD Cámara web USB-C HDMI SD lector de tarjetas Wi-Fi 1 año Office 365 Win 11 H en</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>B0BZXZSG4J</t>
+          <t>B0D9Y2TQ48</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>296.29</v>
+        <v>229</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2875,14 +2865,14 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="H56" t="n">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51mlifq5qmL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/611jVyxszFL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -2892,22 +2882,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-Stream-BrightView-procesador-almacenamiento/dp/B0CLGB6ZH8/ref=sr_1_50?dib=eyJ2IjoiMSJ9.Stzhu8YQi9cjRcD9N3o8kdZujs4FwlDQr5tdWc5UhI6Ux_mP5gi8fz18ZVfozex0ux8IHa9OjpI4nvd3ZWzKm3vAX_KW4WQRnOd0TLH7qpiCEYBj9v9a_ojYsruLL60ublpE-Ni-KypZTmofp2C375OX4SBgPyJoF1Zj5JiB8S6IRNNdBFLATqOYJFNxwoH16TugCbLKJm5qWfsUrBck2v1nuEd7yqEwRGQAZX1IyZk.82YvfukanaAq9_LQxEOv-U2vOm5lbuaWO0uNABocmK4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875966&amp;sr=8-50</t>
+          <t>https://www.amazon.com/-/es/Apple-Laptop-MacBook-2024-pulgadas/dp/B0CX23GFMJ/ref=sr_1_46?dib=eyJ2IjoiMSJ9.ref_BXZ3pEi3JvViMsJeNfPcdqbyQXPaCGlrfV_3pAVgw4Jp9jYd-wGber4k-lqRQa-2_hW5wTIcSl5SZ3Vk6ROyFmdgsIjKUWgd9DTLA7TYKFED6icrg1L8jiejCGfy7g_Ur7SdHzqtgffmT4RjvRX3CW72elPxsxxLjTa7cMN3OC0XGpelqNLwhn3qF8-HRw7ceXr1r-gzVevEz9m_-kW4H1-tRohgdCt1zkjEZzY.O-7OS1NozozZGiRMhd2bXH5e_2wcvdA1neyj8_wZAy4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759326&amp;sr=8-46</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HP Stream - Laptop BrightView HD de 14 pulgadas, procesador Intel Celeron N4120, 8 GB de RAM, 64 GB de almacenamiento, gráficos Intel HD, cámara web, 1 año Office 365, rosa, Windows 11 S, tarjeta USB</t>
+          <t>Apple Laptop MacBook Air 2024 de 15 pulgadas con chip M3: diseñada para Apple Intelligence, pantalla de retina líquida de 15.3 pulgadas, memoria unificada de 8 GB, almacenamiento SSD de 256 GB,</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>B0CLGB6ZH8</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>279</v>
-      </c>
+          <t>B0CX23GFMJ</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -2915,40 +2903,42 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>2 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="H57" t="n">
-        <v>286</v>
+        <v>591</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61PpSLdUnKL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71O14N5GYLL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Lenovo-IdeaPad-Chromebook-pantalla-Celeron/dp/B0BSJ46KY9/ref=sr_1_51?dib=eyJ2IjoiMSJ9.Stzhu8YQi9cjRcD9N3o8kdZujs4FwlDQr5tdWc5UhI6Ux_mP5gi8fz18ZVfozex0ux8IHa9OjpI4nvd3ZWzKm3vAX_KW4WQRnOd0TLH7qpiCEYBj9v9a_ojYsruLL60ublpE-Ni-KypZTmofp2C375OX4SBgPyJoF1Zj5JiB8S6IRNNdBFLATqOYJFNxwoH16TugCbLKJm5qWfsUrBck2v1nuEd7yqEwRGQAZX1IyZk.82YvfukanaAq9_LQxEOv-U2vOm5lbuaWO0uNABocmK4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875966&amp;sr=8-51</t>
+          <t>https://www.amazon.com/-/es/Ideapad-pantalla-procesador-i3-1115G4-generaci%C3%B3n/dp/B08B6F1NNR/ref=sr_1_48?dib=eyJ2IjoiMSJ9.ref_BXZ3pEi3JvViMsJeNfPcdqbyQXPaCGlrfV_3pAVgw4Jp9jYd-wGber4k-lqRQa-2_hW5wTIcSl5SZ3Vk6ROyFmdgsIjKUWgd9DTLA7TYKFED6icrg1L8jiejCGfy7g_Ur7SdHzqtgffmT4RjvRX3CW72elPxsxxLjTa7cMN3OC0XGpelqNLwhn3qF8-HRw7ceXr1r-gzVevEz9m_-kW4H1-tRohgdCt1zkjEZzY.O-7OS1NozozZGiRMhd2bXH5e_2wcvdA1neyj8_wZAy4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759326&amp;sr=8-48</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Lenovo IdeaPad 3i Chromebook, pantalla FHD de 15.6", Intel Celeron N4500, 8 GB de RAM, 64 GB eMMC, 1920 x 1080 px, cámara de 720p, Chrome OS, azul abismo</t>
+          <t>Lenovo Laptop Ideapad 3 2022, pantalla táctil HD de 15.6 pulgadas, procesador Intel Core i3-1115G4 de 11ª generación, memoria RAM DDR4 de 8 GB, SSD PCIe NVMe de 256 GB, HDMI, cámara web, Wi-Fi 5,</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>B0BSJ46KY9</t>
+          <t>B08B6F1NNR</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>224.99</v>
+        <v>323.96</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2957,42 +2947,42 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>500+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H58" t="n">
-        <v>290</v>
+        <v>4103</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71bwzCMcQvL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61QGMX0Qy6L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0MTUxOTU1NTQyNTU5MDY2OjE3MjU4NzU5NjY6c3BfYnRmOjMwMDIwNDUzNzM1MzYwMjo6MDo6&amp;url=%2FPELADN-WO4-computadora-escritorio-HDMI2-0%2Fdp%2FB0CZ8L6D4G%2Fref%3Dsr_1_52_sspa%3Fdib%3DeyJ2IjoiMSJ9.Stzhu8YQi9cjRcD9N3o8kdZujs4FwlDQr5tdWc5UhI6Ux_mP5gi8fz18ZVfozex0ux8IHa9OjpI4nvd3ZWzKm3vAX_KW4WQRnOd0TLH7qpiCEYBj9v9a_ojYsruLL60ublpE-Ni-KypZTmofp2C375OX4SBgPyJoF1Zj5JiB8S6IRNNdBFLATqOYJFNxwoH16TugCbLKJm5qWfsUrBck2v1nuEd7yqEwRGQAZX1IyZk.82YvfukanaAq9_LQxEOv-U2vOm5lbuaWO0uNABocmK4%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725875966%26sr%3D8-52-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-almacenamiento-microborde-Microsoft/dp/B094BKKPXX/ref=sr_1_49?dib=eyJ2IjoiMSJ9.ref_BXZ3pEi3JvViMsJeNfPcdqbyQXPaCGlrfV_3pAVgw4Jp9jYd-wGber4k-lqRQa-2_hW5wTIcSl5SZ3Vk6ROyFmdgsIjKUWgd9DTLA7TYKFED6icrg1L8jiejCGfy7g_Ur7SdHzqtgffmT4RjvRX3CW72elPxsxxLjTa7cMN3OC0XGpelqNLwhn3qF8-HRw7ceXr1r-gzVevEz9m_-kW4H1-tRohgdCt1zkjEZzY.O-7OS1NozozZGiRMhd2bXH5e_2wcvdA1neyj8_wZAy4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759326&amp;sr=8-49</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PELADN Mini PC WO4, AMD Ryzen7 5700U (8C/16T hasta 4.3 GHz), 16 GB DDR4 3200 MHz, 512 GB NVME SSD computadora de escritorio, triple salida/WiFi6/BT5.2/DP1.4/HDMI2.0/USB3.2/Win11 Pro para juegos,</t>
+          <t>HP Computadora portátil 14, Intel Celeron N4020, 4 GB de RAM, 64 GB de almacenamiento, pantalla HD de microborde de 14 pulgadas, Windows 11 Home, delgada y portátil, gráficos 4K, un año de Microsoft</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>B0CZ8L6D4G</t>
+          <t>B094BKKPXX</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>289.99</v>
+        <v>208.98</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3001,40 +2991,42 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="H59" t="n">
-        <v>5</v>
+        <v>1172</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71C-mxYkWJL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/818vEGdvS+S._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0MTUxOTU1NTQyNTU5MDY2OjE3MjU4NzU5NjY6c3BfYnRmOjMwMDE3NTQzNjU0NjIwMjo6MDo6&amp;url=%2FPELADN-Ryzen5-computadora-escritorio-HDMI2-0%2Fdp%2FB0CTQJVCHD%2Fref%3Dsr_1_53_sspa%3Fdib%3DeyJ2IjoiMSJ9.Stzhu8YQi9cjRcD9N3o8kdZujs4FwlDQr5tdWc5UhI6Ux_mP5gi8fz18ZVfozex0ux8IHa9OjpI4nvd3ZWzKm3vAX_KW4WQRnOd0TLH7qpiCEYBj9v9a_ojYsruLL60ublpE-Ni-KypZTmofp2C375OX4SBgPyJoF1Zj5JiB8S6IRNNdBFLATqOYJFNxwoH16TugCbLKJm5qWfsUrBck2v1nuEd7yqEwRGQAZX1IyZk.82YvfukanaAq9_LQxEOv-U2vOm5lbuaWO0uNABocmK4%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725875966%26sr%3D8-53-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/HP-MarxsolAccessory-White-microborde-Quad-Core/dp/B0D1GWMVF9/ref=sr_1_50?dib=eyJ2IjoiMSJ9.ref_BXZ3pEi3JvViMsJeNfPcdqbyQXPaCGlrfV_3pAVgw4Jp9jYd-wGber4k-lqRQa-2_hW5wTIcSl5SZ3Vk6ROyFmdgsIjKUWgd9DTLA7TYKFED6icrg1L8jiejCGfy7g_Ur7SdHzqtgffmT4RjvRX3CW72elPxsxxLjTa7cMN3OC0XGpelqNLwhn3qF8-HRw7ceXr1r-gzVevEz9m_-kW4H1-tRohgdCt1zkjEZzY.O-7OS1NozozZGiRMhd2bXH5e_2wcvdA1neyj8_wZAy4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759326&amp;sr=8-50</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PELADN Mini PC WO4, AMD Ryzen5 5500U (6C/12T hasta 4.0 Ghz), 16 GB DDR4 3200 MHz, 512 GB NVME SSD computadora de escritorio, triple salida/WiFi6/BT5.2/DP1.4/HDMI2.0/USB3.2/Win11 Pro para juegos,</t>
+          <t>HP MarxsolAccessory White - Laptop portátil de 14 pulgadas con microborde 2024, Intel Quad-Core N4120, 4 GB de RAM, 128 GB (64 GB eMMC+ tarjeta de 64 GB), cámara web, WiFi, Windows 11S + 1 año Office</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>B0CTQJVCHD</t>
+          <t>B0D1GWMVF9</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>229.99</v>
+        <v>249</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3043,40 +3035,42 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="H60" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71co+QJblrL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71BWRFDmzJL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTozMzgwNjM3NjIwNzkzNTE5OjE3MjU4NzU5ODI6c3BfYXRmX25leHQ6MzAwMTgwOTY0ODYwOTAyOjowOjo&amp;url=%2FGearIT-Ethernet-Categor%25C3%25ADa-enganches-computadora%2Fdp%2FB06ZY34KHB%2Fref%3Dsr_1_49_sspa%3Fdib%3DeyJ2IjoiMSJ9.WuzsTd-_SBd2a8IcvT2QaxEe8oxwxyRbSn4_1s-fXqSpnCxWVcxJM3p678q6NqNghApjCrW9tSIx5xafscXODyyURJyMGyUx6y1LtSAcEPLUPvFr_ow_raZHq2k_2W58ir8wLJCPdkF-2gHCevgb-GVqInxRURcNDS1MVZpVrAdW_Z308XNrCXvJpmAjmG4ZHK7ICYMKQLJ7wMB8IksV3UkA_fef97fKtQ_mB8ZDAfM.K-ertNObdywZrxt-YEyZOhbhPN8VLcn_i8miNc9_mdo%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725875982%26sr%3D8-49-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-computadora-procesador-Quad-Core/dp/B0D8VZS2JY/ref=sr_1_51?dib=eyJ2IjoiMSJ9.ref_BXZ3pEi3JvViMsJeNfPcdqbyQXPaCGlrfV_3pAVgw4Jp9jYd-wGber4k-lqRQa-2_hW5wTIcSl5SZ3Vk6ROyFmdgsIjKUWgd9DTLA7TYKFED6icrg1L8jiejCGfy7g_Ur7SdHzqtgffmT4RjvRX3CW72elPxsxxLjTa7cMN3OC0XGpelqNLwhn3qF8-HRw7ceXr1r-gzVevEz9m_-kW4H1-tRohgdCt1zkjEZzY.O-7OS1NozozZGiRMhd2bXH5e_2wcvdA1neyj8_wZAy4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759326&amp;sr=8-51</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GearIT - Cable Ethernet Categoría 6, sin enganches, cable de red LAN para computadora, Azul</t>
+          <t>jumper Computadora portátil, 12 GB LPDDR4 RAM, 512 GB SSD ROM, pantalla IPS FHD de 14 pulgadas 1080p, computadora portátil Windows 11 con procesador Celeron Quad-Core, gráficos UHD 600, altavoz</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>B06ZY34KHB</t>
+          <t>B0D8VZS2JY</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>60.48</v>
+        <v>249.95</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3085,42 +3079,40 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>Típico:</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="H61" t="n">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/91R-jIg0V8L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71YhqXPCmRL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTozMzgwNjM3NjIwNzkzNTE5OjE3MjU4NzU5ODI6c3BfYXRmX25leHQ6MjAwMDMzMTE3NDM1MzExOjowOjo&amp;url=%2FCargador-Laptop-Chromebook-Adaptador-corriente%2Fdp%2FB087CQCTP8%2Fref%3Dsr_1_50_sspa%3Fdib%3DeyJ2IjoiMSJ9.WuzsTd-_SBd2a8IcvT2QaxEe8oxwxyRbSn4_1s-fXqSpnCxWVcxJM3p678q6NqNghApjCrW9tSIx5xafscXODyyURJyMGyUx6y1LtSAcEPLUPvFr_ow_raZHq2k_2W58ir8wLJCPdkF-2gHCevgb-GVqInxRURcNDS1MVZpVrAdW_Z308XNrCXvJpmAjmG4ZHK7ICYMKQLJ7wMB8IksV3UkA_fef97fKtQ_mB8ZDAfM.K-ertNObdywZrxt-YEyZOhbhPN8VLcn_i8miNc9_mdo%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725875982%26sr%3D8-50-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/ACEMAGIC-Computadora-port%C3%A1til-Windows11-pulgadas/dp/B0DBQR1PBQ/ref=sr_1_52?dib=eyJ2IjoiMSJ9.ref_BXZ3pEi3JvViMsJeNfPcdqbyQXPaCGlrfV_3pAVgw4Jp9jYd-wGber4k-lqRQa-2_hW5wTIcSl5SZ3Vk6ROyFmdgsIjKUWgd9DTLA7TYKFED6icrg1L8jiejCGfy7g_Ur7SdHzqtgffmT4RjvRX3CW72elPxsxxLjTa7cMN3OC0XGpelqNLwhn3qF8-HRw7ceXr1r-gzVevEz9m_-kW4H1-tRohgdCt1zkjEZzY.O-7OS1NozozZGiRMhd2bXH5e_2wcvdA1neyj8_wZAy4&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759326&amp;sr=8-52</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cargador para HP Laptop Chromebook 65W 45W USB C Adaptador de corriente rápida</t>
+          <t>ACEMAGIC Computadora portátil AMD Ryzen 7 5700U Gaming Laptop 16GB DDR4 512GB M.2 2280 NVMe SSD Windows Laptop Office Laptops Home Laptops Windows11 16.1 pulgadas IPS FHD WIFI6 BT5.2 HDMI Tipo-C</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>B087CQCTP8</t>
+          <t>B0DBQR1PBQ</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>15.99</v>
+        <v>599.99</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3129,41 +3121,43 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2 K+ comprados el mes pasado</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H62" t="n">
-        <v>2628</v>
+        <v>7</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71PLJ7OsJRL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/7127rNkukCL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/LENOVO-IdeaPad-Computadora-port%C3%A1til-procesador/dp/B0CQN3FDH5/ref=sr_1_51?dib=eyJ2IjoiMSJ9.WuzsTd-_SBd2a8IcvT2QaxEe8oxwxyRbSn4_1s-fXqSpnCxWVcxJM3p678q6NqNghApjCrW9tSIx5xafscXODyyURJyMGyUx6y1LtSAcEPLUPvFr_ow_raZHq2k_2W58ir8wLJCPdkF-2gHCevgb-GVqInxRURcNDS1MVZpVrAdW_Z308XNrCXvJpmAjmG4ZHK7ICYMKQLJ7wMB8IksV3UkA_fef97fKtQ_mB8ZDAfM.K-ertNObdywZrxt-YEyZOhbhPN8VLcn_i8miNc9_mdo&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875982&amp;sr=8-51</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3Mzc3MjYyODc3NDc3Mjk3OjE3MjY3NTkzMjY6c3BfYnRmOjMwMDMyNzg1MDQzNDYwMjo6MDo6&amp;url=%2FTC-1780-UA92-Procesador-i5-13400-generaci%25C3%25B3n-tarjetas%2Fdp%2FB0C6YQN12S%2Fref%3Dsr_1_53_sspa%3Fdib%3DeyJ2IjoiMSJ9.ref_BXZ3pEi3JvViMsJeNfPcdqbyQXPaCGlrfV_3pAVgw4Jp9jYd-wGber4k-lqRQa-2_hW5wTIcSl5SZ3Vk6ROyFmdgsIjKUWgd9DTLA7TYKFED6icrg1L8jiejCGfy7g_Ur7SdHzqtgffmT4RjvRX3CW72elPxsxxLjTa7cMN3OC0XGpelqNLwhn3qF8-HRw7ceXr1r-gzVevEz9m_-kW4H1-tRohgdCt1zkjEZzY.O-7OS1NozozZGiRMhd2bXH5e_2wcvdA1neyj8_wZAy4%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759326%26sr%3D8-53-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>LENOVO IdeaPad 1 - Computadora portátil, pantalla FHD de 15.6 pulgadas, procesador Intel Celeron N4500, 20 GB de RAM, SSD de 1 TB, lector de tarjetas SD, teclado numérico, HDMI, Wi-Fi 6, Windows 11</t>
+          <t>Acer Aspire TC-1780-UA92 Desktop | Procesador Intel Core i5-13400 de 13ª generación | 8 GB 3200 MHz DDR4 | SSD M.2 de 512 GB | Lector de tarjetas SD | Intel Wi-Fi 6E AX211 | Windows 11 Home, negro</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>B0CQN3FDH5</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>B0C6YQN12S</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>479.99</v>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -3171,42 +3165,42 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>500+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G63" t="n">
         <v>4.3</v>
       </c>
       <c r="H63" t="n">
-        <v>375</v>
+        <v>997</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71xFyQBB7FL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61-Ky1lRL9L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/STGAubron-Computadora-escritorio-Bluetooth-alfombrilla/dp/B0BK539D4V/ref=sr_1_52?dib=eyJ2IjoiMSJ9.WuzsTd-_SBd2a8IcvT2QaxEe8oxwxyRbSn4_1s-fXqSpnCxWVcxJM3p678q6NqNghApjCrW9tSIx5xafscXODyyURJyMGyUx6y1LtSAcEPLUPvFr_ow_raZHq2k_2W58ir8wLJCPdkF-2gHCevgb-GVqInxRURcNDS1MVZpVrAdW_Z308XNrCXvJpmAjmG4ZHK7ICYMKQLJ7wMB8IksV3UkA_fef97fKtQ_mB8ZDAfM.K-ertNObdywZrxt-YEyZOhbhPN8VLcn_i8miNc9_mdo&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875982&amp;sr=8-52</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3Mzc3MjYyODc3NDc3Mjk3OjE3MjY3NTkzMjY6c3BfYnRmOjMwMDM3NDc4NjMxNTAwMjo6MDo6&amp;url=%2FCargador-port%25C3%25A1til-ThinkPad-Adaptador-alimentaci%25C3%25B3n%2Fdp%2FB0B6C6C16G%2Fref%3Dsr_1_54_sspa%3Fdib%3DeyJ2IjoiMSJ9.ref_BXZ3pEi3JvViMsJeNfPcdqbyQXPaCGlrfV_3pAVgw4Jp9jYd-wGber4k-lqRQa-2_hW5wTIcSl5SZ3Vk6ROyFmdgsIjKUWgd9DTLA7TYKFED6icrg1L8jiejCGfy7g_Ur7SdHzqtgffmT4RjvRX3CW72elPxsxxLjTa7cMN3OC0XGpelqNLwhn3qF8-HRw7ceXr1r-gzVevEz9m_-kW4H1-tRohgdCt1zkjEZzY.O-7OS1NozozZGiRMhd2bXH5e_2wcvdA1neyj8_wZAy4%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759326%26sr%3D8-54-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>STGAubron Computadora PC de escritorio para juegos, Intel Core I7 3.4 GHz hasta 3.9 GHz, Radeon RX 580 8G GDDR5, 16G RAM, 512G SSD, WiFi, Bluetooth 5.0, RGB Fanx6, teclado y mouse RGB y alfombrilla de</t>
+          <t>Cargador de portátil USB tipo C de 65 W para Lenovo ThinkPad L380 L390 L480 L490 T480 T490 T580 T590 E480 E485 E490 E580 E585 E590 E595 Adaptador de CA Yoga S730 C930 Cable de fuente de alimentación</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>B0BK539D4V</t>
+          <t>B0B6C6C16G</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>399.99</v>
+        <v>18.99</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3215,42 +3209,40 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>400+ comprados el mes pasado</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H64" t="n">
-        <v>869</v>
+        <v>72</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81jhBeNlXcL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J64" t="n">
-        <v>400</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61jUwYJfrTL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Ideapad-pantalla-procesador-i3-1115G4-generaci%C3%B3n/dp/B08B6F1NNR/ref=sr_1_53?dib=eyJ2IjoiMSJ9.WuzsTd-_SBd2a8IcvT2QaxEe8oxwxyRbSn4_1s-fXqSpnCxWVcxJM3p678q6NqNghApjCrW9tSIx5xafscXODyyURJyMGyUx6y1LtSAcEPLUPvFr_ow_raZHq2k_2W58ir8wLJCPdkF-2gHCevgb-GVqInxRURcNDS1MVZpVrAdW_Z308XNrCXvJpmAjmG4ZHK7ICYMKQLJ7wMB8IksV3UkA_fef97fKtQ_mB8ZDAfM.K-ertNObdywZrxt-YEyZOhbhPN8VLcn_i8miNc9_mdo&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875982&amp;sr=8-53</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4MDk3MjY1MTQ1OTk2MzM5OjE3MjY3NTkzMzc6c3BfYXRmX25leHQ6MzAwMDU3ODQzODU1ODAyOjowOjo&amp;url=%2Fprotectores-pantalla-pulgadas-protecci%25C3%25B3n-antirreflejos%2Fdp%2FB07D48LXJ3%2Fref%3Dsr_1_49_sspa%3Fdib%3DeyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759337%26sr%3D8-49-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Lenovo Laptop Ideapad 3 2022, pantalla táctil HD de 15.6 pulgadas, procesador Intel Core i3-1115G4 de 11ª generación, memoria RAM DDR4 de 8 GB, SSD PCIe NVMe de 256 GB, HDMI, cámara web, Wi-Fi 5,</t>
+          <t>F FORITO Paquete de 2 protectores de pantalla para laptop de 15.6 pulgadas, antiluz azul, protección ocular, antirreflejos, mate, para laptop de 15.6 pulgadas con relación de aspecto 16:9, reduce la</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>B08B6F1NNR</t>
+          <t>B07D48LXJ3</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>323.97</v>
+        <v>16.99</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3259,42 +3251,42 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>500+ comprados el mes pasado</t>
+          <t>1 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H65" t="n">
-        <v>4091</v>
+        <v>11020</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61QGMX0Qy6L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/814zVivKQdL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Escritorio-procesador-gr%C3%A1ficos-almacenamiento-22-dd0120/dp/B09DTS8ZJL/ref=sr_1_54_mod_primary_new?dib=eyJ2IjoiMSJ9.WuzsTd-_SBd2a8IcvT2QaxEe8oxwxyRbSn4_1s-fXqSpnCxWVcxJM3p678q6NqNghApjCrW9tSIx5xafscXODyyURJyMGyUx6y1LtSAcEPLUPvFr_ow_raZHq2k_2W58ir8wLJCPdkF-2gHCevgb-GVqInxRURcNDS1MVZpVrAdW_Z308XNrCXvJpmAjmG4ZHK7ICYMKQLJ7wMB8IksV3UkA_fef97fKtQ_mB8ZDAfM.K-ertNObdywZrxt-YEyZOhbhPN8VLcn_i8miNc9_mdo&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875982&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=8-54</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4MDk3MjY1MTQ1OTk2MzM5OjE3MjY3NTkzMzc6c3BfYXRmX25leHQ6MjAwMDQ3MTQyNjY2Mzk4OjowOjo&amp;url=%2Fcomputadora-delantero-resistentes-bloqueables-movimiento%2Fdp%2FB08Z752WR1%2Fref%3Dsr_1_50_sspa%3Fdib%3DeyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759337%26sr%3D8-50-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>HP Escritorio todo en uno de 21.5", procesador Intel Pentium Silver J5040, gráficos Intel UHD 605, 4 GB de RAM, 128 GB de almacenamiento, Windows 11 Home (22-dd0120, 2021), blanco nieve</t>
+          <t>Mount-It! Soporte de vehículo para laptop | Soporte de montaje de computadora sin taladrar para asiento del pasajero delantero | Juntas resistentes y bloqueables de movimiento completo, se adapta a</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>B09DTS8ZJL</t>
+          <t>B08Z752WR1</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>361.96</v>
+        <v>129.99</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3303,40 +3295,42 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Más opciones de compra</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H66" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81irrGY4jTL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61nr1kEeb2L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-800-Computadora-empresarial-rendimiento/dp/B07NL4CT8L/ref=sr_1_55?dib=eyJ2IjoiMSJ9.WuzsTd-_SBd2a8IcvT2QaxEe8oxwxyRbSn4_1s-fXqSpnCxWVcxJM3p678q6NqNghApjCrW9tSIx5xafscXODyyURJyMGyUx6y1LtSAcEPLUPvFr_ow_raZHq2k_2W58ir8wLJCPdkF-2gHCevgb-GVqInxRURcNDS1MVZpVrAdW_Z308XNrCXvJpmAjmG4ZHK7ICYMKQLJ7wMB8IksV3UkA_fef97fKtQ_mB8ZDAfM.K-ertNObdywZrxt-YEyZOhbhPN8VLcn_i8miNc9_mdo&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875982&amp;sr=8-55</t>
+          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-procesador-port%C3%A1tiles-computadora/dp/B0D66DHSZF/ref=sr_1_51?dib=eyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759337&amp;sr=8-51</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>HP EliteDesk 800 G1 SFF Computadora de escritorio empresarial de alto rendimiento, Intel Quad Core i5-4590 hasta 3.7 GHz, 16 GB de RAM, 1 TB HDD, 256 GB SSD (arranque), DVD, WiFi, Windows 10</t>
+          <t>AOC Computadora portátil con pantalla FHD de 15.6 pulgadas con procesador N97 (hasta 3.6 GHz) 16 GB de RAM 512 GB SSD, portátiles para juegos, Windows 11, computadora portátil, ligera y delgada,</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>B07NL4CT8L</t>
+          <t>B0D66DHSZF</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>139.99</v>
+        <v>359.99</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3345,42 +3339,42 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>500+ comprados el mes pasado</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="H67" t="n">
-        <v>2753</v>
+        <v>14</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71zNWs1-7GL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71Dsy9r6CrL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-MarxsolAccessory-White-microborde-Quad-Core/dp/B0D1GWMVF9/ref=sr_1_56?dib=eyJ2IjoiMSJ9.WuzsTd-_SBd2a8IcvT2QaxEe8oxwxyRbSn4_1s-fXqSpnCxWVcxJM3p678q6NqNghApjCrW9tSIx5xafscXODyyURJyMGyUx6y1LtSAcEPLUPvFr_ow_raZHq2k_2W58ir8wLJCPdkF-2gHCevgb-GVqInxRURcNDS1MVZpVrAdW_Z308XNrCXvJpmAjmG4ZHK7ICYMKQLJ7wMB8IksV3UkA_fef97fKtQ_mB8ZDAfM.K-ertNObdywZrxt-YEyZOhbhPN8VLcn_i8miNc9_mdo&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875982&amp;sr=8-56</t>
+          <t>https://www.amazon.com/-/es/Dell-Computadora-OptiPlex-7040-inal%C3%A1mbrico/dp/B0B2DV7N8S/ref=sr_1_52?dib=eyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759337&amp;sr=8-52</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>HP MarxsolAccessory White - Laptop portátil de 14 pulgadas con microborde 2024, Intel Quad-Core N4120, 4 GB de RAM, 128 GB (64 GB eMMC+ tarjeta de 64 GB), cámara web, WiFi, Windows 11S + 1 año Office</t>
+          <t>Dell Computadora de escritorio OptiPlex 7040 SFF Intel Quad Core i7-6700 3.20GHz AX200 WIFI integrado 6 Bluetooth 32GB DDR4 Nuevo 1TB NVMe M.2 SSD 2TB HDD HDMI Teclado inalámbrico y mouse Windows10</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>B0D1GWMVF9</t>
+          <t>B0B2DV7N8S</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>249</v>
+        <v>259.99</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3389,42 +3383,42 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G68" t="n">
         <v>4.2</v>
       </c>
       <c r="H68" t="n">
-        <v>39</v>
+        <v>393</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71BWRFDmzJL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71lMRpylL9L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-computadoras-port%C3%A1tiles-estudiantes-almacenamiento/dp/B0D99T3BZZ/ref=sr_1_57?dib=eyJ2IjoiMSJ9.WuzsTd-_SBd2a8IcvT2QaxEe8oxwxyRbSn4_1s-fXqSpnCxWVcxJM3p678q6NqNghApjCrW9tSIx5xafscXODyyURJyMGyUx6y1LtSAcEPLUPvFr_ow_raZHq2k_2W58ir8wLJCPdkF-2gHCevgb-GVqInxRURcNDS1MVZpVrAdW_Z308XNrCXvJpmAjmG4ZHK7ICYMKQLJ7wMB8IksV3UkA_fef97fKtQ_mB8ZDAfM.K-ertNObdywZrxt-YEyZOhbhPN8VLcn_i8miNc9_mdo&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875982&amp;sr=8-57</t>
+          <t>https://www.amazon.com/-/es/Lenovo-Chromebook-insignia-computadora-procesador/dp/B0CBJ46QZX/ref=sr_1_53?dib=eyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759337&amp;sr=8-53</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>HP 14 computadoras portátiles HD de alta calidad para estudiantes de negocios, procesador Intel Celeron de cuatro núcleos, 16 GB de RAM, 256 GB de almacenamiento (128 GB eMMC + tarjeta SD de 128 GB),</t>
+          <t>Lenovo Chromebook insignia más reciente, computadora portátil delgada y ligera con pantalla táctil FHD de 14 pulgadas, procesador MediaTek Kompanio 520 de 8 núcleos, 4 GB de RAM, 64 GB eMMC, WiFi 6,</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>B0D99T3BZZ</t>
+          <t>B0CBJ46QZX</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>296.99</v>
+        <v>210.98</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3433,42 +3427,42 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>2 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H69" t="n">
-        <v>44</v>
+        <v>413</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/611cot5vodL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61KlKRdsQ7L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Lenovo-Chromebook-insignia-computadora-procesador/dp/B0CBJ46QZX/ref=sr_1_58?dib=eyJ2IjoiMSJ9.WuzsTd-_SBd2a8IcvT2QaxEe8oxwxyRbSn4_1s-fXqSpnCxWVcxJM3p678q6NqNghApjCrW9tSIx5xafscXODyyURJyMGyUx6y1LtSAcEPLUPvFr_ow_raZHq2k_2W58ir8wLJCPdkF-2gHCevgb-GVqInxRURcNDS1MVZpVrAdW_Z308XNrCXvJpmAjmG4ZHK7ICYMKQLJ7wMB8IksV3UkA_fef97fKtQ_mB8ZDAfM.K-ertNObdywZrxt-YEyZOhbhPN8VLcn_i8miNc9_mdo&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875982&amp;sr=8-58</t>
+          <t>https://www.amazon.com/-/es/Chromebook-procesador-pantalla-computadora-micr%C3%B3fonos/dp/B08YKGZF7P/ref=sr_1_54?dib=eyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759337&amp;sr=8-54</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Lenovo Chromebook insignia más reciente, computadora portátil delgada y ligera con pantalla táctil FHD de 14 pulgadas, procesador MediaTek Kompanio 520 de 8 núcleos, 4 GB de RAM, 64 GB eMMC, WiFi 6,</t>
+          <t>HP Laptop Chromebook 14, procesador Intel Celeron N4000, 4 GB de RAM, 32 GB eMMC, pantalla HD de 14 pulgadas, cromo, computadora ligera con cámara web y micrófonos duales, hogar, escuela, música,</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>B0CBJ46QZX</t>
+          <t>B08YKGZF7P</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>219.99</v>
+        <v>195.99</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3477,38 +3471,38 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2 K+ comprados el mes pasado</t>
+          <t>500+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G70" t="n">
         <v>4.4</v>
       </c>
       <c r="H70" t="n">
-        <v>400</v>
+        <v>3839</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61KlKRdsQ7L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81b6IIclRfS._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Samsung-Chromebook-Procesador-Graphics-pulgadas/dp/B08M2X68W5/ref=sr_1_59?dib=eyJ2IjoiMSJ9.WuzsTd-_SBd2a8IcvT2QaxEe8oxwxyRbSn4_1s-fXqSpnCxWVcxJM3p678q6NqNghApjCrW9tSIx5xafscXODyyURJyMGyUx6y1LtSAcEPLUPvFr_ow_raZHq2k_2W58ir8wLJCPdkF-2gHCevgb-GVqInxRURcNDS1MVZpVrAdW_Z308XNrCXvJpmAjmG4ZHK7ICYMKQLJ7wMB8IksV3UkA_fef97fKtQ_mB8ZDAfM.K-ertNObdywZrxt-YEyZOhbhPN8VLcn_i8miNc9_mdo&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875982&amp;sr=8-59</t>
+          <t>https://www.amazon.com/-/es/LENOVO-IdeaPad-Computadora-port%C3%A1til-procesador/dp/B0CQN3FDH5/ref=sr_1_55?dib=eyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759337&amp;sr=8-55</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Samsung Chromebook 4 (modelo 2021) Procesador Intel UHD Graphics 600/Celeron de 11.6 pulgadas N4020, 4 GB, 32 GB, Wi-Fi - (XE310XBA-KA1US)</t>
+          <t>LENOVO IdeaPad 1 - Computadora portátil, pantalla FHD de 15.6 pulgadas, procesador Intel Celeron N4500, 20 GB de RAM, SSD de 1 TB, lector de tarjetas SD, teclado numérico, HDMI, Wi-Fi 6, Windows 11</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>B08M2X68W5</t>
+          <t>B0CQN3FDH5</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -3519,40 +3513,42 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>No hay ofertas destacadas disponibles</t>
+          <t>300+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H71" t="n">
-        <v>2418</v>
+        <v>391</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61oJPm-sHsL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71xFyQBB7FL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-escritorio-OptiPlex-pulgadas-auriculares/dp/B0BLQLKVG5/ref=sr_1_60?dib=eyJ2IjoiMSJ9.WuzsTd-_SBd2a8IcvT2QaxEe8oxwxyRbSn4_1s-fXqSpnCxWVcxJM3p678q6NqNghApjCrW9tSIx5xafscXODyyURJyMGyUx6y1LtSAcEPLUPvFr_ow_raZHq2k_2W58ir8wLJCPdkF-2gHCevgb-GVqInxRURcNDS1MVZpVrAdW_Z308XNrCXvJpmAjmG4ZHK7ICYMKQLJ7wMB8IksV3UkA_fef97fKtQ_mB8ZDAfM.K-ertNObdywZrxt-YEyZOhbhPN8VLcn_i8miNc9_mdo&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875982&amp;sr=8-60</t>
+          <t>https://www.amazon.com/-/es/HP-Computadora-escritorio-Elite-Quad-Core/dp/B09YXBCXS9/ref=sr_1_56?dib=eyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759337&amp;sr=8-56</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Dell Computadora de escritorio RGB OptiPlex para juegos, Intel Core i7, GeForce GT 1030 2GB GDDR5, 16GB RAM, 512GB SSD, monitor HDMI de 24 pulgadas, teclado, mouse y auriculares, WiFi, Windows 10 Pro</t>
+          <t>HP Computadora de escritorio Elite | Intel Quad-Core i5 | 8 GB de RAM | Disco duro de 1 TB | Monitor LCD de 24 pulgadas (HDMI 1080p), teclado RGB + mouse | Altavoces de escritorio | WiFi + Bluetooth |</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>B0BLQLKVG5</t>
+          <t>B09YXBCXS9</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>309.79</v>
+        <v>154.95</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3561,42 +3557,42 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>400+ comprados el mes pasado</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G72" t="n">
         <v>3.6</v>
       </c>
       <c r="H72" t="n">
-        <v>553</v>
+        <v>602</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81-nlq94ERL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71csBoS7rbL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Pavilion-pantalla-pulgadas-almacenamiento-procesador/dp/B0C4G4L53W/ref=sr_1_61?dib=eyJ2IjoiMSJ9.WuzsTd-_SBd2a8IcvT2QaxEe8oxwxyRbSn4_1s-fXqSpnCxWVcxJM3p678q6NqNghApjCrW9tSIx5xafscXODyyURJyMGyUx6y1LtSAcEPLUPvFr_ow_raZHq2k_2W58ir8wLJCPdkF-2gHCevgb-GVqInxRURcNDS1MVZpVrAdW_Z308XNrCXvJpmAjmG4ZHK7ICYMKQLJ7wMB8IksV3UkA_fef97fKtQ_mB8ZDAfM.K-ertNObdywZrxt-YEyZOhbhPN8VLcn_i8miNc9_mdo&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875982&amp;sr=8-61</t>
+          <t>https://www.amazon.com/-/es/HP-computadoras-port%C3%A1tiles-estudiantes-almacenamiento/dp/B0D99WC7G2/ref=sr_1_57?dib=eyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759337&amp;sr=8-57</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>HP Laptop Pavilion con pantalla táctil HD de 15.6 pulgadas, 16 GB de RAM, almacenamiento SSD de 1 TB, procesador Intel Core de hasta 4.1 GHz, batería de hasta 11 horas de duración, tipo C, HDMI,</t>
+          <t>HP 14 computadoras portátiles HD de alta calidad para estudiantes de negocios, procesador Intel Celeron de cuatro núcleos, 8 GB de RAM, 256 GB de almacenamiento (128 GB eMMC + tarjeta SD de 128 GB), 1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>B0C4G4L53W</t>
+          <t>B0D99WC7G2</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>411.74</v>
+        <v>269.99</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3605,41 +3601,41 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H73" t="n">
-        <v>665</v>
+        <v>45</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71aTEZOda0L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J73" t="n">
-        <v>1000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/611cot5vodL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Paquete-computadora-escritorio-Elite-800G1/dp/B07WFWQ2WJ/ref=sr_1_62?dib=eyJ2IjoiMSJ9.WuzsTd-_SBd2a8IcvT2QaxEe8oxwxyRbSn4_1s-fXqSpnCxWVcxJM3p678q6NqNghApjCrW9tSIx5xafscXODyyURJyMGyUx6y1LtSAcEPLUPvFr_ow_raZHq2k_2W58ir8wLJCPdkF-2gHCevgb-GVqInxRURcNDS1MVZpVrAdW_Z308XNrCXvJpmAjmG4ZHK7ICYMKQLJ7wMB8IksV3UkA_fef97fKtQ_mB8ZDAfM.K-ertNObdywZrxt-YEyZOhbhPN8VLcn_i8miNc9_mdo&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875982&amp;sr=8-62</t>
+          <t>https://www.amazon.com/-/es/HP-Stream-pantalla-14-pulgadas-GB/dp/B08RPBG7G4/ref=sr_1_58?dib=eyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759337&amp;sr=8-58</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>HP Paquete de computadora de escritorio Elite 800G1 - Intel Quad Core i5 3.3GHz, 16 GB de RAM, 240 GB SSD 2 TB HDD, Windows 10 Pro, monitores duales de 19 pulgadas, teclado, mouse (renovado)</t>
+          <t>HP Stream - Laptop con pantalla HD SVA de 14 pulgadas, Intel Celeron N4000, 4 GB de RAM, eMMC de 64 GB, cámara web, gráficos Intel UHD 600, Windows 10S, rosado rosa, tarjeta USB SnowBell de 32 GB</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>B07WFWQ2WJ</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>B08RPBG7G4</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>249</v>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -3647,42 +3643,40 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H74" t="n">
-        <v>841</v>
+        <v>1255</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/712ASxPbZqL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61PpSLdUnKL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/ASUS-Vivobook-L410-ultradelgado-procesador/dp/B0CDKLYZPV/ref=sr_1_63?dib=eyJ2IjoiMSJ9.WuzsTd-_SBd2a8IcvT2QaxEe8oxwxyRbSn4_1s-fXqSpnCxWVcxJM3p678q6NqNghApjCrW9tSIx5xafscXODyyURJyMGyUx6y1LtSAcEPLUPvFr_ow_raZHq2k_2W58ir8wLJCPdkF-2gHCevgb-GVqInxRURcNDS1MVZpVrAdW_Z308XNrCXvJpmAjmG4ZHK7ICYMKQLJ7wMB8IksV3UkA_fef97fKtQ_mB8ZDAfM.K-ertNObdywZrxt-YEyZOhbhPN8VLcn_i8miNc9_mdo&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875982&amp;sr=8-63</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4MDk3MjY1MTQ1OTk2MzM5OjE3MjY3NTkzMzc6c3BfbXRmOjMwMDI4Mzk2NTYyNDcwMjo6MDo6&amp;url=%2FComputadora-escritorio-I7-6700-GeForce-Bluetooth%2Fdp%2FB0CS3PBNYV%2Fref%3Dsr_1_59_sspa%3Fdib%3DeyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759337%26sr%3D8-59-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ASUS Vivobook Go 14 L410 - Laptop ultradelgado, pantalla FHD de 14†, procesador Intel Celeron N4020, 4 GB de RAM, 64 GB eMMC, NumberPad, Windows 11 Home en modo S, 1 año Microsoft 365, Star Black,</t>
+          <t>Dell Computadora de escritorio para juegos RGB, Intel Quad Core I7-6700 hasta 4.0GHz, GeForce GT 1030 2G GDDR5, 16GB DDR4, 1T SSD, teclado y mouse RGB, WiFi y Bluetooth 5.0 de 600 M, Win 10 Pro</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>B0CDKLYZPV</t>
+          <t>B0CS3PBNYV</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>177</v>
+        <v>379.99</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3691,18 +3685,18 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Típico:</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H75" t="n">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71RDNz9y4aL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/815EA+A+-JL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3710,21 +3704,21 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-Stream-BrightView-pulgadas-almacenamiento/dp/B0D3GS843R/ref=sr_1_64?dib=eyJ2IjoiMSJ9.WuzsTd-_SBd2a8IcvT2QaxEe8oxwxyRbSn4_1s-fXqSpnCxWVcxJM3p678q6NqNghApjCrW9tSIx5xafscXODyyURJyMGyUx6y1LtSAcEPLUPvFr_ow_raZHq2k_2W58ir8wLJCPdkF-2gHCevgb-GVqInxRURcNDS1MVZpVrAdW_Z308XNrCXvJpmAjmG4ZHK7ICYMKQLJ7wMB8IksV3UkA_fef97fKtQ_mB8ZDAfM.K-ertNObdywZrxt-YEyZOhbhPN8VLcn_i8miNc9_mdo&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875982&amp;sr=8-64</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4MDk3MjY1MTQ1OTk2MzM5OjE3MjY3NTkzMzc6c3BfbXRmOjMwMDIzMDAzNTM4ODEwMjo6MDo6&amp;url=%2FComputadora-tradicional-generaci%25C3%25B3n-desbloqueo-dactilares%2Fdp%2FB0CLVG2SPB%2Fref%3Dsr_1_60_sspa%3Fdib%3DeyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759337%26sr%3D8-60-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>HP Stream - Laptop BrightView HD de 14 pulgadas, Intel Celeron N4120, 16 GB de RAM, 256 GB de almacenamiento (128 GB eMMC + tarjeta USB de 128 GB), gráficos Intel UHD, cámara HD, carga rápida, 1 año</t>
+          <t>Computadora portátil tradicional de 15.6", Intel 12ª generación N95, 16 GB de RAM, SSD de 512 GB, FHD 1920 x 1080 IPS, Windows 11 Pro, BT4.2, cámara HD, desbloqueo de huellas dactilares</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>B0D3GS843R</t>
+          <t>B0CLVG2SPB</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>299</v>
+        <v>349.99</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3733,42 +3727,40 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>300+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H76" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81kEmzvIdLL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>300</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/610W2NnH-aL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Port%C3%A1til-port%C3%A1til-pantalla-procesador-i3-1115G4/dp/B0BZ8X9HGT/ref=sr_1_65?dib=eyJ2IjoiMSJ9.WuzsTd-_SBd2a8IcvT2QaxEe8oxwxyRbSn4_1s-fXqSpnCxWVcxJM3p678q6NqNghApjCrW9tSIx5xafscXODyyURJyMGyUx6y1LtSAcEPLUPvFr_ow_raZHq2k_2W58ir8wLJCPdkF-2gHCevgb-GVqInxRURcNDS1MVZpVrAdW_Z308XNrCXvJpmAjmG4ZHK7ICYMKQLJ7wMB8IksV3UkA_fef97fKtQ_mB8ZDAfM.K-ertNObdywZrxt-YEyZOhbhPN8VLcn_i8miNc9_mdo&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875982&amp;sr=8-65</t>
+          <t>https://www.amazon.com/-/es/Computadora-escritorio-OptiPlex-pulgadas-auriculares/dp/B0BLQLKVG5/ref=sr_1_61?dib=eyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759337&amp;sr=8-61</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>HP Portátil portátil, pantalla táctil HD de 15.6", procesador Intel Core i3-1115G4, 32 GB de RAM, SSD PCIe de 1 TB, cámara web, tipo C, HDMI, lector de tarjetas SD, Wi-Fi, Windows 11 Home, color</t>
+          <t>Dell Computadora de escritorio RGB OptiPlex para juegos, Intel Core i7, GeForce GT 1030 2GB GDDR5, 16GB RAM, 512GB SSD, monitor HDMI de 24 pulgadas, teclado, mouse y auriculares, WiFi, Windows 10 Pro</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>B0BZ8X9HGT</t>
+          <t>B0BLQLKVG5</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>438.78</v>
+        <v>309.79</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3777,42 +3769,42 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2 K+ comprados el mes pasado</t>
+          <t>300+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="H77" t="n">
-        <v>1029</v>
+        <v>562</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61oAh3XrX+L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81-nlq94ERL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-Transmisi%C3%B3n-ultraliviana-estudiantes-almacenamiento/dp/B0CYBSQ8M9/ref=sr_1_66?dib=eyJ2IjoiMSJ9.WuzsTd-_SBd2a8IcvT2QaxEe8oxwxyRbSn4_1s-fXqSpnCxWVcxJM3p678q6NqNghApjCrW9tSIx5xafscXODyyURJyMGyUx6y1LtSAcEPLUPvFr_ow_raZHq2k_2W58ir8wLJCPdkF-2gHCevgb-GVqInxRURcNDS1MVZpVrAdW_Z308XNrCXvJpmAjmG4ZHK7ICYMKQLJ7wMB8IksV3UkA_fef97fKtQ_mB8ZDAfM.K-ertNObdywZrxt-YEyZOhbhPN8VLcn_i8miNc9_mdo&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875982&amp;sr=8-66</t>
+          <t>https://www.amazon.com/-/es/STGAubron-Computadora-escritorio-Bluetooth-alfombrilla/dp/B0BK539D4V/ref=sr_1_62?dib=eyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759337&amp;sr=8-62</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HP Transmisión de 14 pulgadas para laptop de 14 pulgadas, ultraliviana para estudiantes y negocios, procesador Intel Celeron de cuatro núcleos, 16 GB de RAM, 192 GB de almacenamiento (64 GB eMMC +</t>
+          <t>STGAubron Computadora PC de escritorio para juegos, Intel Core I7 3.4 GHz hasta 3.9 GHz, Radeon RX 580 8G GDDR5, 16G RAM, 512G SSD, WiFi, Bluetooth 5.0, RGB Fanx6, teclado y mouse RGB y alfombrilla de</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>B0CYBSQ8M9</t>
+          <t>B0BK539D4V</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>299.99</v>
+        <v>399.99</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3821,40 +3813,42 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>400+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>882</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61cW3oKmQBL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/81jhBeNlXcL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTozMzgwNjM3NjIwNzkzNTE5OjE3MjU4NzU5ODI6c3BfYnRmOjMwMDMwNDMyMzk1NjYwMjo6MDo6&amp;url=%2FCargador-superficie-adaptador-alimentaci%25C3%25B3n-Microsoft%2Fdp%2FB08RX67BWM%2Fref%3Dsr_1_67_sspa%3Fdib%3DeyJ2IjoiMSJ9.WuzsTd-_SBd2a8IcvT2QaxEe8oxwxyRbSn4_1s-fXqSpnCxWVcxJM3p678q6NqNghApjCrW9tSIx5xafscXODyyURJyMGyUx6y1LtSAcEPLUPvFr_ow_raZHq2k_2W58ir8wLJCPdkF-2gHCevgb-GVqInxRURcNDS1MVZpVrAdW_Z308XNrCXvJpmAjmG4ZHK7ICYMKQLJ7wMB8IksV3UkA_fef97fKtQ_mB8ZDAfM.K-ertNObdywZrxt-YEyZOhbhPN8VLcn_i8miNc9_mdo%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725875982%26sr%3D8-67-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Computadora-alimentado-computadora-Bluetooth-alfombrilla/dp/B0BX3YG1TT/ref=sr_1_63?dib=eyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759337&amp;sr=8-63</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cargador de superficie, adaptador de fuente de alimentación de 44 W para Microsoft Surface Pro 3/4/5/6/7, Surface Laptop, Surface Book, Surface Go, Surface Laptop Go, con cable de alimentación de 6.2</t>
+          <t>Computadora portátil (10.1 pulgadas), Quad Core alimentado por Android 12.0, computadora portátil con Wifi, cámara web y Bluetooth, mini portátil con bolsa, mouse y alfombrilla de mouse para</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>B08RX67BWM</t>
+          <t>B0BX3YG1TT</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>22.99</v>
+        <v>148</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3863,42 +3857,42 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>200+ comprados el mes pasado</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="H79" t="n">
-        <v>304</v>
+        <v>233</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61zjDYyW8BL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71P8qnUWC0L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTozMzgwNjM3NjIwNzkzNTE5OjE3MjU4NzU5ODI6c3BfYnRmOjIwMDA3NTE2Mzg5NTY5ODo6MDo6&amp;url=%2FSmithOutlet-auriculares-estudiantes-laboratorios-SG-ID-08-100%2Fdp%2FB01MSYP86Z%2Fref%3Dsr_1_68_sspa%3Fdib%3DeyJ2IjoiMSJ9.WuzsTd-_SBd2a8IcvT2QaxEe8oxwxyRbSn4_1s-fXqSpnCxWVcxJM3p678q6NqNghApjCrW9tSIx5xafscXODyyURJyMGyUx6y1LtSAcEPLUPvFr_ow_raZHq2k_2W58ir8wLJCPdkF-2gHCevgb-GVqInxRURcNDS1MVZpVrAdW_Z308XNrCXvJpmAjmG4ZHK7ICYMKQLJ7wMB8IksV3UkA_fef97fKtQ_mB8ZDAfM.K-ertNObdywZrxt-YEyZOhbhPN8VLcn_i8miNc9_mdo%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725875982%26sr%3D8-68-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/HP-Transmisi%C3%B3n-ultraliviana-estudiantes-almacenamiento/dp/B0CYBSQ8M9/ref=sr_1_64?dib=eyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759337&amp;sr=8-64</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SmithOutlet Paquete de 100 auriculares para estudiantes a granel para escuelas, aulas, pruebas de estudiantes, biblioteca, laboratorios de computación | Modelo SG-ID-08-100 Negro | Conector con cable</t>
+          <t>HP Transmisión de 14 pulgadas para laptop de 14 pulgadas, ultraliviana para estudiantes y negocios, procesador Intel Celeron de cuatro núcleos, 16 GB de RAM, 192 GB de almacenamiento (64 GB eMMC +</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>B01MSYP86Z</t>
+          <t>B0CYBSQ8M9</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>209.95</v>
+        <v>299.99</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3907,43 +3901,39 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="H80" t="n">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71TItrd1BLL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61cW3oKmQBL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0MDA1NTAyMDg4OTY5Mjk0OjE3MjU4NzU5OTM6c3BfYXRmX25leHQ6MjAwMTM5NjcyNTU4Njk4OjowOjo&amp;url=%2FPD-67W%2Fdp%2FB08KTG9L3H%2Fref%3Dsr_1_65_sspa%3Fdib%3DeyJ2IjoiMSJ9.HiMvrFEujVpsmU2QCs1KzKLvpksN8EcKN5D24twsGHyf6clcY0x6LeihIZO_uQHRmw-7HWLd_iF5PNETYpq8pcfIoadDhh7-NcQIWBmOh3yS00TCJPAZl7WciCWwbaLNk--3fdWWyEGyQ1XxO3EeKC-fLfRqBOQ7Md_oCNFDephkyOwtl-qa3cCf3FtpQsKaM_QzpyNhw9ecSfPeC2WMu4nEnwxmUn_DTw_7Mr-qccs.NSLQqNdcO-PSxCENlE5jQPheAiG4PGJJ3KyEs19D36k%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725875993%26sr%3D8-65-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Apple-Laptop-MacBook-2022-chip/dp/B0B3C2R8MP/ref=sr_1_65?dib=eyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759337&amp;sr=8-65</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Mac Book Pro Charger, 61W/67W USB C Charger Power Adapter for MacBook Pro/Air 13/14 Inch, for MacBook 12 Inch, Included USB-C to USB-C Charge Cable (6.6ft/2m)</t>
+          <t>Apple Laptop MacBook Air 2022 con chip M2: diseñada para Apple Intelligence, pantalla de retina líquida de 13.6 pulgadas, 8 GB de RAM, almacenamiento SSD de 256 GB, teclado retroiluminado, cámara</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>B08KTG9L3H</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>25.99</v>
-      </c>
+          <t>B0B3C2R8MP</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -3955,14 +3945,14 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="H81" t="n">
-        <v>3117</v>
+        <v>3017</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51t8n-LwqxL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71f5Eu5lJSL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -3972,21 +3962,21 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0MDA1NTAyMDg4OTY5Mjk0OjE3MjU4NzU5OTM6c3BfYXRmX25leHQ6MjAwMDE1MTM5MzAwMTUxOjowOjo&amp;url=%2FCargador-Thinkpad-adaptador-alimentaci%25C3%25B3n-computadora%2Fdp%2FB07VYZCLF6%2Fref%3Dsr_1_66_sspa%3Fdib%3DeyJ2IjoiMSJ9.HiMvrFEujVpsmU2QCs1KzKLvpksN8EcKN5D24twsGHyf6clcY0x6LeihIZO_uQHRmw-7HWLd_iF5PNETYpq8pcfIoadDhh7-NcQIWBmOh3yS00TCJPAZl7WciCWwbaLNk--3fdWWyEGyQ1XxO3EeKC-fLfRqBOQ7Md_oCNFDephkyOwtl-qa3cCf3FtpQsKaM_QzpyNhw9ecSfPeC2WMu4nEnwxmUn_DTw_7Mr-qccs.NSLQqNdcO-PSxCENlE5jQPheAiG4PGJJ3KyEs19D36k%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725875993%26sr%3D8-66-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Escritorio-procesador-gr%C3%A1ficos-almacenamiento-22-dd0120/dp/B09DTS8ZJL/ref=sr_1_66_mod_primary_new?dib=eyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759337&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=8-66</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cargador de CA USB C de 65 W tipo C 20 V 3.25 A apto para Lenovo Thinkpad L380 L390 L480 L490 L580 L590 20M5 20M6 20M7 20M8 20NT 20LS 20LT 20LW cable adaptador de alimentación para computadora</t>
+          <t>HP Escritorio todo en uno de 21.5", procesador Intel Pentium Silver J5040, gráficos Intel UHD 605, 4 GB de RAM, 128 GB de almacenamiento, Windows 11 Home (22-dd0120, 2021), blanco nieve</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>B07VYZCLF6</t>
+          <t>B09DTS8ZJL</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>21.66</v>
+        <v>360</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3995,18 +3985,18 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>Más opciones de compra</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="H82" t="n">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71jOYMky9XL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81irrGY4jTL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4014,21 +4004,21 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-3511-i5-1135G7-i7-1065G7/dp/B0BRT67MWZ/ref=sr_1_67?dib=eyJ2IjoiMSJ9.HiMvrFEujVpsmU2QCs1KzKLvpksN8EcKN5D24twsGHyf6clcY0x6LeihIZO_uQHRmw-7HWLd_iF5PNETYpq8pcfIoadDhh7-NcQIWBmOh3yS00TCJPAZl7WciCWwbaLNk--3fdWWyEGyQ1XxO3EeKC-fLfRqBOQ7Md_oCNFDephkyOwtl-qa3cCf3FtpQsKaM_QzpyNhw9ecSfPeC2WMu4nEnwxmUn_DTw_7Mr-qccs.NSLQqNdcO-PSxCENlE5jQPheAiG4PGJJ3KyEs19D36k&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875993&amp;sr=8-67</t>
+          <t>https://www.amazon.com/-/es/HP-Elite-computadora-escritorio-pulgadas/dp/B09TNDLPR4/ref=sr_1_68?dib=eyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759337&amp;sr=8-68</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Dell Computadora portátil Inspiron 3511, pantalla táctil Full HD de 15.6 pulgadas, Intel Core i5-1135G7 (Beats Intel i7-1065G7), 32 GB DDR4 RAM, 1 TB PCIe SSD, lector de tarjetas SD, HDMI, Wi-Fi,</t>
+          <t>HP Elite PC de computadora de escritorio, 3.1 GHz, Intel Core i5, 16 GB, RAM, disco duro de 1 TB, nuevo monitor LED de 22 pulgadas, altavoz RGB y teclado mouse, WiFi, Windows 10 Pro (renovado)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>B0BRT67MWZ</t>
+          <t>B09TNDLPR4</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>505.35</v>
+        <v>199.09</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4037,42 +4027,42 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>400+ comprados el mes pasado</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H83" t="n">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/719yYrijeKL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71CJt6BB-lL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadoras-port%C3%A1tiles-pulgadas-computadora-procesador/dp/B0DBZXNJHN/ref=sr_1_68?dib=eyJ2IjoiMSJ9.HiMvrFEujVpsmU2QCs1KzKLvpksN8EcKN5D24twsGHyf6clcY0x6LeihIZO_uQHRmw-7HWLd_iF5PNETYpq8pcfIoadDhh7-NcQIWBmOh3yS00TCJPAZl7WciCWwbaLNk--3fdWWyEGyQ1XxO3EeKC-fLfRqBOQ7Md_oCNFDephkyOwtl-qa3cCf3FtpQsKaM_QzpyNhw9ecSfPeC2WMu4nEnwxmUn_DTw_7Mr-qccs.NSLQqNdcO-PSxCENlE5jQPheAiG4PGJJ3KyEs19D36k&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875993&amp;sr=8-68</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4MDk3MjY1MTQ1OTk2MzM5OjE3MjY3NTkzMzc6c3BfYnRmOjMwMDI5NDc3NTc1NzkwMjo6MDo6&amp;url=%2FOemgenuine-ThinkPad-E16-pulgadas-retroiluminado%2Fdp%2FB07T32TGH4%2Fref%3Dsr_1_69_sspa%3Fdib%3DeyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759337%26sr%3D8-69-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SGIN Computadoras portátiles, 17.3 pulgadas, 4 GB DDR4 128 GB SSD, computadora portátil con procesador N4000 de doble núcleo (hasta 2.6 GHz), 8000 mAh, cámara web, mini HDMI, USB 3.2 x 2, WiFi dual,</t>
+          <t>Oemgenuine Lenovo ThinkPad E16, WUXGA 16 pulgadas IPS, Intel Deca Core i5-1335U (Beats i7-1255U), 16 GB de RAM, 512 GB NVMe, FP, KB retroiluminado, WiFi 6 + BT, RJ-45, cámara web FHD, W11P, portátil</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>B0DBZXNJHN</t>
+          <t>B07T32TGH4</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>239.99</v>
+        <v>779.95</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4081,40 +4071,42 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61UEsQHAKqL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71vLLnhiMJL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/RIANIFEL-Computadora-port%C3%A1til-pantalla-compatible/dp/B0D1VJV1TR/ref=sr_1_69?dib=eyJ2IjoiMSJ9.HiMvrFEujVpsmU2QCs1KzKLvpksN8EcKN5D24twsGHyf6clcY0x6LeihIZO_uQHRmw-7HWLd_iF5PNETYpq8pcfIoadDhh7-NcQIWBmOh3yS00TCJPAZl7WciCWwbaLNk--3fdWWyEGyQ1XxO3EeKC-fLfRqBOQ7Md_oCNFDephkyOwtl-qa3cCf3FtpQsKaM_QzpyNhw9ecSfPeC2WMu4nEnwxmUn_DTw_7Mr-qccs.NSLQqNdcO-PSxCENlE5jQPheAiG4PGJJ3KyEs19D36k&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875993&amp;sr=8-69</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4MDk3MjY1MTQ1OTk2MzM5OjE3MjY3NTkzMzc6c3BfYnRmOjMwMDQyMDk1MTM2NTkwMjo6MDo6&amp;url=%2FACEMAGIC-Computadora-tradicional-rendimiento-almacenamiento%2Fdp%2FB0DFC1HQTG%2Fref%3Dsr_1_70_sspa%3Fdib%3DeyJ2IjoiMSJ9.qWmBh5bqB--JCf5iBbFJchk5p2tZ07ih_bqz_u8EYpcCVhphZm9IuV8L7R3iP5bD41uLPKxCQooH_UA1TjPV_i3sm_NxSUs_6s0NJIz26ElbP6CfqeCHi2w5smma88FLOJqZgYhUTmndk754mCAUh6X05dwT6xTsZSQ8YsgX7DPGlsMuZBYFxf9IPweGr-aouvPIt9hJ15eDGyPKzER-Ibvjs2J10s_YF46g8MPnDsA.fyi269c-liy3f7o1yBSvPQ5NTkrytN3P-QaBS_37q8I%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759337%26sr%3D8-70-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Computadora portátil Win 11, pantalla IPS FHD de 15.6 pulgadas 1920 x 1080, 16 GB de RAM / 512 GB SSD PC portátil con Intel Core i3-5005U, compatible con WiFi de 2.4G/5G Hz, RJ45, carga tipo</t>
+          <t>ACEMAGIC Computadora portátil tradicional de 17.3 pulgadas, con cuatro núcleos de alto rendimiento, 12th Alder Lake N97, amplio almacenamiento con 16 GB de RAM 512 GB ROM, batería de 6000 mAh de larga</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>B0D1VJV1TR</t>
+          <t>B0DFC1HQTG</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>299</v>
+        <v>399.98</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4123,18 +4115,18 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G85" t="n">
         <v>5</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71AOfy1g3rL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71ZYNIOyVwL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -4142,21 +4134,21 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Port%C3%A1til-pantalla-procesador-pulgadas-almacenamiento/dp/B0D95HHJ9V/ref=sr_1_71?dib=eyJ2IjoiMSJ9.HiMvrFEujVpsmU2QCs1KzKLvpksN8EcKN5D24twsGHyf6clcY0x6LeihIZO_uQHRmw-7HWLd_iF5PNETYpq8pcfIoadDhh7-NcQIWBmOh3yS00TCJPAZl7WciCWwbaLNk--3fdWWyEGyQ1XxO3EeKC-fLfRqBOQ7Md_oCNFDephkyOwtl-qa3cCf3FtpQsKaM_QzpyNhw9ecSfPeC2WMu4nEnwxmUn_DTw_7Mr-qccs.NSLQqNdcO-PSxCENlE5jQPheAiG4PGJJ3KyEs19D36k&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875993&amp;sr=8-71</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0NDM3MTY4NjkxMDU0MjYxOjE3MjY3NTkzNDk6c3BfYXRmX25leHQ6MjAwMDk3NDAyNDUxMDQxOjowOjo&amp;url=%2Fescritorio-giratorio-computadora-movimiento-pantallas%2Fdp%2FB08CXQDS8M%2Fref%3Dsr_1_65_sspa%3Fdib%3DeyJ2IjoiMSJ9.5L_UciosN31X3da2zZqUhepXU12USE8gtxEjvIv7pF88cVEVXysmMbu2wCDaj9WrcPdyTJ74Yo74YKO_E5iLxucx3aY6Tawhr5bZ-PLi60thamoASLZOhID7DOMTf2iri22A4pJ6ytwjX9Mj-2wB8-B3K_0IXz6Dx4oXFVnBP6AXtvUHICHfP4aAdFjXU0n69HoC7q8NAA2iNCxI2rE4N1jUgn9_kwH3Pi4GZfNpts4.VxpPPLpek_WfpVMwsdEvryiiX9Ubpmtqbptz3w53Iz0%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759349%26sr%3D8-65-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>AWOW Portátil 2 en 1 con pantalla táctil morada, procesador Intel 4 Core Celeron N4120 de 11.6 pulgadas FHD morado, 6 GB de RAM, 256 GB SSD M.2 de almacenamiento, regalo para niños, portátil</t>
+          <t>NB North Bayou Soporte de escritorio para monitor doble, brazo giratorio para monitor de computadora de movimiento completo, se adapta a 2 pantallas de hasta 27 pulgadas con capacidad de carga de 4.4</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>B0D95HHJ9V</t>
+          <t>B08CXQDS8M</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>139.99</v>
+        <v>54.9</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4169,14 +4161,14 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>707</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71P+OqxbLcL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61M02mDyk5L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -4186,21 +4178,21 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Port%C3%A1til-pulgadas-N5095-computadora-altavoces/dp/B0D14JXT43/ref=sr_1_72?dib=eyJ2IjoiMSJ9.HiMvrFEujVpsmU2QCs1KzKLvpksN8EcKN5D24twsGHyf6clcY0x6LeihIZO_uQHRmw-7HWLd_iF5PNETYpq8pcfIoadDhh7-NcQIWBmOh3yS00TCJPAZl7WciCWwbaLNk--3fdWWyEGyQ1XxO3EeKC-fLfRqBOQ7Md_oCNFDephkyOwtl-qa3cCf3FtpQsKaM_QzpyNhw9ecSfPeC2WMu4nEnwxmUn_DTw_7Mr-qccs.NSLQqNdcO-PSxCENlE5jQPheAiG4PGJJ3KyEs19D36k&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875993&amp;sr=8-72</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0NDM3MTY4NjkxMDU0MjYxOjE3MjY3NTkzNDk6c3BfYXRmX25leHQ6MjAwMTEzMjg3MzgwODk4OjowOjo&amp;url=%2FAnillo-escritorio-para-reuniones-Zoom%2Fdp%2FB09F3B9VBS%2Fref%3Dsr_1_66_sspa%3Fdib%3DeyJ2IjoiMSJ9.5L_UciosN31X3da2zZqUhepXU12USE8gtxEjvIv7pF88cVEVXysmMbu2wCDaj9WrcPdyTJ74Yo74YKO_E5iLxucx3aY6Tawhr5bZ-PLi60thamoASLZOhID7DOMTf2iri22A4pJ6ytwjX9Mj-2wB8-B3K_0IXz6Dx4oXFVnBP6AXtvUHICHfP4aAdFjXU0n69HoC7q8NAA2iNCxI2rE4N1jUgn9_kwH3Pi4GZfNpts4.VxpPPLpek_WfpVMwsdEvryiiX9Ubpmtqbptz3w53Iz0%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759349%26sr%3D8-66-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>jumper Portátil de 16 pulgadas, 16 GB RAM 512 GB SSD, Celeron N5095 de cuatro núcleos, pantalla FHD IPS 1920 x 1200, computadora portátil Windows 11 con cuatro altavoces estéreo, teclado numérico,</t>
+          <t>Anillo de luz de escritorio para reuniones de Zoom – Kit de iluminación de videoconferencia para computadora portátil, lámpara de luz LED de 6 pulgadas con clip de mesa con soporte de trípode para</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>B0D14JXT43</t>
+          <t>B09F3B9VBS</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>599.99</v>
+        <v>18.99</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4209,42 +4201,42 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H87" t="n">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81rslkP7ykL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61TBdvEabZL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/ANPCOWER-pulgadas-procesador-computadora-Bluetooth/dp/B0CD253WNC/ref=sr_1_75?dib=eyJ2IjoiMSJ9.HiMvrFEujVpsmU2QCs1KzKLvpksN8EcKN5D24twsGHyf6clcY0x6LeihIZO_uQHRmw-7HWLd_iF5PNETYpq8pcfIoadDhh7-NcQIWBmOh3yS00TCJPAZl7WciCWwbaLNk--3fdWWyEGyQ1XxO3EeKC-fLfRqBOQ7Md_oCNFDephkyOwtl-qa3cCf3FtpQsKaM_QzpyNhw9ecSfPeC2WMu4nEnwxmUn_DTw_7Mr-qccs.NSLQqNdcO-PSxCENlE5jQPheAiG4PGJJ3KyEs19D36k&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875993&amp;sr=8-75</t>
+          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-pulgadas-procesador-pantalla/dp/B0D9XP3V4S/ref=sr_1_67?dib=eyJ2IjoiMSJ9.5L_UciosN31X3da2zZqUhepXU12USE8gtxEjvIv7pF88cVEVXysmMbu2wCDaj9WrcPdyTJ74Yo74YKO_E5iLxucx3aY6Tawhr5bZ-PLi60thamoASLZOhID7DOMTf2iri22A4pJ6ytwjX9Mj-2wB8-B3K_0IXz6Dx4oXFVnBP6AXtvUHICHfP4aAdFjXU0n69HoC7q8NAA2iNCxI2rE4N1jUgn9_kwH3Pi4GZfNpts4.VxpPPLpek_WfpVMwsdEvryiiX9Ubpmtqbptz3w53Iz0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759349&amp;sr=8-67</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024 Laptop de 14 pulgadas, Windows 11, 8 GB de RAM 512 GB SSD, procesador Intel J4105 (hasta 2.5 GHz), computadora portátil con pantalla IPS FHD 1080P, WiFi 5G/2.4 GHz, USB 3.0, Bluetooth</t>
+          <t>Computadora portátil de 15.6 pulgadas, procesador N4000 con 8 GB de RAM, SSD de 256 GB, pantalla FHD 1920 x 1080 de 15.6 pulgadas, WIFI5, BT4.2, Windows 11 Pro</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>B0CD253WNC</t>
+          <t>B0D9XP3V4S</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>209.99</v>
+        <v>259.99</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4253,40 +4245,42 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="H88" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81VfDIX76BL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/81jwICXSZ5L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-pulgadas-ventilador-Bluetooth/dp/B0D3DSXQWB/ref=sr_1_76?dib=eyJ2IjoiMSJ9.HiMvrFEujVpsmU2QCs1KzKLvpksN8EcKN5D24twsGHyf6clcY0x6LeihIZO_uQHRmw-7HWLd_iF5PNETYpq8pcfIoadDhh7-NcQIWBmOh3yS00TCJPAZl7WciCWwbaLNk--3fdWWyEGyQ1XxO3EeKC-fLfRqBOQ7Md_oCNFDephkyOwtl-qa3cCf3FtpQsKaM_QzpyNhw9ecSfPeC2WMu4nEnwxmUn_DTw_7Mr-qccs.NSLQqNdcO-PSxCENlE5jQPheAiG4PGJJ3KyEs19D36k&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875993&amp;sr=8-76</t>
+          <t>https://www.amazon.com/-/es/Chromebook-pantalla-pulgadas-gr%C3%A1ficos-CB315-4H-C8XU/dp/B09XY1R1DR/ref=sr_1_68?dib=eyJ2IjoiMSJ9.5L_UciosN31X3da2zZqUhepXU12USE8gtxEjvIv7pF88cVEVXysmMbu2wCDaj9WrcPdyTJ74Yo74YKO_E5iLxucx3aY6Tawhr5bZ-PLi60thamoASLZOhID7DOMTf2iri22A4pJ6ytwjX9Mj-2wB8-B3K_0IXz6Dx4oXFVnBP6AXtvUHICHfP4aAdFjXU0n69HoC7q8NAA2iNCxI2rE4N1jUgn9_kwH3Pi4GZfNpts4.VxpPPLpek_WfpVMwsdEvryiiX9Ubpmtqbptz3w53Iz0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759349&amp;sr=8-68</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Computadora portátil, 14.1 pulgadas de doble núcleo Cerelon N4000 6GB RAM 128GB SSD portátil portátil, pantalla IPS de 1366 x 768 diseño sin ventilador, WiFi 2.4/5G, Bluetooth 5.0, USB 3.0, mini HDMI,</t>
+          <t>Acer Chromebook 315 Laptop Intel Celeron N4500, pantalla IPS Full HD de 15.6 pulgadas, gráficos Intel UHD, 4 GB LPDDR4X, 64 GB eMMC, Intel Wi-Fi 6, audio DTS, USB tipo C, Chrome OS | CB315-4H-C8XU,</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>B0D3DSXQWB</t>
+          <t>B09XY1R1DR</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4295,42 +4289,42 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H89" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71powVGd88L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71Y8BBXth9L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-Pentium-Computadora-estudiantes-Accesorios/dp/B0DB7T3QB5/ref=sr_1_77?dib=eyJ2IjoiMSJ9.HiMvrFEujVpsmU2QCs1KzKLvpksN8EcKN5D24twsGHyf6clcY0x6LeihIZO_uQHRmw-7HWLd_iF5PNETYpq8pcfIoadDhh7-NcQIWBmOh3yS00TCJPAZl7WciCWwbaLNk--3fdWWyEGyQ1XxO3EeKC-fLfRqBOQ7Md_oCNFDephkyOwtl-qa3cCf3FtpQsKaM_QzpyNhw9ecSfPeC2WMu4nEnwxmUn_DTw_7Mr-qccs.NSLQqNdcO-PSxCENlE5jQPheAiG4PGJJ3KyEs19D36k&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875993&amp;sr=8-77</t>
+          <t>https://www.amazon.com/-/es/Computadora-escritorio-OptiPlex-i7-9700-integrado/dp/B0B1DK5CLT/ref=sr_1_69?dib=eyJ2IjoiMSJ9.5L_UciosN31X3da2zZqUhepXU12USE8gtxEjvIv7pF88cVEVXysmMbu2wCDaj9WrcPdyTJ74Yo74YKO_E5iLxucx3aY6Tawhr5bZ-PLi60thamoASLZOhID7DOMTf2iri22A4pJ6ytwjX9Mj-2wB8-B3K_0IXz6Dx4oXFVnBP6AXtvUHICHfP4aAdFjXU0n69HoC7q8NAA2iNCxI2rE4N1jUgn9_kwH3Pi4GZfNpts4.VxpPPLpek_WfpVMwsdEvryiiX9Ubpmtqbptz3w53Iz0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759349&amp;sr=8-69</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>HP 14 Pentium - Computadora portátil para estudiantes, 16 GB de RAM, SSD de 1 TB, Intel Quad-Core Silver N5030 (Beat i3-1005G1, hasta 3.1 GHz), WiFi 6, Win 11 w/GM Accesorios, un año de Microsoft 365</t>
+          <t>Dell Computadora de escritorio OptiPlex 7070 SFF, Intel 8 Core i7-9700 3.0GHz hasta 4.70GHz, 32GB DDR4 Ram Nuevo SSD NVMe M.2 de 1 TB, AX210 WiFi 6E integrado, Windows 11 Pro, teclado y mouse</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>B0DB7T3QB5</t>
+          <t>B0B1DK5CLT</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>329.99</v>
+        <v>392</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4343,14 +4337,14 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H90" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61FFvbARAzL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61GGkjt2U+L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -4360,20 +4354,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Lenovo-Port%C3%A1til-14-procesador-renovado/dp/B0CBQTXF2C/ref=sr_1_78?dib=eyJ2IjoiMSJ9.HiMvrFEujVpsmU2QCs1KzKLvpksN8EcKN5D24twsGHyf6clcY0x6LeihIZO_uQHRmw-7HWLd_iF5PNETYpq8pcfIoadDhh7-NcQIWBmOh3yS00TCJPAZl7WciCWwbaLNk--3fdWWyEGyQ1XxO3EeKC-fLfRqBOQ7Md_oCNFDephkyOwtl-qa3cCf3FtpQsKaM_QzpyNhw9ecSfPeC2WMu4nEnwxmUn_DTw_7Mr-qccs.NSLQqNdcO-PSxCENlE5jQPheAiG4PGJJ3KyEs19D36k&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875993&amp;sr=8-78</t>
+          <t>https://www.amazon.com/-/es/Computadora-escritorio-pantalla-procesador-Celeron/dp/B0D7JNX1S9/ref=sr_1_70?dib=eyJ2IjoiMSJ9.5L_UciosN31X3da2zZqUhepXU12USE8gtxEjvIv7pF88cVEVXysmMbu2wCDaj9WrcPdyTJ74Yo74YKO_E5iLxucx3aY6Tawhr5bZ-PLi60thamoASLZOhID7DOMTf2iri22A4pJ6ytwjX9Mj-2wB8-B3K_0IXz6Dx4oXFVnBP6AXtvUHICHfP4aAdFjXU0n69HoC7q8NAA2iNCxI2rE4N1jUgn9_kwH3Pi4GZfNpts4.VxpPPLpek_WfpVMwsdEvryiiX9Ubpmtqbptz3w53Iz0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759349&amp;sr=8-70</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Lenovo Portátil premium de 14", procesador Intel Pentium de hasta 3.0 GHz, memoria de 4 GB, SSD de 256 GB, WiFi, HDMI, Windows 11 (gris) (renovado)</t>
+          <t>HP Computadora de escritorio todo en uno, pantalla FHD 1080P de 21.5", 32 GB de RAM, SSD PCIe de 1 TB, procesador Intel Celeron, cámara web, WiFi, HDMI, RJ-45, teclado y mouse con cable, con paquete</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>B0CBQTXF2C</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>B0D7JNX1S9</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>759</v>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -4381,42 +4377,42 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>400+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H91" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61ulke3pioL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71Sxrmui5iL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/pantalla-pulgadas-NVIDIA%C2%AE-GeForce-RyzenTM/dp/B0CRDF25TQ/ref=sr_1_79?dib=eyJ2IjoiMSJ9.HiMvrFEujVpsmU2QCs1KzKLvpksN8EcKN5D24twsGHyf6clcY0x6LeihIZO_uQHRmw-7HWLd_iF5PNETYpq8pcfIoadDhh7-NcQIWBmOh3yS00TCJPAZl7WciCWwbaLNk--3fdWWyEGyQ1XxO3EeKC-fLfRqBOQ7Md_oCNFDephkyOwtl-qa3cCf3FtpQsKaM_QzpyNhw9ecSfPeC2WMu4nEnwxmUn_DTw_7Mr-qccs.NSLQqNdcO-PSxCENlE5jQPheAiG4PGJJ3KyEs19D36k&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875993&amp;sr=8-79</t>
+          <t>https://www.amazon.com/-/es/ANPCOWER-pulgadas-procesador-computadora-Bluetooth/dp/B0CD253WNC/ref=sr_1_71?dib=eyJ2IjoiMSJ9.5L_UciosN31X3da2zZqUhepXU12USE8gtxEjvIv7pF88cVEVXysmMbu2wCDaj9WrcPdyTJ74Yo74YKO_E5iLxucx3aY6Tawhr5bZ-PLi60thamoASLZOhID7DOMTf2iri22A4pJ6ytwjX9Mj-2wB8-B3K_0IXz6Dx4oXFVnBP6AXtvUHICHfP4aAdFjXU0n69HoC7q8NAA2iNCxI2rE4N1jUgn9_kwH3Pi4GZfNpts4.VxpPPLpek_WfpVMwsdEvryiiX9Ubpmtqbptz3w53Iz0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759349&amp;sr=8-71</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming A15 (2024) Laptop para juegos, pantalla FHD de 15.6 pulgadas de 144 Hz, NVIDIA® GeForce RTX™ 2050, AMD Ryzen™ 5 7535HS, 8 GB DDR5, SSD PCIe® Gen4 NVMe™ de 512 GB, Wi-Fi 6, Windows 11,</t>
+          <t>2024 Laptop de 14 pulgadas, Windows 11, 8 GB de RAM 512 GB SSD, procesador Intel J4105 (hasta 2.5 GHz), computadora portátil con pantalla IPS FHD 1080P, WiFi 5G/2.4 GHz, USB 3.0, Bluetooth</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>B0CRDF25TQ</t>
+          <t>B0CD253WNC</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>666.85</v>
+        <v>152</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4425,42 +4421,40 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>500+ comprados el mes pasado</t>
+          <t>Típico:</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="H92" t="n">
-        <v>613</v>
+        <v>9</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81kxce-AlLL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J92" t="n">
-        <v>500</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/81VfDIX76BL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-escritorio-Optiplex-3060-Professional/dp/B0CKTM52YC/ref=sr_1_80?dib=eyJ2IjoiMSJ9.HiMvrFEujVpsmU2QCs1KzKLvpksN8EcKN5D24twsGHyf6clcY0x6LeihIZO_uQHRmw-7HWLd_iF5PNETYpq8pcfIoadDhh7-NcQIWBmOh3yS00TCJPAZl7WciCWwbaLNk--3fdWWyEGyQ1XxO3EeKC-fLfRqBOQ7Md_oCNFDephkyOwtl-qa3cCf3FtpQsKaM_QzpyNhw9ecSfPeC2WMu4nEnwxmUn_DTw_7Mr-qccs.NSLQqNdcO-PSxCENlE5jQPheAiG4PGJJ3KyEs19D36k&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875993&amp;sr=8-80</t>
+          <t>https://www.amazon.com/-/es/Port%C3%A1til-port%C3%A1til-pantalla-procesador-i3-1115G4/dp/B0BZ8X9HGT/ref=sr_1_72?dib=eyJ2IjoiMSJ9.5L_UciosN31X3da2zZqUhepXU12USE8gtxEjvIv7pF88cVEVXysmMbu2wCDaj9WrcPdyTJ74Yo74YKO_E5iLxucx3aY6Tawhr5bZ-PLi60thamoASLZOhID7DOMTf2iri22A4pJ6ytwjX9Mj-2wB8-B3K_0IXz6Dx4oXFVnBP6AXtvUHICHfP4aAdFjXU0n69HoC7q8NAA2iNCxI2rE4N1jUgn9_kwH3Pi4GZfNpts4.VxpPPLpek_WfpVMwsdEvryiiX9Ubpmtqbptz3w53Iz0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759349&amp;sr=8-72</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Dell Computadora de escritorio Optiplex 3060 | Intel i5-8500 (3.2) | 32 GB DDR4 RAM | 1TB SSD estado sólido | Windows 11 Professional | PC en casa u oficina (renovado)</t>
+          <t>HP Portátil portátil, pantalla táctil HD de 15.6", procesador Intel Core i3-1115G4, 32 GB de RAM, SSD PCIe de 1 TB, cámara web, tipo C, HDMI, lector de tarjetas SD, Wi-Fi, Windows 11 Home, color</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>B0CKTM52YC</t>
+          <t>B0BZ8X9HGT</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>254.99</v>
+        <v>441.98</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4469,42 +4463,42 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>1 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H93" t="n">
-        <v>22</v>
+        <v>1051</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81fo98vRsTL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61oAh3XrX+L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-pulgadas-procesador-generaci%C3%B3n/dp/B0CGRTXH96/ref=sr_1_81?dib=eyJ2IjoiMSJ9.HiMvrFEujVpsmU2QCs1KzKLvpksN8EcKN5D24twsGHyf6clcY0x6LeihIZO_uQHRmw-7HWLd_iF5PNETYpq8pcfIoadDhh7-NcQIWBmOh3yS00TCJPAZl7WciCWwbaLNk--3fdWWyEGyQ1XxO3EeKC-fLfRqBOQ7Md_oCNFDephkyOwtl-qa3cCf3FtpQsKaM_QzpyNhw9ecSfPeC2WMu4nEnwxmUn_DTw_7Mr-qccs.NSLQqNdcO-PSxCENlE5jQPheAiG4PGJJ3KyEs19D36k&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875993&amp;sr=8-81</t>
+          <t>https://www.amazon.com/-/es/Lenovo-IdeaPad-Laptop-estudiantes-pantalla/dp/B0CV3CDRNG/ref=sr_1_73?dib=eyJ2IjoiMSJ9.5L_UciosN31X3da2zZqUhepXU12USE8gtxEjvIv7pF88cVEVXysmMbu2wCDaj9WrcPdyTJ74Yo74YKO_E5iLxucx3aY6Tawhr5bZ-PLi60thamoASLZOhID7DOMTf2iri22A4pJ6ytwjX9Mj-2wB8-B3K_0IXz6Dx4oXFVnBP6AXtvUHICHfP4aAdFjXU0n69HoC7q8NAA2iNCxI2rE4N1jUgn9_kwH3Pi4GZfNpts4.VxpPPLpek_WfpVMwsdEvryiiX9Ubpmtqbptz3w53Iz0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759349&amp;sr=8-73</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Computadora portátil de 16 pulgadas, portátil para juegos, 16 GB de RAM 512 GB SSD, procesador Intel N95 de 12ª generación (hasta 3.4 GHz), FHD 1920 x 1200, apertura de ángulo de 180,</t>
+          <t>Lenovo IdeaPad 1 Laptop para estudiantes, pantalla HD de 14 pulgadas, Intel Celeron N4020, 4 GB de RAM, 128 GB eMMC, batería de larga duración de hasta 11 horas, Wi-Fi 6, Windows 11 Home Business</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>B0CGRTXH96</t>
+          <t>B0CV3CDRNG</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>349.99</v>
+        <v>185</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4517,14 +4511,14 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H94" t="n">
-        <v>490</v>
+        <v>31</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71FVaZZV2TL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61aN75y1FHL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -4534,20 +4528,22 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-procesador-altavoces-suscripci%C3%B3n/dp/B0D69YTLRF/ref=sr_1_82?dib=eyJ2IjoiMSJ9.HiMvrFEujVpsmU2QCs1KzKLvpksN8EcKN5D24twsGHyf6clcY0x6LeihIZO_uQHRmw-7HWLd_iF5PNETYpq8pcfIoadDhh7-NcQIWBmOh3yS00TCJPAZl7WciCWwbaLNk--3fdWWyEGyQ1XxO3EeKC-fLfRqBOQ7Md_oCNFDephkyOwtl-qa3cCf3FtpQsKaM_QzpyNhw9ecSfPeC2WMu4nEnwxmUn_DTw_7Mr-qccs.NSLQqNdcO-PSxCENlE5jQPheAiG4PGJJ3KyEs19D36k&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725875993&amp;sr=8-82</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0NDM3MTY4NjkxMDU0MjYxOjE3MjY3NTkzNDk6c3BfbXRmOjMwMDA4MTM2NzYzODMwMjo6MDo6&amp;url=%2FChromebook-pantalla-pulgadas-Celeron-almacenamiento%2Fdp%2FB0CLFTQPQ4%2Fref%3Dsr_1_76_sspa%3Fdib%3DeyJ2IjoiMSJ9.5L_UciosN31X3da2zZqUhepXU12USE8gtxEjvIv7pF88cVEVXysmMbu2wCDaj9WrcPdyTJ74Yo74YKO_E5iLxucx3aY6Tawhr5bZ-PLi60thamoASLZOhID7DOMTf2iri22A4pJ6ytwjX9Mj-2wB8-B3K_0IXz6Dx4oXFVnBP6AXtvUHICHfP4aAdFjXU0n69HoC7q8NAA2iNCxI2rE4N1jUgn9_kwH3Pi4GZfNpts4.VxpPPLpek_WfpVMwsdEvryiiX9Ubpmtqbptz3w53Iz0%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759349%26sr%3D8-76-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>jumper Computadora portátil, 4 GB DDR4 RAM 128 GB SSD, procesador 5205U, pantalla HD de 15.6 pulgadas, batería de 38 Wh, altavoces estéreo duales, tipo C, USB3.0, teclado numérico, suscripción de 1</t>
+          <t>acer Laptop Chromebook 315 (2023), pantalla HD de 15.6 pulgadas, Intel Celeron N4020 (hasta 2.8 GHz), 4 GB de RAM, 128 GB de almacenamiento (64 GB eMMC+64 GB SD), cámara web, WiFi, batería de más de</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>B0D69YTLRF</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>B0CLFTQPQ4</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>220</v>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -4555,41 +4551,41 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>400+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="H95" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/6194G+5e3RL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J95" t="n">
-        <v>400</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/81XJFLCZkEL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0MDA1NTAyMDg4OTY5Mjk0OjE3MjU4NzU5OTM6c3BfYnRmOjMwMDE5NDI0MTUyNTQwMjo6MDo6&amp;url=%2FLatitude-5550-Bluetooth-retroiluminado-dactilares%2Fdp%2FB0CRVF9G14%2Fref%3Dsr_1_83_sspa%3Fdib%3DeyJ2IjoiMSJ9.HiMvrFEujVpsmU2QCs1KzKLvpksN8EcKN5D24twsGHyf6clcY0x6LeihIZO_uQHRmw-7HWLd_iF5PNETYpq8pcfIoadDhh7-NcQIWBmOh3yS00TCJPAZl7WciCWwbaLNk--3fdWWyEGyQ1XxO3EeKC-fLfRqBOQ7Md_oCNFDephkyOwtl-qa3cCf3FtpQsKaM_QzpyNhw9ecSfPeC2WMu4nEnwxmUn_DTw_7Mr-qccs.NSLQqNdcO-PSxCENlE5jQPheAiG4PGJJ3KyEs19D36k%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725875993%26sr%3D8-83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1%26smid%3DA16GF9XHNIR83K</t>
+          <t>https://www.amazon.com/-/es/pulgadas-port%C3%A1tiles-procesador-Quad-Core-Bluetooth/dp/B0DCC9ZQ48/ref=sr_1_77?dib=eyJ2IjoiMSJ9.5L_UciosN31X3da2zZqUhepXU12USE8gtxEjvIv7pF88cVEVXysmMbu2wCDaj9WrcPdyTJ74Yo74YKO_E5iLxucx3aY6Tawhr5bZ-PLi60thamoASLZOhID7DOMTf2iri22A4pJ6ytwjX9Mj-2wB8-B3K_0IXz6Dx4oXFVnBP6AXtvUHICHfP4aAdFjXU0n69HoC7q8NAA2iNCxI2rE4N1jUgn9_kwH3Pi4GZfNpts4.VxpPPLpek_WfpVMwsdEvryiiX9Ubpmtqbptz3w53Iz0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759349&amp;sr=8-77</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Dell Latitude 5550 15 15.6" FHD Business AI Computer, Intel Ultra 5 125U (Beat i7-1355U), 32GB DDR5 RAM, 1TB SSD, WiFi 6, Bluetooth 5.3, teclado retroiluminado, lector de huellas dactilares, Windows</t>
+          <t>Laptop de 15.6 pulgadas 8 GB DDR4 256 GB SSD, portátiles con procesador Celeron Quad-Core (hasta 2.6 GHz), 7200 mAh, WiFi 2.4/5.0G, Bluetooth 5.0, cámara web, mini HDMI, USB 3.0</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>B0CRVF9G14</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>B0DCC9ZQ48</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>409.99</v>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -4597,40 +4593,42 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H96" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/817MHeDkSFL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61OGbh-CviL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0MDA1NTAyMDg4OTY5Mjk0OjE3MjU4NzU5OTM6c3BfYnRmOjMwMDM4NDAyNjM2MDQwMjo6MDo6&amp;url=%2FPort%25C3%25A1til-15-pulgadas-JasperLake-1920x1080%2Fdp%2FB0D9LX131M%2Fref%3Dsr_1_84_sspa%3Fdib%3DeyJ2IjoiMSJ9.HiMvrFEujVpsmU2QCs1KzKLvpksN8EcKN5D24twsGHyf6clcY0x6LeihIZO_uQHRmw-7HWLd_iF5PNETYpq8pcfIoadDhh7-NcQIWBmOh3yS00TCJPAZl7WciCWwbaLNk--3fdWWyEGyQ1XxO3EeKC-fLfRqBOQ7Md_oCNFDephkyOwtl-qa3cCf3FtpQsKaM_QzpyNhw9ecSfPeC2WMu4nEnwxmUn_DTw_7Mr-qccs.NSLQqNdcO-PSxCENlE5jQPheAiG4PGJJ3KyEs19D36k%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725875993%26sr%3D8-84-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/HP-2024-pulgadas-delgada-n%C3%BAcleos/dp/B0D1LRVBWX/ref=sr_1_78?dib=eyJ2IjoiMSJ9.5L_UciosN31X3da2zZqUhepXU12USE8gtxEjvIv7pF88cVEVXysmMbu2wCDaj9WrcPdyTJ74Yo74YKO_E5iLxucx3aY6Tawhr5bZ-PLi60thamoASLZOhID7DOMTf2iri22A4pJ6ytwjX9Mj-2wB8-B3K_0IXz6Dx4oXFVnBP6AXtvUHICHfP4aAdFjXU0n69HoC7q8NAA2iNCxI2rE4N1jUgn9_kwH3Pi4GZfNpts4.VxpPPLpek_WfpVMwsdEvryiiX9Ubpmtqbptz3w53Iz0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759349&amp;sr=8-78</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>OTVOC Portátil de 15,6 pulgadas con Windows 11, Celeron JasperLake N5105, Quad Core, hasta 2,9 GHz, 16 GB de RAM, SSD NVME de 512 GB, hasta 4 TB, FHD IPS de 15,6 pulgadas 1920x1080, HDMI, HDD, tipo C,</t>
+          <t>HP 2024 - Laptop de 14 pulgadas, delgada y ligera, Intel N4120 de cuatro núcleos, 4 GB de RAM, 192 GB (tarjeta eMMC de 128 GB + 64 GB), 1 año Office 365, cámara web, WiFi, Windows 11S,</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>B0D9LX131M</t>
+          <t>B0D1LRVBWX</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>339.99</v>
+        <v>268</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4639,40 +4637,42 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="H97" t="n">
-        <v>544</v>
+        <v>4</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/714P4nI5KvL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61itlpBXzJL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4NDIzMDYwNTYxNTA1OTMzOjE3MjU4NzYwMDg6c3BfYXRmX25leHQ6MzAwMjU0NjY0NDIwNDAyOjowOjo&amp;url=%2Fprotector-pantalla-universal-pulgadas-protecci%25C3%25B3n%2Fdp%2FB0C94N9SLG%2Fref%3Dsr_1_81_sspa%3Fdib%3DeyJ2IjoiMSJ9.wZwI0b8esLZaKdeeC_pIAh3y0Wh79MmcPDeMVAgiM-9BdkQ2-OXGaiZiHpptNIlTHJ9wlk8rdYuN3m1hBtOFovPdqtRTzswO0wTqhu2ku3SNbqjeI9lmXJWzqbNO5-jCR1-2XsdguvcPHYeZHjpMO0xGqUqIQsYDe2SlKe-OeI7dp_LgdMqY9fSQAokN7Z7EOjdA78WaVR1ihWDbum-T-jOZqajzQ4CIPCxgERCyq2M.eniLVxwgSKtGI5pPDMtJapA6WaYugSlakhiJJLX16PQ%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725876008%26sr%3D8-81-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/HP-ultraligera-estudiantes-Quad-Core-almacenamiento/dp/B0CJ4XMN32/ref=sr_1_79?dib=eyJ2IjoiMSJ9.5L_UciosN31X3da2zZqUhepXU12USE8gtxEjvIv7pF88cVEVXysmMbu2wCDaj9WrcPdyTJ74Yo74YKO_E5iLxucx3aY6Tawhr5bZ-PLi60thamoASLZOhID7DOMTf2iri22A4pJ6ytwjX9Mj-2wB8-B3K_0IXz6Dx4oXFVnBP6AXtvUHICHfP4aAdFjXU0n69HoC7q8NAA2iNCxI2rE4N1jUgn9_kwH3Pi4GZfNpts4.VxpPPLpek_WfpVMwsdEvryiiX9Ubpmtqbptz3w53Iz0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759349&amp;sr=8-79</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Panel protector de pantalla universal con bloqueo de luz azul para 23, 23.6, 23.8, 24 pulgadas [paquete de 2] película de filtro de protección ocular para monitor LED diagonal – Marco de monitor de</t>
+          <t>HP Laptop ultraligera de 14 pulgadas para estudiantes y negocios, Intel Quad-Core N4120, 8 GB de RAM, 192 GB de almacenamiento (64 GB eMMC + 128 GB Ghost Manta SD), 1 año Office 365, cámara web, HDMI,</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>B0C94N9SLG</t>
+          <t>B0CJ4XMN32</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>96.98999999999999</v>
+        <v>296.99</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4681,18 +4681,18 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Compra productos de marcas de pequeñas empresas que se venden en la plataforma Amazon. Descubre más sobre las pequeñas empresas que se asocian con Amazon y el compromiso de Amazon de empoderarlas.</t>
+          <t>Más opciones de compra</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H98" t="n">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81ODGzQoJcL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81rXd6t7A+L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4700,21 +4700,21 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4NDIzMDYwNTYxNTA1OTMzOjE3MjU4NzYwMDg6c3BfYXRmX25leHQ6MzAwMjI5NjQzMDI0NjAyOjowOjo&amp;url=%2Funidades-pantalla-privacidad-computadora-pulgadas%2Fdp%2FB0C78K5G3K%2Fref%3Dsr_1_82_sspa%3Fdib%3DeyJ2IjoiMSJ9.wZwI0b8esLZaKdeeC_pIAh3y0Wh79MmcPDeMVAgiM-9BdkQ2-OXGaiZiHpptNIlTHJ9wlk8rdYuN3m1hBtOFovPdqtRTzswO0wTqhu2ku3SNbqjeI9lmXJWzqbNO5-jCR1-2XsdguvcPHYeZHjpMO0xGqUqIQsYDe2SlKe-OeI7dp_LgdMqY9fSQAokN7Z7EOjdA78WaVR1ihWDbum-T-jOZqajzQ4CIPCxgERCyq2M.eniLVxwgSKtGI5pPDMtJapA6WaYugSlakhiJJLX16PQ%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725876008%26sr%3D8-82-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/HP-empresarial-i3-1125G4-i5-1035G4-accesorios/dp/B0C33KJV5N/ref=sr_1_80?dib=eyJ2IjoiMSJ9.5L_UciosN31X3da2zZqUhepXU12USE8gtxEjvIv7pF88cVEVXysmMbu2wCDaj9WrcPdyTJ74Yo74YKO_E5iLxucx3aY6Tawhr5bZ-PLi60thamoASLZOhID7DOMTf2iri22A4pJ6ytwjX9Mj-2wB8-B3K_0IXz6Dx4oXFVnBP6AXtvUHICHfP4aAdFjXU0n69HoC7q8NAA2iNCxI2rE4N1jUgn9_kwH3Pi4GZfNpts4.VxpPPLpek_WfpVMwsdEvryiiX9Ubpmtqbptz3w53Iz0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759349&amp;sr=8-80</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[2 unidades] Filtro de pantalla de privacidad de computadora de 27 pulgadas 16:9 para monitor de pantalla ancha y portátil, antirreflejos, película protectora antiarañazos, escudo de confidencialidad</t>
+          <t>HP Portátil empresarial insignia HD+ de 17.3", RAM DDR4 de 16 GB, SSD PCIe de 1 TB, Intel Quad Core i3-1125G4 (Beat i5-1035G4), Bluetooth, HDMI, cámara web, Windows 11, plata, con accesorios GM</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>B0C78K5G3K</t>
+          <t>B0C33KJV5N</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>82.98999999999999</v>
+        <v>449.95</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4723,40 +4723,42 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Compra productos de marcas de pequeñas empresas que se venden en la plataforma Amazon. Descubre más sobre las pequeñas empresas que se asocian con Amazon y el compromiso de Amazon de empoderarlas.</t>
+          <t>400+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G99" t="n">
         <v>4.3</v>
       </c>
       <c r="H99" t="n">
-        <v>3184</v>
+        <v>343</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81sciwJ15EL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61DF0nkzgxL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/MARGOLAI-Computadora-port%C3%A1til-pulgadas-procesador/dp/B0D89YWDH3/ref=sr_1_83?dib=eyJ2IjoiMSJ9.wZwI0b8esLZaKdeeC_pIAh3y0Wh79MmcPDeMVAgiM-9BdkQ2-OXGaiZiHpptNIlTHJ9wlk8rdYuN3m1hBtOFovPdqtRTzswO0wTqhu2ku3SNbqjeI9lmXJWzqbNO5-jCR1-2XsdguvcPHYeZHjpMO0xGqUqIQsYDe2SlKe-OeI7dp_LgdMqY9fSQAokN7Z7EOjdA78WaVR1ihWDbum-T-jOZqajzQ4CIPCxgERCyq2M.eniLVxwgSKtGI5pPDMtJapA6WaYugSlakhiJJLX16PQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876008&amp;sr=8-83</t>
+          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-3511-i5-1135G7-i7-1065G7/dp/B0BRT67MWZ/ref=sr_1_81?dib=eyJ2IjoiMSJ9.5L_UciosN31X3da2zZqUhepXU12USE8gtxEjvIv7pF88cVEVXysmMbu2wCDaj9WrcPdyTJ74Yo74YKO_E5iLxucx3aY6Tawhr5bZ-PLi60thamoASLZOhID7DOMTf2iri22A4pJ6ytwjX9Mj-2wB8-B3K_0IXz6Dx4oXFVnBP6AXtvUHICHfP4aAdFjXU0n69HoC7q8NAA2iNCxI2rE4N1jUgn9_kwH3Pi4GZfNpts4.VxpPPLpek_WfpVMwsdEvryiiX9Ubpmtqbptz3w53Iz0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759349&amp;sr=8-81</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Computadora portátil FHD de 14 pulgadas, 6 GB DDR4 RAM/128 GB SSD, procesador Intel J4005 (hasta 2.7 GHz), PC portátil delgada y portátil Win 11, WiFi / BT4.0 (gris plateado)</t>
+          <t>Dell Computadora portátil Inspiron 3511, pantalla táctil Full HD de 15.6 pulgadas, Intel Core i5-1135G7 (Beats Intel i7-1065G7), 32 GB DDR4 RAM, 1 TB PCIe SSD, lector de tarjetas SD, HDMI, Wi-Fi,</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>B0D89YWDH3</t>
+          <t>B0BRT67MWZ</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>179</v>
+        <v>501.9</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4765,41 +4767,41 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>400+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H100" t="n">
-        <v>4</v>
+        <v>402</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71iiI18fkPL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/719yYrijeKL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/pulgadas-computadora-expandible-procesador-Quad-Core/dp/B0D9HWYF6F/ref=sr_1_84?dib=eyJ2IjoiMSJ9.wZwI0b8esLZaKdeeC_pIAh3y0Wh79MmcPDeMVAgiM-9BdkQ2-OXGaiZiHpptNIlTHJ9wlk8rdYuN3m1hBtOFovPdqtRTzswO0wTqhu2ku3SNbqjeI9lmXJWzqbNO5-jCR1-2XsdguvcPHYeZHjpMO0xGqUqIQsYDe2SlKe-OeI7dp_LgdMqY9fSQAokN7Z7EOjdA78WaVR1ihWDbum-T-jOZqajzQ4CIPCxgERCyq2M.eniLVxwgSKtGI5pPDMtJapA6WaYugSlakhiJJLX16PQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876008&amp;sr=8-84</t>
+          <t>https://www.amazon.com/-/es/computadora-escritorio-compatible-Optiplex-7010/dp/B07SQFGKDF/ref=sr_1_82?dib=eyJ2IjoiMSJ9.5L_UciosN31X3da2zZqUhepXU12USE8gtxEjvIv7pF88cVEVXysmMbu2wCDaj9WrcPdyTJ74Yo74YKO_E5iLxucx3aY6Tawhr5bZ-PLi60thamoASLZOhID7DOMTf2iri22A4pJ6ytwjX9Mj-2wB8-B3K_0IXz6Dx4oXFVnBP6AXtvUHICHfP4aAdFjXU0n69HoC7q8NAA2iNCxI2rE4N1jUgn9_kwH3Pi4GZfNpts4.VxpPPLpek_WfpVMwsdEvryiiX9Ubpmtqbptz3w53Iz0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759349&amp;sr=8-82</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SGIN Laptops de 15.6 pulgadas, computadora portátil con 4 GB de RAM 128 GB SSD, expandible de 1 TB, procesador Celeron Quad-Core (hasta 2.6 GHz), WiFi 5G, tipo C, mini HDMI, cámara web, USB 3.2</t>
+          <t>Dell Paquete de computadora de escritorio compatible con Dell Optiplex 7010 Intel Quad Core i5 3.2GHz, 8 GB de RAM, disco duro de 500 GB, LCD de 19 pulgadas, DVD, WiFi, teclado, mouse, Windows 10 Pro</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>B0D9HWYF6F</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>189.99</v>
-      </c>
+          <t>B07SQFGKDF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -4807,42 +4809,42 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>200+ comprados el mes pasado</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H101" t="n">
-        <v>4</v>
+        <v>691</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71dlFMo9WtL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71IrtnjZD2L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-alimentado-computadora-Bluetooth-alfombrilla/dp/B0BX3YG1TT/ref=sr_1_85?dib=eyJ2IjoiMSJ9.wZwI0b8esLZaKdeeC_pIAh3y0Wh79MmcPDeMVAgiM-9BdkQ2-OXGaiZiHpptNIlTHJ9wlk8rdYuN3m1hBtOFovPdqtRTzswO0wTqhu2ku3SNbqjeI9lmXJWzqbNO5-jCR1-2XsdguvcPHYeZHjpMO0xGqUqIQsYDe2SlKe-OeI7dp_LgdMqY9fSQAokN7Z7EOjdA78WaVR1ihWDbum-T-jOZqajzQ4CIPCxgERCyq2M.eniLVxwgSKtGI5pPDMtJapA6WaYugSlakhiJJLX16PQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876008&amp;sr=8-85</t>
+          <t>https://www.amazon.com/-/es/Port%C3%A1til-limitada-Microsoft-Procesador-Quad-Core/dp/B0D9GG9RR8/ref=sr_1_83?dib=eyJ2IjoiMSJ9.5L_UciosN31X3da2zZqUhepXU12USE8gtxEjvIv7pF88cVEVXysmMbu2wCDaj9WrcPdyTJ74Yo74YKO_E5iLxucx3aY6Tawhr5bZ-PLi60thamoASLZOhID7DOMTf2iri22A4pJ6ytwjX9Mj-2wB8-B3K_0IXz6Dx4oXFVnBP6AXtvUHICHfP4aAdFjXU0n69HoC7q8NAA2iNCxI2rE4N1jUgn9_kwH3Pi4GZfNpts4.VxpPPLpek_WfpVMwsdEvryiiX9Ubpmtqbptz3w53Iz0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759349&amp;sr=8-83</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Computadora portátil (10.1 pulgadas), Quad Core alimentado por Android 12.0, computadora portátil con Wifi, cámara web y Bluetooth, mini portátil con bolsa, mouse y alfombrilla de mouse para</t>
+          <t>HP Portátil delgado 14 HD • Edición limitada de regreso a clases con Microsoft 365 de 1 año • Procesador Intel Quad-Core • Batería de larga duración • w/WOWPC Bundle • Win 11 (Windows 11 Home, 16 GB</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>B0BX3YG1TT</t>
+          <t>B0D9GG9RR8</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>148</v>
+        <v>399</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4851,42 +4853,42 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>500+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="H102" t="n">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71P8qnUWC0L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71I5yM9Sc+L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-Computadora-estudiantes-Quad-Core-almacenamiento/dp/B0D9BCVQC9/ref=sr_1_86?dib=eyJ2IjoiMSJ9.wZwI0b8esLZaKdeeC_pIAh3y0Wh79MmcPDeMVAgiM-9BdkQ2-OXGaiZiHpptNIlTHJ9wlk8rdYuN3m1hBtOFovPdqtRTzswO0wTqhu2ku3SNbqjeI9lmXJWzqbNO5-jCR1-2XsdguvcPHYeZHjpMO0xGqUqIQsYDe2SlKe-OeI7dp_LgdMqY9fSQAokN7Z7EOjdA78WaVR1ihWDbum-T-jOZqajzQ4CIPCxgERCyq2M.eniLVxwgSKtGI5pPDMtJapA6WaYugSlakhiJJLX16PQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876008&amp;sr=8-86</t>
+          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-pantalla-procesador-almacenamiento/dp/B0DD7L237D/ref=sr_1_84?dib=eyJ2IjoiMSJ9.5L_UciosN31X3da2zZqUhepXU12USE8gtxEjvIv7pF88cVEVXysmMbu2wCDaj9WrcPdyTJ74Yo74YKO_E5iLxucx3aY6Tawhr5bZ-PLi60thamoASLZOhID7DOMTf2iri22A4pJ6ytwjX9Mj-2wB8-B3K_0IXz6Dx4oXFVnBP6AXtvUHICHfP4aAdFjXU0n69HoC7q8NAA2iNCxI2rE4N1jUgn9_kwH3Pi4GZfNpts4.VxpPPLpek_WfpVMwsdEvryiiX9Ubpmtqbptz3w53Iz0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759349&amp;sr=8-84</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>HP Computadora portátil de 15.6 HD para estudiantes de negocios, Intel Quad-Core Pentium N200, 8 GB de RAM, 256 GB de almacenamiento (128 GB SSD + tarjeta SD de 128 GB), 1 año Office 365, Win 11 S,</t>
+          <t>jumper Computadora portátil, pantalla FHD de 16 pulgadas, procesador 5305U, 12 GB de RAM, 640 GB de almacenamiento (128 GB eMMC+512 GB SSD), 1 año de Office 365, WiFi, USB-A y C, sistema de</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>B0D9BCVQC9</t>
+          <t>B0DD7L237D</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>296.99</v>
+        <v>699.99</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4895,39 +4897,43 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Típico:</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="H103" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71ekyh3CqNL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71yVnwLcvZL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-expandible-suscripci%C3%B3n-altavoces/dp/B0D1KFR4HS/ref=sr_1_87?dib=eyJ2IjoiMSJ9.wZwI0b8esLZaKdeeC_pIAh3y0Wh79MmcPDeMVAgiM-9BdkQ2-OXGaiZiHpptNIlTHJ9wlk8rdYuN3m1hBtOFovPdqtRTzswO0wTqhu2ku3SNbqjeI9lmXJWzqbNO5-jCR1-2XsdguvcPHYeZHjpMO0xGqUqIQsYDe2SlKe-OeI7dp_LgdMqY9fSQAokN7Z7EOjdA78WaVR1ihWDbum-T-jOZqajzQ4CIPCxgERCyq2M.eniLVxwgSKtGI5pPDMtJapA6WaYugSlakhiJJLX16PQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876008&amp;sr=8-87</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0NDM3MTY4NjkxMDU0MjYxOjE3MjY3NTkzNDk6c3BfYnRmOjIwMDEwOTU2MjY5MTU5ODo6MDo6&amp;url=%2Findetectable-computadora-autom%25C3%25A1tico-controlador-movimiento%2Fdp%2FB0BFHVFL5W%2Fref%3Dsr_1_85_sspa%3Fdib%3DeyJ2IjoiMSJ9.5L_UciosN31X3da2zZqUhepXU12USE8gtxEjvIv7pF88cVEVXysmMbu2wCDaj9WrcPdyTJ74Yo74YKO_E5iLxucx3aY6Tawhr5bZ-PLi60thamoASLZOhID7DOMTf2iri22A4pJ6ytwjX9Mj-2wB8-B3K_0IXz6Dx4oXFVnBP6AXtvUHICHfP4aAdFjXU0n69HoC7q8NAA2iNCxI2rE4N1jUgn9_kwH3Pi4GZfNpts4.VxpPPLpek_WfpVMwsdEvryiiX9Ubpmtqbptz3w53Iz0%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759349%26sr%3D8-85-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>jumper Computadora portátil, CPU Celeron N4100, 4 GB de RAM 128 GB EMMC, SSD M.2 expandible de 1 TB, pantalla FHD IPS 1200P de 16 pulgadas, suscripción de Office de 1 año, 4 altavoces estéreo.</t>
+          <t>Ratón indetectable Jiggler Shaker USB Mouse Mover para computadora portátil, mini ratón automático agitador de ratón sin controlador, simulador de movimiento del mouse mantiene la computadora</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>B0D1KFR4HS</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+          <t>B0BFHVFL5W</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>6.99</v>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -4935,18 +4941,18 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>No hay ofertas destacadas disponibles</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H104" t="n">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81XnSHx-PdL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51ZYPjyRC0L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -4954,21 +4960,21 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/IdeaPad-estudiantes-pantalla-procesador-Bluetooth/dp/B0CQB84CTP/ref=sr_1_88?dib=eyJ2IjoiMSJ9.wZwI0b8esLZaKdeeC_pIAh3y0Wh79MmcPDeMVAgiM-9BdkQ2-OXGaiZiHpptNIlTHJ9wlk8rdYuN3m1hBtOFovPdqtRTzswO0wTqhu2ku3SNbqjeI9lmXJWzqbNO5-jCR1-2XsdguvcPHYeZHjpMO0xGqUqIQsYDe2SlKe-OeI7dp_LgdMqY9fSQAokN7Z7EOjdA78WaVR1ihWDbum-T-jOZqajzQ4CIPCxgERCyq2M.eniLVxwgSKtGI5pPDMtJapA6WaYugSlakhiJJLX16PQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876008&amp;sr=8-88</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0NDM3MTY4NjkxMDU0MjYxOjE3MjY3NTkzNDk6c3BfYnRmOjMwMDQyNDkyNzAwNDMwMjo6MDo6&amp;url=%2F156465BCAJ%2Fdp%2FB0C3XDVV55%2Fref%3Dsr_1_86_sspa%3Fdib%3DeyJ2IjoiMSJ9.5L_UciosN31X3da2zZqUhepXU12USE8gtxEjvIv7pF88cVEVXysmMbu2wCDaj9WrcPdyTJ74Yo74YKO_E5iLxucx3aY6Tawhr5bZ-PLi60thamoASLZOhID7DOMTf2iri22A4pJ6ytwjX9Mj-2wB8-B3K_0IXz6Dx4oXFVnBP6AXtvUHICHfP4aAdFjXU0n69HoC7q8NAA2iNCxI2rE4N1jUgn9_kwH3Pi4GZfNpts4.VxpPPLpek_WfpVMwsdEvryiiX9Ubpmtqbptz3w53Iz0%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759349%26sr%3D8-86-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Lenovo IdeaPad 1 Laptop para estudiantes, pantalla FHD de 15.6 pulgadas, procesador Intel de doble núcleo, 8 GB de RAM, SSD de 128 GB + 128 GB eMMC, Wi-Fi 6, cámara web, Bluetooth, 1 año Office 365,</t>
+          <t>ACEMAGICIAN Mini PC Computer, 12th Gen N100 (up to 3.4GHz) 16GB LPDDR5 512GB M.2 SSD Desktop Computers, Micro PC Support 4K UHD, Dual Gigabit Ethernet, 3 HDMI, 2.4G/5G WiFi, BT 4.2</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>B0CQB84CTP</t>
+          <t>B0C3XDVV55</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>299</v>
+        <v>209</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4977,40 +4983,42 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Más opciones de compra</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H105" t="n">
-        <v>291</v>
+        <v>158</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71z91xHypWL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61nPI5vELgL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/ApoloSign-Computadora-port%C3%A1til-port%C3%A1tiles-procesador/dp/B0D7Q34VQD/ref=sr_1_89?dib=eyJ2IjoiMSJ9.wZwI0b8esLZaKdeeC_pIAh3y0Wh79MmcPDeMVAgiM-9BdkQ2-OXGaiZiHpptNIlTHJ9wlk8rdYuN3m1hBtOFovPdqtRTzswO0wTqhu2ku3SNbqjeI9lmXJWzqbNO5-jCR1-2XsdguvcPHYeZHjpMO0xGqUqIQsYDe2SlKe-OeI7dp_LgdMqY9fSQAokN7Z7EOjdA78WaVR1ihWDbum-T-jOZqajzQ4CIPCxgERCyq2M.eniLVxwgSKtGI5pPDMtJapA6WaYugSlakhiJJLX16PQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876008&amp;sr=8-89</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3OTI1ODI4NzA2NzgxNTgyOjE3MjY3NTkzNTk6c3BfYXRmX25leHQ6MzAwMDgyNTA1ODMxMzAyOjowOjo&amp;url=%2FDELTAHUB-Carpio-2-0-Reposamu%25C3%25B1ecas-deslizamiento%2Fdp%2FB098P8JK8K%2Fref%3Dsr_1_81_sspa%3Fdib%3DeyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759359%26sr%3D8-81-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ApoloSign Computadora portátil de 15.6 pulgadas, portátiles Windows 11 con 12 GB de RAM 512 GB SSD, pantalla FHD IPS de 1920 x 1200, procesador Celeron N5095 de cuatro núcleos (hasta 2.8 GHz), WiFi de</t>
+          <t>DELTAHUB Carpio 2.0 - Reposamuñecas ergonómico para diestros para ratón, soporte para túnel carpiano, alivio del dolor, antifatiga, fácil deslizamiento, elegante, computadora de oficina, laptop,</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>B0D7Q34VQD</t>
+          <t>B098P8JK8K</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>284.99</v>
+        <v>39.9</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -5019,41 +5027,43 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="H106" t="n">
-        <v>7</v>
+        <v>1599</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61M9op8RBqL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/514HVds0DzL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-procesador-seguridad-NP960XGK-KG1US/dp/B0CQ3VXJ3J/ref=sr_1_90?dib=eyJ2IjoiMSJ9.wZwI0b8esLZaKdeeC_pIAh3y0Wh79MmcPDeMVAgiM-9BdkQ2-OXGaiZiHpptNIlTHJ9wlk8rdYuN3m1hBtOFovPdqtRTzswO0wTqhu2ku3SNbqjeI9lmXJWzqbNO5-jCR1-2XsdguvcPHYeZHjpMO0xGqUqIQsYDe2SlKe-OeI7dp_LgdMqY9fSQAokN7Z7EOjdA78WaVR1ihWDbum-T-jOZqajzQ4CIPCxgERCyq2M.eniLVxwgSKtGI5pPDMtJapA6WaYugSlakhiJJLX16PQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876008&amp;sr=8-90</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3OTI1ODI4NzA2NzgxNTgyOjE3MjY3NTkzNTk6c3BfYXRmX25leHQ6MzAwMzk1NzQyMDE5MjAyOjowOjo&amp;url=%2FGearIT-Ethernet-Categor%25C3%25ADa-enganches-computadora%2Fdp%2FB06ZY34KHB%2Fref%3Dsr_1_82_sspa%3Fdib%3DeyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759359%26sr%3D8-82-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SAMSUNG Computadora portátil Galaxy Book4 Pro de 16 pulgadas, procesador Intel Core 7 Ultra de 1 TB, pantalla táctil AMOLED 3K (2880 x 1800), seguridad avanzada, modelo 2024, NP960XGK-KG1US, gris</t>
+          <t>GearIT - Cable Ethernet Categoría 6, sin enganches, cable de red LAN para computadora, Azul</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>B0CQ3VXJ3J</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>B06ZY34KHB</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>61.48</v>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -5065,14 +5075,14 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H107" t="n">
-        <v>42</v>
+        <v>292</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71ysHVMH4FL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/91R-jIg0V8L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J107" t="n">
@@ -5082,21 +5092,21 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-ultraligera-estudiantes-Quad-Core-almacenamiento/dp/B0CJ4XMN32/ref=sr_1_91?dib=eyJ2IjoiMSJ9.wZwI0b8esLZaKdeeC_pIAh3y0Wh79MmcPDeMVAgiM-9BdkQ2-OXGaiZiHpptNIlTHJ9wlk8rdYuN3m1hBtOFovPdqtRTzswO0wTqhu2ku3SNbqjeI9lmXJWzqbNO5-jCR1-2XsdguvcPHYeZHjpMO0xGqUqIQsYDe2SlKe-OeI7dp_LgdMqY9fSQAokN7Z7EOjdA78WaVR1ihWDbum-T-jOZqajzQ4CIPCxgERCyq2M.eniLVxwgSKtGI5pPDMtJapA6WaYugSlakhiJJLX16PQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876008&amp;sr=8-91</t>
+          <t>https://www.amazon.com/-/es/RIANIFEL-Computadora-port%C3%A1til-pantalla-compatible/dp/B0D1VJV1TR/ref=sr_1_83?dib=eyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759359&amp;sr=8-83</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>HP Laptop ultraligera de 14 pulgadas para estudiantes y negocios, Intel Quad-Core N4120, 8 GB de RAM, 192 GB de almacenamiento (64 GB eMMC + 128 GB Ghost Manta SD), 1 año Office 365, cámara web, HDMI,</t>
+          <t>Computadora portátil Win 11, pantalla IPS FHD de 15.6 pulgadas 1920 x 1080, 16 GB de RAM / 512 GB SSD PC portátil con Intel Core i3-5005U, compatible con WiFi de 2.4G/5G Hz, RJ45, carga tipo</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>B0CJ4XMN32</t>
+          <t>B0D1VJV1TR</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>296.99</v>
+        <v>299</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5105,18 +5115,18 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Más opciones de compra</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H108" t="n">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81rXd6t7A+L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71AOfy1g3rL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5124,21 +5134,21 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-Port%C3%A1tiles-pulgadas-i5-1135G7-32GB-Computadoras/dp/B0DD6QSM7J/ref=sr_1_92?dib=eyJ2IjoiMSJ9.wZwI0b8esLZaKdeeC_pIAh3y0Wh79MmcPDeMVAgiM-9BdkQ2-OXGaiZiHpptNIlTHJ9wlk8rdYuN3m1hBtOFovPdqtRTzswO0wTqhu2ku3SNbqjeI9lmXJWzqbNO5-jCR1-2XsdguvcPHYeZHjpMO0xGqUqIQsYDe2SlKe-OeI7dp_LgdMqY9fSQAokN7Z7EOjdA78WaVR1ihWDbum-T-jOZqajzQ4CIPCxgERCyq2M.eniLVxwgSKtGI5pPDMtJapA6WaYugSlakhiJJLX16PQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876008&amp;sr=8-92</t>
+          <t>https://www.amazon.com/-/es/Port%C3%A1til-port%C3%A1tiles-pulgadas-procesador-Bluetooth/dp/B0D84FCVWV/ref=sr_1_84?dib=eyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759359&amp;sr=8-84</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>HP Portátiles de 14 pulgadas - Windows 11-8Core Intel i3-N305 Beat i5-1135G7-32GB RAM -1TB PCIE SSD - Laptop escolar para estudiantes - Batería de larga duración - Computadoras portátiles ultraligeras</t>
+          <t>SGIN Portátil de 4 GB DDR4 RAM 128 GB SSD, portátiles de 15.6 pulgadas, procesador Celeron Quad Core, gráficos UHD 600, WiFi, Bluetooth 4.2, USB 3.0, Mini HDMI, (Plata)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>B0DD6QSM7J</t>
+          <t>B0D84FCVWV</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>459.99</v>
+        <v>159.99</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5151,14 +5161,14 @@
         </is>
       </c>
       <c r="G109" t="n">
+        <v>5</v>
+      </c>
+      <c r="H109" t="n">
         <v>4</v>
       </c>
-      <c r="H109" t="n">
-        <v>74</v>
-      </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81kGQGqgcdL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71w4HJ7G+-L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5166,20 +5176,22 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Apple-Laptop-MacBook-2024-pulgadas/dp/B0CX23V2ZK/ref=sr_1_93?dib=eyJ2IjoiMSJ9.wZwI0b8esLZaKdeeC_pIAh3y0Wh79MmcPDeMVAgiM-9BdkQ2-OXGaiZiHpptNIlTHJ9wlk8rdYuN3m1hBtOFovPdqtRTzswO0wTqhu2ku3SNbqjeI9lmXJWzqbNO5-jCR1-2XsdguvcPHYeZHjpMO0xGqUqIQsYDe2SlKe-OeI7dp_LgdMqY9fSQAokN7Z7EOjdA78WaVR1ihWDbum-T-jOZqajzQ4CIPCxgERCyq2M.eniLVxwgSKtGI5pPDMtJapA6WaYugSlakhiJJLX16PQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876008&amp;sr=8-93</t>
+          <t>https://www.amazon.com/-/es/Port%C3%A1til-ultraligera-estudiantes-procesador-almacenamiento/dp/B0CX4YFK8S/ref=sr_1_85?dib=eyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759359&amp;sr=8-85</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Apple Laptop MacBook Air 2024 de 13 pulgadas con chip M3: diseñada para Apple Intelligence, pantalla de retina líquida de 13.6 pulgadas, memoria unificada de 8 GB, almacenamiento SSD de 256 GB,</t>
+          <t>HP Portátil de 14 pulgadas ultraligera para estudiantes y negocios, procesador Intel Celeron de cuatro núcleos, 8 GB de RAM, 192 GB de almacenamiento (128 GB eMMC + tarjeta SD Ghost Manta de 64 GB),</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>B0CX23V2ZK</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>B0CX4YFK8S</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>289</v>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -5187,41 +5199,41 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>10 K+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="H110" t="n">
-        <v>921</v>
+        <v>417</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71-D1xCuVwL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J110" t="n">
-        <v>10000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61IKSn0q9bL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/ApoloMedia-Computadora-port%C3%A1til-potencia-ampliable/dp/B0CTBBV61X/ref=sr_1_94?dib=eyJ2IjoiMSJ9.wZwI0b8esLZaKdeeC_pIAh3y0Wh79MmcPDeMVAgiM-9BdkQ2-OXGaiZiHpptNIlTHJ9wlk8rdYuN3m1hBtOFovPdqtRTzswO0wTqhu2ku3SNbqjeI9lmXJWzqbNO5-jCR1-2XsdguvcPHYeZHjpMO0xGqUqIQsYDe2SlKe-OeI7dp_LgdMqY9fSQAokN7Z7EOjdA78WaVR1ihWDbum-T-jOZqajzQ4CIPCxgERCyq2M.eniLVxwgSKtGI5pPDMtJapA6WaYugSlakhiJJLX16PQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876008&amp;sr=8-94</t>
+          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-pulgadas-procesador-generaci%C3%B3n/dp/B0CGRTXH96/ref=sr_1_86?dib=eyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759359&amp;sr=8-86</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Computadora portátil, 12 GB de RAM, 512 GB SSD de potencia infinita, ampliable a 1 TB, con IPS FHD FHD de 15.6 pulgadas (1920 x 1080), Intel N5095 (hasta 2.8 GHz), BT 4.2, WiFi</t>
+          <t>Computadora portátil de 16 pulgadas, portátil para juegos, 16 GB de RAM 512 GB SSD, procesador Intel N95 de 12ª generación (hasta 3.4 GHz), FHD 1920 x 1200, apertura de ángulo de 180,</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>B0CTBBV61X</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>B0CGRTXH96</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>349.99</v>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -5229,42 +5241,42 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>300+ comprados el mes pasado</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H111" t="n">
-        <v>61</v>
+        <v>527</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/612vEkXfMZL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71FVaZZV2TL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/computadora-escritorio-compatible-Optiplex-7010/dp/B07SQFGKDF/ref=sr_1_95?dib=eyJ2IjoiMSJ9.wZwI0b8esLZaKdeeC_pIAh3y0Wh79MmcPDeMVAgiM-9BdkQ2-OXGaiZiHpptNIlTHJ9wlk8rdYuN3m1hBtOFovPdqtRTzswO0wTqhu2ku3SNbqjeI9lmXJWzqbNO5-jCR1-2XsdguvcPHYeZHjpMO0xGqUqIQsYDe2SlKe-OeI7dp_LgdMqY9fSQAokN7Z7EOjdA78WaVR1ihWDbum-T-jOZqajzQ4CIPCxgERCyq2M.eniLVxwgSKtGI5pPDMtJapA6WaYugSlakhiJJLX16PQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876008&amp;sr=8-95</t>
+          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-pulgadas-ventilador-Bluetooth/dp/B0D3DSXQWB/ref=sr_1_87?dib=eyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759359&amp;sr=8-87</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Dell Paquete de computadora de escritorio compatible con Dell Optiplex 7010 Intel Quad Core i5 3.2GHz, 8 GB de RAM, disco duro de 500 GB, LCD de 19 pulgadas, DVD, WiFi, teclado, mouse, Windows 10 Pro</t>
+          <t>Computadora portátil, 14.1 pulgadas de doble núcleo Cerelon N4000 6GB RAM 128GB SSD portátil portátil, pantalla IPS de 1366 x 768 diseño sin ventilador, WiFi 2.4/5G, Bluetooth 5.0, USB 3.0, mini HDMI,</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>B07SQFGKDF</t>
+          <t>B0D3DSXQWB</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5273,42 +5285,42 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="H112" t="n">
-        <v>686</v>
+        <v>28</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71IrtnjZD2L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71powVGd88L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-Stream-pulgadas-almacenamiento-duraci%C3%B3n/dp/B0C49MTZCD/ref=sr_1_96?dib=eyJ2IjoiMSJ9.wZwI0b8esLZaKdeeC_pIAh3y0Wh79MmcPDeMVAgiM-9BdkQ2-OXGaiZiHpptNIlTHJ9wlk8rdYuN3m1hBtOFovPdqtRTzswO0wTqhu2ku3SNbqjeI9lmXJWzqbNO5-jCR1-2XsdguvcPHYeZHjpMO0xGqUqIQsYDe2SlKe-OeI7dp_LgdMqY9fSQAokN7Z7EOjdA78WaVR1ihWDbum-T-jOZqajzQ4CIPCxgERCyq2M.eniLVxwgSKtGI5pPDMtJapA6WaYugSlakhiJJLX16PQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876008&amp;sr=8-96</t>
+          <t>https://www.amazon.com/-/es/Computadora-escritorio-Optiplex-7060-generaci%C3%B3n/dp/B09XK94491/ref=sr_1_88?dib=eyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759359&amp;sr=8-88</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>HP Stream - Laptop HD delgada y ligera de 14 pulgadas, Intel Celeron N4120, 16 GB de RAM, 64 GB de almacenamiento eMMC, batería de larga duración, cámara web HD, HDMI, oro rosa, Office 365 1 año,</t>
+          <t>Dell Computadora de escritorio Optiplex 7060 SFF | Intel 8ª generación i7-8700 (6 núcleos) | 32GB DDR4 Ram 512GB NVMe M.2 SSD | WiFi y Bluetooth integrados | Windows 11 Pro | Teclado y mouse</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>B0C49MTZCD</t>
+          <t>B09XK94491</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>269.99</v>
+        <v>291.99</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5317,40 +5329,42 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Más opciones de compra</t>
+          <t>400+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="H113" t="n">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61rU-HP6S6L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/51C2PyriTCL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/INHONLAP-Computadora-port%C3%A1til-procesador-compatible/dp/B0D2T45CLG/ref=sr_1_97?dib=eyJ2IjoiMSJ9.wZwI0b8esLZaKdeeC_pIAh3y0Wh79MmcPDeMVAgiM-9BdkQ2-OXGaiZiHpptNIlTHJ9wlk8rdYuN3m1hBtOFovPdqtRTzswO0wTqhu2ku3SNbqjeI9lmXJWzqbNO5-jCR1-2XsdguvcPHYeZHjpMO0xGqUqIQsYDe2SlKe-OeI7dp_LgdMqY9fSQAokN7Z7EOjdA78WaVR1ihWDbum-T-jOZqajzQ4CIPCxgERCyq2M.eniLVxwgSKtGI5pPDMtJapA6WaYugSlakhiJJLX16PQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876008&amp;sr=8-97</t>
+          <t>https://www.amazon.com/-/es/Acer-Aspire-A314-36P-35UU-pantalla-procesador/dp/B0CBSZ9CCT/ref=sr_1_89?dib=eyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759359&amp;sr=8-89</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Computadora portátil, pantalla FHD IPS de 14 pulgadas, 8 GB de RAM 256 GB SSD, procesador N4000, portátil 11 Pro Ulrta Slim para escuela, compatible con WiFi 5, BT 5.1, cámara web, batería de</t>
+          <t>Acer Aspire 3 A314-36P-35UU - Laptop delgada, pantalla IPS Full HD de 14.0 pulgadas, procesador Intel Core i3-N305, gráficos Intel UHD, LPDDR5 de 8 GB, unidad de estado sólido SSD NVMe de 128 GB,</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>B0D2T45CLG</t>
+          <t>B0CBSZ9CCT</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>198.99</v>
+        <v>298</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5363,14 +5377,14 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="H114" t="n">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61xSQFY3zxL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71UFwaLEv-L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J114" t="n">
@@ -5380,21 +5394,21 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-pulgadas-procesador-pantalla/dp/B0D9XP3V4S/ref=sr_1_98?dib=eyJ2IjoiMSJ9.wZwI0b8esLZaKdeeC_pIAh3y0Wh79MmcPDeMVAgiM-9BdkQ2-OXGaiZiHpptNIlTHJ9wlk8rdYuN3m1hBtOFovPdqtRTzswO0wTqhu2ku3SNbqjeI9lmXJWzqbNO5-jCR1-2XsdguvcPHYeZHjpMO0xGqUqIQsYDe2SlKe-OeI7dp_LgdMqY9fSQAokN7Z7EOjdA78WaVR1ihWDbum-T-jOZqajzQ4CIPCxgERCyq2M.eniLVxwgSKtGI5pPDMtJapA6WaYugSlakhiJJLX16PQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876008&amp;sr=8-98</t>
+          <t>https://www.amazon.com/-/es/Computadora-sobremesa-Optiplex-7010-frecuencia/dp/B07RNMXDRF/ref=sr_1_90?dib=eyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759359&amp;sr=8-90</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Computadora portátil de 15.6 pulgadas, procesador N4000 con 8 GB de RAM, SSD de 256 GB, pantalla FHD 1920 x 1080 de 15.6 pulgadas, WIFI5, BT4.2, Windows 11 Pro</t>
+          <t>Dell Computadora de sobremesa Optiplex 7010, Intel Core i7 de hasta 3.8 GHz, frecuencia turbo máxima de 3.8 GHz, DDR3 de 16 GB, SSD de 1 TB, Windows 10 Pro de 64 bits, WiFi, USB 3.0, DVDRW, 2 puertos</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>B0D9XP3V4S</t>
+          <t>B07RNMXDRF</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>259.99</v>
+        <v>152.98</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5403,39 +5417,43 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Típico:</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="H115" t="n">
-        <v>39</v>
+        <v>2164</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81jwICXSZ5L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71MESvvVThL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4NDIzMDYwNTYxNTA1OTMzOjE3MjU4NzYwMDg6c3BfYnRmOjMwMDIzMDE5NDM5MTUwMjo6MDo6&amp;url=%2FLatitude-5550-Bluetooth-retroiluminado-dactilares%2Fdp%2FB0CYZMV26T%2Fref%3Dsr_1_99_sspa%3Fdib%3DeyJ2IjoiMSJ9.wZwI0b8esLZaKdeeC_pIAh3y0Wh79MmcPDeMVAgiM-9BdkQ2-OXGaiZiHpptNIlTHJ9wlk8rdYuN3m1hBtOFovPdqtRTzswO0wTqhu2ku3SNbqjeI9lmXJWzqbNO5-jCR1-2XsdguvcPHYeZHjpMO0xGqUqIQsYDe2SlKe-OeI7dp_LgdMqY9fSQAokN7Z7EOjdA78WaVR1ihWDbum-T-jOZqajzQ4CIPCxgERCyq2M.eniLVxwgSKtGI5pPDMtJapA6WaYugSlakhiJJLX16PQ%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725876008%26sr%3D8-99-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3OTI1ODI4NzA2NzgxNTgyOjE3MjY3NTkzNTk6c3BfbXRmOjMwMDI4Mzk2NTYyMzUwMjo6MDo6&amp;url=%2FComputadora-escritorio-OptiPlex-pulgadas-auriculares%2Fdp%2FB0BLQY6VF3%2Fref%3Dsr_1_91_sspa%3Fdib%3DeyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759359%26sr%3D8-91-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Dell Latitude 5550 15 15.6" FHD Business AI Computer, Intel Ultra 5 125U (Beat i7-1355U), 64GB DDR5 RAM, 1TB SSD, WiFi 6, Bluetooth 5.3, teclado retroiluminado, lector de huellas dactilares, Windows</t>
+          <t>Dell Computadora de escritorio RGB OptiPlex para juegos, Intel Core i7, AMD RX 550 4GB GDDR5, 16 GB de RAM, SSD de 512 GB, monitor HDMI de 24 pulgadas, teclado y auriculares RGB, WiFi, Windows 10 Pro</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>B0CYZMV26T</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+          <t>B0BLQY6VF3</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>313.99</v>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -5447,14 +5465,14 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H116" t="n">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/817MHeDkSFL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81XMjGoVtUL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5462,21 +5480,21 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4NDIzMDYwNTYxNTA1OTMzOjE3MjU4NzYwMDg6c3BfYnRmOjMwMDI0ODgwMTUxNzYwMjo6MDo6&amp;url=%2FWindows-puertos-Ethernet-Requiere-computadora%2Fdp%2FB091MMZMQW%2Fref%3Dsr_1_100_sspa%3Fdib%3DeyJ2IjoiMSJ9.wZwI0b8esLZaKdeeC_pIAh3y0Wh79MmcPDeMVAgiM-9BdkQ2-OXGaiZiHpptNIlTHJ9wlk8rdYuN3m1hBtOFovPdqtRTzswO0wTqhu2ku3SNbqjeI9lmXJWzqbNO5-jCR1-2XsdguvcPHYeZHjpMO0xGqUqIQsYDe2SlKe-OeI7dp_LgdMqY9fSQAokN7Z7EOjdA78WaVR1ihWDbum-T-jOZqajzQ4CIPCxgERCyq2M.eniLVxwgSKtGI5pPDMtJapA6WaYugSlakhiJJLX16PQ%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725876008%26sr%3D8-100-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3OTI1ODI4NzA2NzgxNTgyOjE3MjY3NTkzNTk6c3BfbXRmOjMwMDQxMzU5Mjg4NjEwMjo6MDo6&amp;url=%2FComputadora-port%25C3%25A1til-pantalla-procesador-almacenamiento%2Fdp%2FB0DD7L237D%2Fref%3Dsr_1_92_sspa%3Fdib%3DeyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759359%26sr%3D8-92-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Acer Base USB 3.0 U301 para Windows | 2 puertos HDMI | 2 puertos USB 3.1 Gen 1 | 4 puertos USB 2.0 | Gigabit Ethernet | Requiere un USB 3.1 tipo A o USB 3.1 Tipo-C en la computadora | Gris</t>
+          <t>jumper Computadora portátil, pantalla FHD de 16 pulgadas, procesador 5305U, 12 GB de RAM, 640 GB de almacenamiento (128 GB eMMC+512 GB SSD), 1 año de Office 365, WiFi, USB-A y C, sistema de</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>B091MMZMQW</t>
+          <t>B0DD7L237D</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>119.99</v>
+        <v>699.99</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5485,36 +5503,38 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H117" t="n">
-        <v>171</v>
+        <v>6</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41J-EVSOplL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71yVnwLcvZL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0NzY0MzgxNjIwODY0NTI6MTcyNTg3NjAyMDpzcF9hdGZfbmV4dDozMDAxMzkzODE3MjkzMDI6OjA6Og&amp;url=%2FElite-800-G9-computadora-empresarial%2Fdp%2FB0BHF564N7%2Fref%3Dsr_1_97_sspa%3Fdib%3DeyJ2IjoiMSJ9.x9NhGRwU-_6vBoIW2gAThcHZg2g2ip563AWP5Lczbn5r6eSrajwpgcGPOlQuVfuzmS9vyZ1MobpqQ9SBsfF9GM9Xaej_Tc_hFHhGkaUD3ghcwEeoY5W9lgTROnQNo8vFIEkezEsLaNY0ljg7Zxz2MZNLxqeHFM7532XYzzqPapxQJxnxiJ3Tgh1z77OJyLLM_tS0TJ3ZHXYBICXYlGBE3w04DZixw-u9sh8lv289enU.BnCn4hBxUPiNXwfhiBGER7JEVjZihCFzLwct7V4vZMQ%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725876020%26sr%3D8-97-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Apple-Chip-MacBook-Laptop-n%C3%BAcleos/dp/B0CM5JV26D/ref=sr_1_93?dib=eyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759359&amp;sr=8-93</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>VCI HP Elite 800 G9 SFF, Intel i7-13700 (16 núcleos, Beats Intel i9-12900), 32GB DDR5 RAM, 1TB SSD, Wi-Fi, Bluetooth, KB y mouse con cable, Win 11 Pro de 64 bits, computadora de escritorio empresarial</t>
+          <t>Apple Chip MacBook Pro Laptop M3 Pro 2023 con CPU de 11 núcleos, GPU de 14 núcleos: diseñada para Apple Intelligence, pantalla Liquid Retina XDR de 14.2 pulgadas, memoria unificada de 18 GB,</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>B0BHF564N7</t>
+          <t>B0CM5JV26D</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -5525,40 +5545,42 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Compra productos de marcas de pequeñas empresas que se venden en la plataforma Amazon. Descubre más sobre las pequeñas empresas que se asocian con Amazon y el compromiso de Amazon de empoderarlas.</t>
+          <t>3 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>554</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41fl7d1UMcL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61RJn0ofUsL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>3000</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0NzY0MzgxNjIwODY0NTI6MTcyNTg3NjAyMDpzcF9hdGZfbmV4dDozMDAzNTA3ODAxNzI2MDI6OjA6Og&amp;url=%2FFlipAction-port%25C3%25A1til-pulgadas-giratoria-protectora%2Fdp%2FB0D4MJ6DYT%2Fref%3Dsr_1_98_sspa%3Fdib%3DeyJ2IjoiMSJ9.x9NhGRwU-_6vBoIW2gAThcHZg2g2ip563AWP5Lczbn5r6eSrajwpgcGPOlQuVfuzmS9vyZ1MobpqQ9SBsfF9GM9Xaej_Tc_hFHhGkaUD3ghcwEeoY5W9lgTROnQNo8vFIEkezEsLaNY0ljg7Zxz2MZNLxqeHFM7532XYzzqPapxQJxnxiJ3Tgh1z77OJyLLM_tS0TJ3ZHXYBICXYlGBE3w04DZixw-u9sh8lv289enU.BnCn4hBxUPiNXwfhiBGER7JEVjZihCFzLwct7V4vZMQ%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725876020%26sr%3D8-98-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/HP-Stream-BrightView-procesador-almacenamiento/dp/B0CLGB6ZH8/ref=sr_1_94?dib=eyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759359&amp;sr=8-94</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SOTSU FlipAction Go Monitor portátil de 14 pulgadas, FHD 1080p, 400 nits, 99% sRGB, CNC de metal completo, peso ligero y delgado, con bisagra giratoria única y funda protectora, perfecto para nómadas</t>
+          <t>HP Stream - Laptop BrightView HD de 14 pulgadas, procesador Intel Celeron N4120, 8 GB de RAM, 64 GB de almacenamiento, gráficos Intel HD, cámara web, 1 año Office 365, rosa, Windows 11 S, tarjeta USB</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>B0D4MJ6DYT</t>
+          <t>B0CLGB6ZH8</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -5567,18 +5589,18 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="H119" t="n">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61lvSEffF3L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61PpSLdUnKL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5586,7 +5608,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-2022-Stream-BrightView-pulgadas/dp/B0BQ98FVP3/ref=sr_1_99?dib=eyJ2IjoiMSJ9.x9NhGRwU-_6vBoIW2gAThcHZg2g2ip563AWP5Lczbn5r6eSrajwpgcGPOlQuVfuzmS9vyZ1MobpqQ9SBsfF9GM9Xaej_Tc_hFHhGkaUD3ghcwEeoY5W9lgTROnQNo8vFIEkezEsLaNY0ljg7Zxz2MZNLxqeHFM7532XYzzqPapxQJxnxiJ3Tgh1z77OJyLLM_tS0TJ3ZHXYBICXYlGBE3w04DZixw-u9sh8lv289enU.BnCn4hBxUPiNXwfhiBGER7JEVjZihCFzLwct7V4vZMQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876020&amp;sr=8-99</t>
+          <t>https://www.amazon.com/-/es/HP-2022-Stream-BrightView-pulgadas/dp/B0BQ98FVP3/ref=sr_1_95?dib=eyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759359&amp;sr=8-95</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5616,7 +5638,7 @@
         <v>4</v>
       </c>
       <c r="H120" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -5628,21 +5650,21 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-BrightView-pulgadas-procesador-altavoces/dp/B0BKBHXC5S/ref=sr_1_100?dib=eyJ2IjoiMSJ9.x9NhGRwU-_6vBoIW2gAThcHZg2g2ip563AWP5Lczbn5r6eSrajwpgcGPOlQuVfuzmS9vyZ1MobpqQ9SBsfF9GM9Xaej_Tc_hFHhGkaUD3ghcwEeoY5W9lgTROnQNo8vFIEkezEsLaNY0ljg7Zxz2MZNLxqeHFM7532XYzzqPapxQJxnxiJ3Tgh1z77OJyLLM_tS0TJ3ZHXYBICXYlGBE3w04DZixw-u9sh8lv289enU.BnCn4hBxUPiNXwfhiBGER7JEVjZihCFzLwct7V4vZMQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876020&amp;sr=8-100</t>
+          <t>https://www.amazon.com/-/es/Samsung-Chromebook-Procesador-Graphics-pulgadas/dp/B08M2X68W5/ref=sr_1_96?dib=eyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759359&amp;sr=8-96</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>HP Laptop BrightView HD 2022 de 15.6 pulgadas, procesador Intel Pentium Silver N5030, 8 GB de RAM, SSD PCIe de 256 GB, gráficos Intel HD 605, cámara web HD 720p, altavoces estéreo, azul, Windows 11,</t>
+          <t>Samsung Chromebook 4 (modelo 2021) Procesador Intel UHD Graphics 600/Celeron de 11.6 pulgadas N4020, 4 GB, 32 GB, Wi-Fi - (XE310XBA-KA1US)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>B0BKBHXC5S</t>
+          <t>B08M2X68W5</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>369</v>
+        <v>226.99</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -5651,18 +5673,18 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>Más opciones de compra</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H121" t="n">
-        <v>186</v>
+        <v>2415</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61ofX67oNTL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61oJPm-sHsL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -5670,21 +5692,21 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Micr%C3%B3fono-condensador-computadora-profesional-transmisi%C3%B3n/dp/B0D6FK1383/ref=sr_1_101?dib=eyJ2IjoiMSJ9.x9NhGRwU-_6vBoIW2gAThcHZg2g2ip563AWP5Lczbn5r6eSrajwpgcGPOlQuVfuzmS9vyZ1MobpqQ9SBsfF9GM9Xaej_Tc_hFHhGkaUD3ghcwEeoY5W9lgTROnQNo8vFIEkezEsLaNY0ljg7Zxz2MZNLxqeHFM7532XYzzqPapxQJxnxiJ3Tgh1z77OJyLLM_tS0TJ3ZHXYBICXYlGBE3w04DZixw-u9sh8lv289enU.BnCn4hBxUPiNXwfhiBGER7JEVjZihCFzLwct7V4vZMQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876020&amp;sr=8-101</t>
+          <t>https://www.amazon.com/-/es/HP-Computadora-estudiantes-procesador-accesorios/dp/B0DB19J5GY/ref=sr_1_97?dib=eyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759359&amp;sr=8-97</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Micrófono USB, 192 kHz/24 bits, kit de micrófono cardioide de condensador de computadora profesional Plug &amp; Play con chipset avanzado de sonido, para transmisión, podcast, juegos de estudio y</t>
+          <t>HP Computadora portátil de 14 HD para estudiantes de negocios, procesador Intel Pentium N5030 de cuatro núcleos, 16 GB de RAM, SSD de 1 TB, HDMI, Win 11 S con accesorios GM, plata natural</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>B0D6FK1383</t>
+          <t>B0DB19J5GY</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>69.98999999999999</v>
+        <v>329.98</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5697,14 +5719,14 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71ozQwYwPQL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71nqr9Sbv5L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J122" t="n">
@@ -5714,21 +5736,21 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/antirreflejo-procesador-Quad-Core-almacenamiento-escarlata/dp/B0CP129FCR/ref=sr_1_102?dib=eyJ2IjoiMSJ9.x9NhGRwU-_6vBoIW2gAThcHZg2g2ip563AWP5Lczbn5r6eSrajwpgcGPOlQuVfuzmS9vyZ1MobpqQ9SBsfF9GM9Xaej_Tc_hFHhGkaUD3ghcwEeoY5W9lgTROnQNo8vFIEkezEsLaNY0ljg7Zxz2MZNLxqeHFM7532XYzzqPapxQJxnxiJ3Tgh1z77OJyLLM_tS0TJ3ZHXYBICXYlGBE3w04DZixw-u9sh8lv289enU.BnCn4hBxUPiNXwfhiBGER7JEVjZihCFzLwct7V4vZMQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876020&amp;sr=8-102</t>
+          <t>https://www.amazon.com/-/es/HP-14-port%C3%A1tiles-Micro-Edge-Microsoft/dp/B0CDLFV2WJ/ref=sr_1_98?dib=eyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759359&amp;sr=8-98</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>hp Laptop HD antirreflejo de 15.6", procesador Intel Quad-Core, 16 GB de RAM, 128 GB SSD+ 128 GB de almacenamiento USB JVQ, Office 365 1 año, hasta 11 horas de batería larga, Win11 S, rojo escarlata</t>
+          <t>HP 14 portátiles (14 pulgadas Micro-Edge, Intel N4120, 16 GB de RAM, 192 GB (64 GB eMMC+128 GB SD), Microsoft 365 de 1 año, batería de 11 horas, bisel estrecho, cámara web, WiFi, Win 11 Home en modo</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>B0CP129FCR</t>
+          <t>B0CDLFV2WJ</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>359.95</v>
+        <v>279.98</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5741,14 +5763,14 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H123" t="n">
-        <v>458</v>
+        <v>69</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71FgRLpzwhL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61f2UX3wIzL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J123" t="n">
@@ -5758,22 +5780,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Proyector-proyector-actualizado-compatible-Smartphone/dp/B07MTCMHZX/ref=sr_1_103?dib=eyJ2IjoiMSJ9.x9NhGRwU-_6vBoIW2gAThcHZg2g2ip563AWP5Lczbn5r6eSrajwpgcGPOlQuVfuzmS9vyZ1MobpqQ9SBsfF9GM9Xaej_Tc_hFHhGkaUD3ghcwEeoY5W9lgTROnQNo8vFIEkezEsLaNY0ljg7Zxz2MZNLxqeHFM7532XYzzqPapxQJxnxiJ3Tgh1z77OJyLLM_tS0TJ3ZHXYBICXYlGBE3w04DZixw-u9sh8lv289enU.BnCn4hBxUPiNXwfhiBGER7JEVjZihCFzLwct7V4vZMQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876020&amp;sr=8-103</t>
+          <t>https://www.amazon.com/-/es/Computadora-procesador-suscripci%C3%B3n-computadora-altavoces/dp/B0D9VH2TC9/ref=sr_1_99?dib=eyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759359&amp;sr=8-99</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>AuKing Proyector, mini proyector actualizado 2024, proyector de video de cine en casa Full HD 1080P, compatible con HDMI/USB/VGA/AV/Smartphone/TV Box/portátil</t>
+          <t>jumper Computadora portátil, pantalla FHD IPS 1200p de 16 pulgadas, procesador 5305U, 4 GB RAM 128 GB SSD, suscripción a Office 365 1 año, computadora con teclado numérico, altavoces estéreo, HDMI,</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>B07MTCMHZX</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>89.98999999999999</v>
-      </c>
+          <t>B0D9VH2TC9</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -5781,42 +5801,42 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>3 K+ comprados el mes pasado</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H124" t="n">
-        <v>13578</v>
+        <v>9</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61+CDKTXYgL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71Vwv5YkXGL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>3000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Port%C3%A1til-ultradelgado-Vivobook-pulgadas-L210MA-DS02/dp/B09QF58J7T/ref=sr_1_104?dib=eyJ2IjoiMSJ9.x9NhGRwU-_6vBoIW2gAThcHZg2g2ip563AWP5Lczbn5r6eSrajwpgcGPOlQuVfuzmS9vyZ1MobpqQ9SBsfF9GM9Xaej_Tc_hFHhGkaUD3ghcwEeoY5W9lgTROnQNo8vFIEkezEsLaNY0ljg7Zxz2MZNLxqeHFM7532XYzzqPapxQJxnxiJ3Tgh1z77OJyLLM_tS0TJ3ZHXYBICXYlGBE3w04DZixw-u9sh8lv289enU.BnCn4hBxUPiNXwfhiBGER7JEVjZihCFzLwct7V4vZMQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876020&amp;sr=8-104</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3OTI1ODI4NzA2NzgxNTgyOjE3MjY3NTkzNTk6c3BfYnRmOjIwMDA0Nzc2OTQ5MjY5ODo6MDo6&amp;url=%2Findustrial-Quad-Core-computadora-escritorio-Ethernet%2Fdp%2FB09MHPCF67%2Fref%3Dsr_1_101_sspa%3Fdib%3DeyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759359%26sr%3D8-101-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ASUS Portátil ultradelgado Vivobook Go 12 L210 de 11.6 pulgadas, versión 2022, Intel Celeron N4020, 4 GB de RAM, 64 GB eMMC, Win 11 Home en modo S con un año de Office 365 Personal, L210MA-DS02</t>
+          <t>Mini PC industrial, Windows 10 Pro 8GB DDR4 RAM 256GB SSD, Quad-Core Celeron J4125, 4K HD Mini computadora de escritorio, Micro PC, HD/VGA/2 RJ45 Gigabit Ethernet/Dual Band Wi-Fi/BT 4.0/2RS232 Com</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>B09QF58J7T</t>
+          <t>B09MHPCF67</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5825,18 +5845,18 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H125" t="n">
-        <v>663</v>
+        <v>10</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/810BY5U9baL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61V8cWiWLLL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -5844,21 +5864,21 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-Computadora-estudiantes-procesador-accesorios/dp/B0DB19J5GY/ref=sr_1_105?dib=eyJ2IjoiMSJ9.x9NhGRwU-_6vBoIW2gAThcHZg2g2ip563AWP5Lczbn5r6eSrajwpgcGPOlQuVfuzmS9vyZ1MobpqQ9SBsfF9GM9Xaej_Tc_hFHhGkaUD3ghcwEeoY5W9lgTROnQNo8vFIEkezEsLaNY0ljg7Zxz2MZNLxqeHFM7532XYzzqPapxQJxnxiJ3Tgh1z77OJyLLM_tS0TJ3ZHXYBICXYlGBE3w04DZixw-u9sh8lv289enU.BnCn4hBxUPiNXwfhiBGER7JEVjZihCFzLwct7V4vZMQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876020&amp;sr=8-105</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3OTI1ODI4NzA2NzgxNTgyOjE3MjY3NTkzNTk6c3BfYnRmOjIwMDA0Nzc2OTQ5Mjg5ODo6MDo6&amp;url=%2Fventilador-computadora-escritorio-trabajar-se%25C3%25B1alizaci%25C3%25B3n%2Fdp%2FB09MHSCZ37%2Fref%3Dsr_1_102_sspa%3Fdib%3DeyJ2IjoiMSJ9.rVsBpVbXgq1qRVhwL-352Q57qyqvusqfy30gbR98vvwsKwJ35Wh6TjorKKhwaMKdts-yjnj8fwhyfy29uwFF2O5v-zD4FxxjQCfgHMDvMD710rRPj2pm78Jw9N2n-XCpqeHUsjsyGBClfH-UwMocgJxHHLEwhNFAAgKaXvEElQP8ozIxjXqNhcQ0FogY5GgxvdRSeop0w38GbqHwDgFMHUYy66Q_2ngqkqkhMKMZ9bc.K0WFaHHf4UBavvDpnZ7kIyxfPYYdwcry-CLbJgr8LRg%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759359%26sr%3D8-102-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>HP Computadora portátil de 14 HD para estudiantes de negocios, procesador Intel Pentium N5030 de cuatro núcleos, 16 GB de RAM, SSD de 1 TB, HDMI, Win 11 S con accesorios GM</t>
+          <t>WEIDIAN PC sin ventilador Dual NIC, mini computadora de escritorio con Windows 10 Pro 16 GB DDR4 256 GB SSD PC de escritorio pequeña para trabajar desde el hogar/oficina/señalización</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>B0DB19J5GY</t>
+          <t>B09MHSCZ37</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>369.98</v>
+        <v>354</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5867,41 +5887,41 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H126" t="n">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71nqr9Sbv5L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J126" t="n">
-        <v>100</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61nh0JDj+YL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-procesador-seguridad-NP940XGK-KG1US/dp/B0CQ3RRS23/ref=sr_1_106?dib=eyJ2IjoiMSJ9.x9NhGRwU-_6vBoIW2gAThcHZg2g2ip563AWP5Lczbn5r6eSrajwpgcGPOlQuVfuzmS9vyZ1MobpqQ9SBsfF9GM9Xaej_Tc_hFHhGkaUD3ghcwEeoY5W9lgTROnQNo8vFIEkezEsLaNY0ljg7Zxz2MZNLxqeHFM7532XYzzqPapxQJxnxiJ3Tgh1z77OJyLLM_tS0TJ3ZHXYBICXYlGBE3w04DZixw-u9sh8lv289enU.BnCn4hBxUPiNXwfhiBGER7JEVjZihCFzLwct7V4vZMQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876020&amp;sr=8-106</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo2Njc2NTk5ODA3NDMxNTAxOjE3MjY3NTkzNzA6c3BfYXRmX25leHQ6MjAwMDg2NjM4NTM5Njk4OjowOjo&amp;url=%2Funidades-cubierta-dispositivos-privacidad-proteger%2Fdp%2FB0B914LVBD%2Fref%3Dsr_1_97_sspa%3Fdib%3DeyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759370%26sr%3D8-97-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SAMSUNG Computadora portátil Galaxy Book4 Pro de 14 pulgadas, procesador Intel Core 7 Ultra de 512 GB, pantalla táctil AMOLED 3K (2880 x 1800), seguridad avanzada, modelo 2024, NP940XGK-KG1US, gris</t>
+          <t>Funda para cámara de laptop, 6 unidades, cubierta para cámara web para MacBook Pro, iMac, iPad Pro, iPhone, iPad, laptop y más dispositivos, funda de privacidad con bonito patrón para proteger</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>B0CQ3RRS23</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+          <t>B0B914LVBD</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>6.91</v>
+      </c>
       <c r="E127" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -5913,14 +5933,14 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H127" t="n">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/6131ZgIFn1L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/618SbNX0ptL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J127" t="n">
@@ -5930,21 +5950,21 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Lenovo-ThinkCentre-M920s-10SJ003WUS-Computadora/dp/B08YKBKDKK/ref=sr_1_107?dib=eyJ2IjoiMSJ9.x9NhGRwU-_6vBoIW2gAThcHZg2g2ip563AWP5Lczbn5r6eSrajwpgcGPOlQuVfuzmS9vyZ1MobpqQ9SBsfF9GM9Xaej_Tc_hFHhGkaUD3ghcwEeoY5W9lgTROnQNo8vFIEkezEsLaNY0ljg7Zxz2MZNLxqeHFM7532XYzzqPapxQJxnxiJ3Tgh1z77OJyLLM_tS0TJ3ZHXYBICXYlGBE3w04DZixw-u9sh8lv289enU.BnCn4hBxUPiNXwfhiBGER7JEVjZihCFzLwct7V4vZMQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876020&amp;sr=8-107</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo2Njc2NTk5ODA3NDMxNTAxOjE3MjY3NTkzNzA6c3BfYXRmX25leHQ6MzAwMzIzMzUzODAwODAyOjowOjo&amp;url=%2FYQ10SMAX%2Fdp%2FB0C9WFNSLL%2Fref%3Dsr_1_98_sspa%3Fdib%3DeyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759370%26sr%3D8-98-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Lenovo ThinkCentre M920s 10SJ003WUS - Computadora de escritorio Core i5 i5-8500 - 16 GB RAM - SSD de 256 GB - Factor de forma pequeño (renovado)</t>
+          <t>YQSAVIOR Android 13 Tablets 10 Inch, 12GB+128GB ROM+1TB Expand, 2 in 1 Computer Tablet with Keyboard, IPS HD Screen, 6000mAh, 2.4G/5G/WiFi 6 BT 5.0 Tablets Clearance 2024, Mouse, Black</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>B08YKBKDKK</t>
+          <t>B0C9WFNSLL</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>166.35</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5953,18 +5973,18 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Más opciones de compra</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="H128" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51C-C40D1XL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71kzSNOsj0L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -5972,21 +5992,21 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-computadora-pulgadas-procesador/dp/B0CZDTN2JK/ref=sr_1_108?dib=eyJ2IjoiMSJ9.x9NhGRwU-_6vBoIW2gAThcHZg2g2ip563AWP5Lczbn5r6eSrajwpgcGPOlQuVfuzmS9vyZ1MobpqQ9SBsfF9GM9Xaej_Tc_hFHhGkaUD3ghcwEeoY5W9lgTROnQNo8vFIEkezEsLaNY0ljg7Zxz2MZNLxqeHFM7532XYzzqPapxQJxnxiJ3Tgh1z77OJyLLM_tS0TJ3ZHXYBICXYlGBE3w04DZixw-u9sh8lv289enU.BnCn4hBxUPiNXwfhiBGER7JEVjZihCFzLwct7V4vZMQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876020&amp;sr=8-108</t>
+          <t>https://www.amazon.com/-/es/HP-Computadora-estudiantes-procesador-accesorios/dp/B0DB19J5GY/ref=sr_1_99?dib=eyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759370&amp;sr=8-99</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Computadora portátil 2024, computadora portátil de 14.1 pulgadas con procesador Intel N4000, 8 GB DDR4 RAM / 256 GB SSD, pantalla FHD de 1080P, WiFi de doble banda, BT, puerto Ethernet para escuela,</t>
+          <t>HP Computadora portátil de 14 HD para estudiantes de negocios, procesador Intel Pentium N5030 de cuatro núcleos, 16 GB de RAM, SSD de 1 TB, HDMI, Win 11 S con accesorios GM, plata natural</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>B0CZDTN2JK</t>
+          <t>B0DB19J5GY</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>199</v>
+        <v>329.98</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5995,42 +6015,42 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61l0W917haL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71nqr9Sbv5L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-procesador-retroiluminado-desbloqueo/dp/B0D5D7S4LB/ref=sr_1_109?dib=eyJ2IjoiMSJ9.x9NhGRwU-_6vBoIW2gAThcHZg2g2ip563AWP5Lczbn5r6eSrajwpgcGPOlQuVfuzmS9vyZ1MobpqQ9SBsfF9GM9Xaej_Tc_hFHhGkaUD3ghcwEeoY5W9lgTROnQNo8vFIEkezEsLaNY0ljg7Zxz2MZNLxqeHFM7532XYzzqPapxQJxnxiJ3Tgh1z77OJyLLM_tS0TJ3ZHXYBICXYlGBE3w04DZixw-u9sh8lv289enU.BnCn4hBxUPiNXwfhiBGER7JEVjZihCFzLwct7V4vZMQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876020&amp;sr=8-109</t>
+          <t>https://www.amazon.com/-/es/HP-Computadora-2024-15-6-almacenamiento/dp/B0DBD4QQD5/ref=sr_1_100?dib=eyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759370&amp;sr=8-100</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Computadora portátil de 16 pulgadas, portátil para juegos, 16 GB de RAM 512 GB SSD, procesador N95, FHD 1920 x 1200, ángulo de 180 abierto, teclado retroiluminado, Windows 11 Pro, desbloqueo de</t>
+          <t>HP Computadora portátil 2024, pantalla HD de 15.6", procesador Intel de cuatro núcleos N200, 16 GB de RAM, 384 GB de almacenamiento (128 GB UFS + tarjeta de 256 GB), Wi-Fi 6, 1 año MS Office 365,</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>B0D5D7S4LB</t>
+          <t>B0DBD4QQD5</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>359.99</v>
+        <v>379</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6039,42 +6059,40 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H130" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81KSbwDiJrL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J130" t="n">
-        <v>100</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61JRzfzrNIL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-escritorio-OptiPlex-monitor-pulgadas/dp/B0BKZTSKKR/ref=sr_1_110?dib=eyJ2IjoiMSJ9.x9NhGRwU-_6vBoIW2gAThcHZg2g2ip563AWP5Lczbn5r6eSrajwpgcGPOlQuVfuzmS9vyZ1MobpqQ9SBsfF9GM9Xaej_Tc_hFHhGkaUD3ghcwEeoY5W9lgTROnQNo8vFIEkezEsLaNY0ljg7Zxz2MZNLxqeHFM7532XYzzqPapxQJxnxiJ3Tgh1z77OJyLLM_tS0TJ3ZHXYBICXYlGBE3w04DZixw-u9sh8lv289enU.BnCn4hBxUPiNXwfhiBGER7JEVjZihCFzLwct7V4vZMQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876020&amp;sr=8-110</t>
+          <t>https://www.amazon.com/-/es/ApoloSign-port%C3%A1til-ampliable-computadora-rendimiento/dp/B0D3TF989H/ref=sr_1_101?dib=eyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759370&amp;sr=8-101</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Dell Computadora de escritorio OptiPlex RGB, Intel Core i7 de hasta 3.8 GHz, 16 G RAM, SSD de 512 G, nuevo monitor LED FHD de 22 pulgadas, teclado y mouse RGB, barra de sonido RGB BT, cámara web,</t>
+          <t>ApoloSign 12 GB de RAM, portátil SSD de 512 GB, ampliable de 1 TB, con computadora portátil Intel N5095 de alto rendimiento y pantalla Full HD de 15.6 pulgadas, WiFi de doble banda, ángulo abierto de</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>B0BKZTSKKR</t>
+          <t>B0D3TF989H</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>258.29</v>
+        <v>558.99</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -6083,38 +6101,38 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="H131" t="n">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/91mOKHYSs9L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/717pbhcOBWL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Chromebook-pulgadas-port%C3%A1til-Celeron-14A-NA0050NR/dp/B08529CQPK/ref=sr_1_111?dib=eyJ2IjoiMSJ9.x9NhGRwU-_6vBoIW2gAThcHZg2g2ip563AWP5Lczbn5r6eSrajwpgcGPOlQuVfuzmS9vyZ1MobpqQ9SBsfF9GM9Xaej_Tc_hFHhGkaUD3ghcwEeoY5W9lgTROnQNo8vFIEkezEsLaNY0ljg7Zxz2MZNLxqeHFM7532XYzzqPapxQJxnxiJ3Tgh1z77OJyLLM_tS0TJ3ZHXYBICXYlGBE3w04DZixw-u9sh8lv289enU.BnCn4hBxUPiNXwfhiBGER7JEVjZihCFzLwct7V4vZMQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876020&amp;sr=8-111</t>
+          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-procesador-seguridad-NP960XGK-KG1US/dp/B0CQ3VXJ3J/ref=sr_1_103?dib=eyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759370&amp;sr=8-103</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>HP Chromebook 14 pulgadas FHD portátil, Intel Celeron N4000, 4 GB RAM, 32 GB EMMC, Chrome (14A-NA0050NR, plata mineral)</t>
+          <t>SAMSUNG Computadora portátil Galaxy Book4 Pro de 16 pulgadas, procesador Intel Core 7 Ultra de 1 TB, pantalla táctil AMOLED 3K (2880 x 1800), seguridad avanzada, modelo 2024, NP960XGK-KG1US, gris</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>B08529CQPK</t>
+          <t>B0CQ3VXJ3J</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -6125,39 +6143,43 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>No hay ofertas destacadas disponibles</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G132" t="n">
         <v>4.5</v>
       </c>
       <c r="H132" t="n">
-        <v>6370</v>
+        <v>43</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/91shKLxoedL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71ysHVMH4FL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Dell-Latitude-5440-Computadora-generaci%C3%B3n/dp/B09V6KVZSQ/ref=sr_1_112?dib=eyJ2IjoiMSJ9.x9NhGRwU-_6vBoIW2gAThcHZg2g2ip563AWP5Lczbn5r6eSrajwpgcGPOlQuVfuzmS9vyZ1MobpqQ9SBsfF9GM9Xaej_Tc_hFHhGkaUD3ghcwEeoY5W9lgTROnQNo8vFIEkezEsLaNY0ljg7Zxz2MZNLxqeHFM7532XYzzqPapxQJxnxiJ3Tgh1z77OJyLLM_tS0TJ3ZHXYBICXYlGBE3w04DZixw-u9sh8lv289enU.BnCn4hBxUPiNXwfhiBGER7JEVjZihCFzLwct7V4vZMQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876020&amp;sr=8-112</t>
+          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-pantalla-suscripci%C3%B3n-computadora/dp/B0D21LH2SK/ref=sr_1_104?dib=eyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759370&amp;sr=8-104</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Dell Latitude 5440 - Computadora portátil de 14 pulgadas, Full HD, 1920 x 1080, Intel Core i7 de 13ª generación i7-1355U Deca-core (10 Core), 16 GB de RAM total, 512 GB SSD, color gris Titan</t>
+          <t>Jumper Computadora portátil, pantalla FHD IPS 1200p de 16 pulgadas, CPU de cuatro núcleos, 4 GB LPDDR4 RAM 128 GB ROM, suscripción a Office 365 1 año, computadora Windows 11 con teclado numérico, 4</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>B09V6KVZSQ</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+          <t>B0D21LH2SK</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>399.88</v>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -6165,40 +6187,42 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>No hay ofertas destacadas disponibles</t>
+          <t>400+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/615U8drddGL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/81Dr+87AZGL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Port%C3%A1til-ultraligera-estudiantes-procesador-almacenamiento/dp/B0CX4YFK8S/ref=sr_1_113?dib=eyJ2IjoiMSJ9.x9NhGRwU-_6vBoIW2gAThcHZg2g2ip563AWP5Lczbn5r6eSrajwpgcGPOlQuVfuzmS9vyZ1MobpqQ9SBsfF9GM9Xaej_Tc_hFHhGkaUD3ghcwEeoY5W9lgTROnQNo8vFIEkezEsLaNY0ljg7Zxz2MZNLxqeHFM7532XYzzqPapxQJxnxiJ3Tgh1z77OJyLLM_tS0TJ3ZHXYBICXYlGBE3w04DZixw-u9sh8lv289enU.BnCn4hBxUPiNXwfhiBGER7JEVjZihCFzLwct7V4vZMQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876020&amp;sr=8-113</t>
+          <t>https://www.amazon.com/-/es/HP-Stream-pulgadas-almacenamiento-duraci%C3%B3n/dp/B0C49MTZCD/ref=sr_1_105?dib=eyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759370&amp;sr=8-105</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>HP Portátil de 14 pulgadas ultraligera para estudiantes y negocios, procesador Intel Celeron de cuatro núcleos, 8 GB de RAM, 192 GB de almacenamiento (128 GB eMMC + tarjeta SD Ghost Manta de 64 GB),</t>
+          <t>HP Stream - Laptop HD delgada y ligera de 14 pulgadas, Intel Celeron N4120, 16 GB de RAM, 64 GB de almacenamiento eMMC, batería de larga duración, cámara web HD, HDMI, oro rosa, Office 365 1 año,</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>B0CX4YFK8S</t>
+          <t>B0C49MTZCD</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>289</v>
+        <v>269.99</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6207,18 +6231,18 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>Más opciones de compra</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H134" t="n">
-        <v>408</v>
+        <v>129</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61IKSn0q9bL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61rU-HP6S6L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6226,20 +6250,22 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0NzY0MzgxNjIwODY0NTI6MTcyNTg3NjAyMDpzcF9idGY6MzAwMTk0MjQxNTI1MzAyOjowOjo&amp;url=%2FLatitude-5550-Bluetooth-retroiluminado-dactilares%2Fdp%2FB0CRVF7M7K%2Fref%3Dsr_1_115_sspa%3Fdib%3DeyJ2IjoiMSJ9.x9NhGRwU-_6vBoIW2gAThcHZg2g2ip563AWP5Lczbn5r6eSrajwpgcGPOlQuVfuzmS9vyZ1MobpqQ9SBsfF9GM9Xaej_Tc_hFHhGkaUD3ghcwEeoY5W9lgTROnQNo8vFIEkezEsLaNY0ljg7Zxz2MZNLxqeHFM7532XYzzqPapxQJxnxiJ3Tgh1z77OJyLLM_tS0TJ3ZHXYBICXYlGBE3w04DZixw-u9sh8lv289enU.BnCn4hBxUPiNXwfhiBGER7JEVjZihCFzLwct7V4vZMQ%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725876020%26sr%3D8-115-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1%26smid%3DA16GF9XHNIR83K</t>
+          <t>https://www.amazon.com/-/es/Lenovo-Ideapad-2024-Premium-pantalla/dp/B0CR8XGCVZ/ref=sr_1_106?dib=eyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759370&amp;sr=8-106</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Dell Latitude 5550 15 15.6" FHD Business AI Computer, Intel Ultra 5 125U (Beat i7-1355U), 16 GB DDR5 RAM, 1 TB SSD, WiFi 6, Bluetooth 5.3, teclado retroiluminado, lector de huellas dactilares, Windows</t>
+          <t>Lenovo Ideapad Laptop 2024 Premium, pantalla HD de 14 pulgadas, luz delgada, Intel Celeron N4020 (hasta 2.8 GHZ), 4 GB de RAM, 256 GB (128 GB eMMC+ tarjeta de 128 GB), WiFi, cámara web, batería de más</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>B0CRVF7M7K</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+          <t>B0CR8XGCVZ</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>219</v>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -6247,18 +6273,18 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>Más opciones de compra</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="H135" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/817MHeDkSFL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81QQP7O9kFL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -6266,22 +6292,20 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0NzY0MzgxNjIwODY0NTI6MTcyNTg3NjAyMDpzcF9idGY6MzAwMzI4NTc5NDAwMDAyOjowOjo&amp;url=%2Fempresarial-V15-reciente-procesador-durabilidad%2Fdp%2FB0D8CZ6JXZ%2Fref%3Dsr_1_116_sspa%3Fdib%3DeyJ2IjoiMSJ9.x9NhGRwU-_6vBoIW2gAThcHZg2g2ip563AWP5Lczbn5r6eSrajwpgcGPOlQuVfuzmS9vyZ1MobpqQ9SBsfF9GM9Xaej_Tc_hFHhGkaUD3ghcwEeoY5W9lgTROnQNo8vFIEkezEsLaNY0ljg7Zxz2MZNLxqeHFM7532XYzzqPapxQJxnxiJ3Tgh1z77OJyLLM_tS0TJ3ZHXYBICXYlGBE3w04DZixw-u9sh8lv289enU.BnCn4hBxUPiNXwfhiBGER7JEVjZihCFzLwct7V4vZMQ%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725876020%26sr%3D8-116-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo2Njc2NTk5ODA3NDMxNTAxOjE3MjY3NTkzNzA6c3BfbXRmOjMwMDIzMDE5NDM5MTUwMjo6MDo6&amp;url=%2FLatitude-5550-Bluetooth-retroiluminado-dactilares%2Fdp%2FB0CYZMV26T%2Fref%3Dsr_1_107_sspa%3Fdib%3DeyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759370%26sr%3D8-107-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Lenovo Laptop empresarial V15 más reciente, procesador Intel de 4 núcleos, FHD de 15.6 pulgadas (1920 x 1080), 32 GB de RAM, SSD de 1 TB, Ethernet RJ-45, durabilidad militar, Windows 11 Pro, con</t>
+          <t>Dell Latitude 5550 15 15.6" FHD Business AI Computer, Intel Ultra 5 125U (Beat i7-1355U), 64GB DDR5 RAM, 1TB SSD, WiFi 6, Bluetooth 5.3, teclado retroiluminado, lector de huellas dactilares, Windows</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>B0D8CZ6JXZ</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>549</v>
-      </c>
+          <t>B0CYZMV26T</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -6289,43 +6313,39 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>500+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="H136" t="n">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71TbFwmoB9L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J136" t="n">
-        <v>500</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/817MHeDkSFL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MDY0Nzg4NTY2NzI3MTA4OjE3MjU4NzYwMzA6c3BfYXRmX25leHQ6MjAwMDI4MzM5ODM3NjQxOjowOjo&amp;url=%2Fcertificado-seguridad-computadora-Chromebook-alimentaci%25C3%25B3n%2Fdp%2FB088T52KZD%2Fref%3Dsr_1_113_sspa%3Fdib%3DeyJ2IjoiMSJ9.jzC1HCqkMn9Rcbu0ajcyk2IW43UYOA41RQwP1gFJUGQ0CsAj-F6mjOofBOMem8R5tkTdA4QujkvdtsClpKL-ANfLebQgHA8Yx0R1zCsuOgFlbQnxeo96CmjO325-umBlFoPXAuaz_4llZFfEUjGj2Bx53GUvw34-8mNIhxWIw9iQFQnVx9or3mUKgPNEn1rQ1Ve5DrnZQ5GiDIvXyc3wwkAHsQlvegp2zTrjC-B76x0.eZj8MNU7of_kP1WB4DMUoqhl0y6yL2Iq-3u_oH4QhCA%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725876030%26sr%3D8-113-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo2Njc2NTk5ODA3NDMxNTAxOjE3MjY3NTkzNzA6c3BfbXRmOjMwMDEyMzQxNTg4MTYwMjo6MDo6&amp;url=%2F650-G10-Computadora-generaci%25C3%25B3n-retroiluminado%2Fdp%2FB0CQYFNV86%2Fref%3Dsr_1_108_sspa%3Fdib%3DeyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759370%26sr%3D8-108-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Cargador para portátil Lenovo [certificado de seguridad UL] Thinkpad, yoga, computadora Chromebook 65 W 45 W USB C adaptador de alimentación rápida</t>
+          <t>HP Elitebook 650 G10 Computadora portátil de negocios FHD de 15.6 pulgadas, Intel 10-Core i7-1355U de 13ª generación, 64 GB DDR4 RAM, 2 TB PCIe SSD, WiFi 6E, BT 5.3, KB retroiluminado, lector de</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>B088T52KZD</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>15.99</v>
-      </c>
+          <t>B0CQYFNV86</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -6333,42 +6353,40 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>4 K+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G137" t="n">
         <v>4.3</v>
       </c>
       <c r="H137" t="n">
-        <v>2590</v>
+        <v>12</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71b6X+LJeaL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J137" t="n">
-        <v>4000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71w16t3zfRL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MDY0Nzg4NTY2NzI3MTA4OjE3MjU4NzYwMzA6c3BfYXRmX25leHQ6MzAwMzUwMTYwNDA0NjAyOjowOjo&amp;url=%2FCargador-Mac-Book-Pro-dispositivos%2Fdp%2FB08RYXFQDT%2Fref%3Dsr_1_114_sspa%3Fdib%3DeyJ2IjoiMSJ9.jzC1HCqkMn9Rcbu0ajcyk2IW43UYOA41RQwP1gFJUGQ0CsAj-F6mjOofBOMem8R5tkTdA4QujkvdtsClpKL-ANfLebQgHA8Yx0R1zCsuOgFlbQnxeo96CmjO325-umBlFoPXAuaz_4llZFfEUjGj2Bx53GUvw34-8mNIhxWIw9iQFQnVx9or3mUKgPNEn1rQ1Ve5DrnZQ5GiDIvXyc3wwkAHsQlvegp2zTrjC-B76x0.eZj8MNU7of_kP1WB4DMUoqhl0y6yL2Iq-3u_oH4QhCA%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725876030%26sr%3D8-114-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Optiplex-3060-i3-8100T-Win11Pro-renovado/dp/B0BTTZ4KBW/ref=sr_1_109?dib=eyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759370&amp;sr=8-109</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Cargador Mac Book Pro - Cargador USB C de 96 W para puerto USB C, MacBook Pro y MacBook Air, iPad Pro, Samsung Galaxy y todos los dispositivos USB C, cable USB C a USB C de 6.6 pies incluido</t>
+          <t>Dell Micro PC Optiplex 3060, Intel Core i3-8100T, RAM DDR4 de 16 GB, SSD NVMe de 256 GB, Win11Pro (renovado)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>B08RYXFQDT</t>
+          <t>B0BTTZ4KBW</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>23.99</v>
+        <v>132</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -6377,42 +6395,42 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>3 K+ comprados el mes pasado</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H138" t="n">
-        <v>1807</v>
+        <v>171</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51FOIStLKzL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/31TVEiQfoML._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>3000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-Laptop-14-pulgadas-estudiantes/dp/B0CVGYN75Y/ref=sr_1_115?dib=eyJ2IjoiMSJ9.jzC1HCqkMn9Rcbu0ajcyk2IW43UYOA41RQwP1gFJUGQ0CsAj-F6mjOofBOMem8R5tkTdA4QujkvdtsClpKL-ANfLebQgHA8Yx0R1zCsuOgFlbQnxeo96CmjO325-umBlFoPXAuaz_4llZFfEUjGj2Bx53GUvw34-8mNIhxWIw9iQFQnVx9or3mUKgPNEn1rQ1Ve5DrnZQ5GiDIvXyc3wwkAHsQlvegp2zTrjC-B76x0.eZj8MNU7of_kP1WB4DMUoqhl0y6yL2Iq-3u_oH4QhCA&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876030&amp;sr=8-115</t>
+          <t>https://www.amazon.com/-/es/Pavilion-pantalla-pulgadas-almacenamiento-procesador/dp/B0C4G4L53W/ref=sr_1_110?dib=eyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759370&amp;sr=8-110</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>HP Laptop delgada HD de 14 pulgadas para estudiantes, Intel N4120 de cuatro núcleos, 4 GB de RAM, 128 GB (64 GB eMMC+ tarjeta de 64 GB), cámara web, Wi-Fi, batería larga, Windows 11S + 1 año Office</t>
+          <t>HP Laptop Pavilion con pantalla táctil HD de 15.6 pulgadas, 16 GB de RAM, almacenamiento SSD de 1 TB, procesador Intel Core de hasta 4.1 GHz, batería de hasta 11 horas de duración, tipo C, HDMI,</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>B0CVGYN75Y</t>
+          <t>B0C4G4L53W</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>239</v>
+        <v>411.74</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -6421,42 +6439,42 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>500+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G139" t="n">
         <v>4.1</v>
       </c>
       <c r="H139" t="n">
-        <v>129</v>
+        <v>684</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81f8qDXhniL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71aTEZOda0L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/ASUS-Vivobook-Computadora-port%C3%A1til-pantalla/dp/B0CLHCWNV8/ref=sr_1_116?dib=eyJ2IjoiMSJ9.jzC1HCqkMn9Rcbu0ajcyk2IW43UYOA41RQwP1gFJUGQ0CsAj-F6mjOofBOMem8R5tkTdA4QujkvdtsClpKL-ANfLebQgHA8Yx0R1zCsuOgFlbQnxeo96CmjO325-umBlFoPXAuaz_4llZFfEUjGj2Bx53GUvw34-8mNIhxWIw9iQFQnVx9or3mUKgPNEn1rQ1Ve5DrnZQ5GiDIvXyc3wwkAHsQlvegp2zTrjC-B76x0.eZj8MNU7of_kP1WB4DMUoqhl0y6yL2Iq-3u_oH4QhCA&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876030&amp;sr=8-116</t>
+          <t>https://www.amazon.com/-/es/Computadora-escritorio-OptiPlex-pulgadas-auriculares/dp/B0BLQQZS9Z/ref=sr_1_111?dib=eyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759370&amp;sr=8-111</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ASUS Vivobook - Computadora portátil, pantalla FHD de 14 pulgadas, i3-1215U, 16 GB de RAM, SSD de 512 GB, Wi-Fi 6, HDMI, cámara web, panel táctil, Windows 11 Home, azul</t>
+          <t>Dell Computadora de escritorio RGB OptiPlex para juegos, Intel Core i5, AMD RX 550 4GB GDDR5, 16 GB de RAM, SSD de 512 GB, monitor HDMI de 24 pulgadas, teclado y auriculares RGB, WiFi, Windows 10 Pro</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>B0CLHCWNV8</t>
+          <t>B0BLQQZS9Z</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>328.9</v>
+        <v>269.99</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -6465,42 +6483,40 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>200+ comprados el mes pasado</t>
+          <t>Más opciones de compra</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="H140" t="n">
-        <v>8</v>
+        <v>199</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61jojpe4KVL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J140" t="n">
-        <v>200</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/81ANdiOnu2L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Samsung-Chromebook-procesador-pulgadas-mercurio/dp/B0979YQD3D/ref=sr_1_117?dib=eyJ2IjoiMSJ9.jzC1HCqkMn9Rcbu0ajcyk2IW43UYOA41RQwP1gFJUGQ0CsAj-F6mjOofBOMem8R5tkTdA4QujkvdtsClpKL-ANfLebQgHA8Yx0R1zCsuOgFlbQnxeo96CmjO325-umBlFoPXAuaz_4llZFfEUjGj2Bx53GUvw34-8mNIhxWIw9iQFQnVx9or3mUKgPNEn1rQ1Ve5DrnZQ5GiDIvXyc3wwkAHsQlvegp2zTrjC-B76x0.eZj8MNU7of_kP1WB4DMUoqhl0y6yL2Iq-3u_oH4QhCA&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876030&amp;sr=8-117</t>
+          <t>https://www.amazon.com/-/es/Lenovo-ThinkCentre-50T-Tower-Computadora/dp/B0C2ZSK1TM/ref=sr_1_112?dib=eyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759370&amp;sr=8-112</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Chromebook 2, procesador Intel Celeron de 13.3 pulgadas, 64 GB, 4 GB de RAM, gris mercurio (modelo 2021) - XE530QDA-KB2US</t>
+          <t>Lenovo ThinkCentre Neo 50T Gen 3 Tower Computadora - Intel i7-12700K, 32GB Ram, 1TB NVMe SSD, DisplayPort, HDMI, VGA, DVD-RW, USB tipo C, lector de tarjetas, Wi-Fi, Bluetooth, Windows 11 Pro,</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>B0979YQD3D</t>
+          <t>B0C2ZSK1TM</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>299</v>
+        <v>889.99</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -6509,40 +6525,42 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Más opciones de compra</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="H141" t="n">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71YXs-quddL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71lrLcIRqyL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Lenovo-ThinkCentre-50T-Tower-Computadora/dp/B0C2ZSK1TM/ref=sr_1_118?dib=eyJ2IjoiMSJ9.jzC1HCqkMn9Rcbu0ajcyk2IW43UYOA41RQwP1gFJUGQ0CsAj-F6mjOofBOMem8R5tkTdA4QujkvdtsClpKL-ANfLebQgHA8Yx0R1zCsuOgFlbQnxeo96CmjO325-umBlFoPXAuaz_4llZFfEUjGj2Bx53GUvw34-8mNIhxWIw9iQFQnVx9or3mUKgPNEn1rQ1Ve5DrnZQ5GiDIvXyc3wwkAHsQlvegp2zTrjC-B76x0.eZj8MNU7of_kP1WB4DMUoqhl0y6yL2Iq-3u_oH4QhCA&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876030&amp;sr=8-118</t>
+          <t>https://www.amazon.com/-/es/ACEMAGIC-Computadora-port%C3%A1til-procesador-pulgadas/dp/B0D97Z5VTL/ref=sr_1_113?dib=eyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759370&amp;sr=8-113</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Lenovo ThinkCentre Neo 50T Gen 3 Tower Computadora - Intel i7-12700K, 32GB Ram, 1TB NVMe SSD, DisplayPort, HDMI, VGA, DVD-RW, USB tipo C, lector de tarjetas, Wi-Fi, Bluetooth, Windows 11 Pro,</t>
+          <t>ACEMAGIC Computadora portátil, Windows 11, 16 GB DDR4 512 GB SSD, procesador N95 de cuatro núcleos, PC IPS 1080P de 15.6 pulgadas, ángulo abierto de 180°, batería de larga duración, carcasa metálica,</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>B0C2ZSK1TM</t>
+          <t>B0D97Z5VTL</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>789.99</v>
+        <v>359.98</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -6551,42 +6569,42 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G142" t="n">
         <v>5</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71lrLcIRqyL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71331gmRd1L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Port%C3%A1til-1920x1200-computadoras-port%C3%A1tiles-refrigeraci%C3%B3n/dp/B0D8VS4ZCQ/ref=sr_1_119?dib=eyJ2IjoiMSJ9.jzC1HCqkMn9Rcbu0ajcyk2IW43UYOA41RQwP1gFJUGQ0CsAj-F6mjOofBOMem8R5tkTdA4QujkvdtsClpKL-ANfLebQgHA8Yx0R1zCsuOgFlbQnxeo96CmjO325-umBlFoPXAuaz_4llZFfEUjGj2Bx53GUvw34-8mNIhxWIw9iQFQnVx9or3mUKgPNEn1rQ1Ve5DrnZQ5GiDIvXyc3wwkAHsQlvegp2zTrjC-B76x0.eZj8MNU7of_kP1WB4DMUoqhl0y6yL2Iq-3u_oH4QhCA&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876030&amp;sr=8-119</t>
+          <t>https://www.amazon.com/-/es/ApoloMedia-Computadora-port%C3%A1til-potencia-ampliable/dp/B0CTBBV61X/ref=sr_1_114?dib=eyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759370&amp;sr=8-114</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Portátil de 16 pulgadas, 16 GB DDR5 512 GB SSD, CPU N100 de cuatro núcleos, pantalla FHD IPS 1920x1200, computadoras portátiles con sistema de refrigeración, batería de 38 Wh, WiFi 2.4G+5G, BT4.0,</t>
+          <t>Computadora portátil, 12 GB de RAM, 512 GB SSD de potencia infinita, ampliable a 1 TB, con IPS FHD FHD de 15.6 pulgadas (1920 x 1080), Intel N5095 (hasta 2.8 GHz), BT 4.2, WiFi</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>B0D8VS4ZCQ</t>
+          <t>B0CTBBV61X</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>659.99</v>
+        <v>296.99</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -6595,43 +6613,41 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="H143" t="n">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/714Vg-qHwpL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/612vEkXfMZL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/STGSivir-Computadora-escritorio-pantalla-Bluetooth/dp/B0D14YNGJB/ref=sr_1_120?dib=eyJ2IjoiMSJ9.jzC1HCqkMn9Rcbu0ajcyk2IW43UYOA41RQwP1gFJUGQ0CsAj-F6mjOofBOMem8R5tkTdA4QujkvdtsClpKL-ANfLebQgHA8Yx0R1zCsuOgFlbQnxeo96CmjO325-umBlFoPXAuaz_4llZFfEUjGj2Bx53GUvw34-8mNIhxWIw9iQFQnVx9or3mUKgPNEn1rQ1Ve5DrnZQ5GiDIvXyc3wwkAHsQlvegp2zTrjC-B76x0.eZj8MNU7of_kP1WB4DMUoqhl0y6yL2Iq-3u_oH4QhCA&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876030&amp;sr=8-120</t>
+          <t>https://www.amazon.com/-/es/Lenovo-Port%C3%A1til-14-procesador-renovado/dp/B0CBQTXF2C/ref=sr_1_115?dib=eyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759370&amp;sr=8-115</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Computadora de escritorio todo en uno, pantalla de 22 pulgadas, Intel Quad Core i5 2.9 GHz hasta 3.6 GHz, 16 G RAM, SSD 512G, WiFi 5, Bluetooth, teclado y mouse RGB, cámara web, W10H64</t>
+          <t>Lenovo Portátil premium de 14", procesador Intel Pentium de hasta 3.0 GHz, memoria de 4 GB, SSD de 256 GB, WiFi, HDMI, Windows 11 (gris) (renovado)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>B0D14YNGJB</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>299.99</v>
-      </c>
+          <t>B0CBQTXF2C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -6639,40 +6655,42 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/611rYKu13DL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61ulke3pioL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/E5-575-33BM-PA-1650-86-Adaptador-corriente-15-43-R19L/dp/B0D4LZGJXY/ref=sr_1_121?dib=eyJ2IjoiMSJ9.jzC1HCqkMn9Rcbu0ajcyk2IW43UYOA41RQwP1gFJUGQ0CsAj-F6mjOofBOMem8R5tkTdA4QujkvdtsClpKL-ANfLebQgHA8Yx0R1zCsuOgFlbQnxeo96CmjO325-umBlFoPXAuaz_4llZFfEUjGj2Bx53GUvw34-8mNIhxWIw9iQFQnVx9or3mUKgPNEn1rQ1Ve5DrnZQ5GiDIvXyc3wwkAHsQlvegp2zTrjC-B76x0.eZj8MNU7of_kP1WB4DMUoqhl0y6yL2Iq-3u_oH4QhCA&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876030&amp;sr=8-121</t>
+          <t>https://www.amazon.com/-/es/Escritorio-pantalla-pulgadas-procesador-Celeron/dp/B0B7BRXXMX/ref=sr_1_116?dib=eyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759370&amp;sr=8-116</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Cargador de 65 W apto para Acer Aspire E5 E5-576 E5-575 E5-575-33BM PA-1650-86 Aspire 3 5 A315 A315-21 A315-52 A315-53 A315-51 A515-21 51 A5 Adaptador de corriente para portátil 15-43-R19L N19C3 N16Q2</t>
+          <t>HP Escritorio todo en uno 2022, pantalla FHD de 21.5 pulgadas, procesador Intel Celeron J4025, 8 GB de RAM, 256 GB PCIe SSD, cámara web, WiFi, HDMI, RJ-45, teclado y mouse con cable, Windows 11 Home,</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>B0D4LZGJXY</t>
+          <t>B0B7BRXXMX</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>18.99</v>
+        <v>391.8</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -6681,40 +6699,42 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>300+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71kf19Bc6IL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/91f9y+HBacL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-Laptop-ultraliviana-14-procesador/dp/B0CSBZ11RM/ref=sr_1_122?dib=eyJ2IjoiMSJ9.jzC1HCqkMn9Rcbu0ajcyk2IW43UYOA41RQwP1gFJUGQ0CsAj-F6mjOofBOMem8R5tkTdA4QujkvdtsClpKL-ANfLebQgHA8Yx0R1zCsuOgFlbQnxeo96CmjO325-umBlFoPXAuaz_4llZFfEUjGj2Bx53GUvw34-8mNIhxWIw9iQFQnVx9or3mUKgPNEn1rQ1Ve5DrnZQ5GiDIvXyc3wwkAHsQlvegp2zTrjC-B76x0.eZj8MNU7of_kP1WB4DMUoqhl0y6yL2Iq-3u_oH4QhCA&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876030&amp;sr=8-122</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo2Njc2NTk5ODA3NDMxNTAxOjE3MjY3NTkzNzA6c3BfYnRmOjIwMDA3OTk2NzU3NDI5ODo6MDo6&amp;url=%2FSEi12-i5-12450H-generaci%25C3%25B3n-computadora-pantalla%2Fdp%2FB0B93TMQJW%2Fref%3Dsr_1_117_sspa%3Fdib%3DeyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759370%26sr%3D8-117-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>HP Laptop ultraliviana HD de 14 pulgadas, procesador Intel Celeron de cuatro núcleos, 4 GB de RAM, 128 GB (64 GB eMMC+ tarjeta de 64 GB), Wi-Fi, hasta 11 horas, Windows 11 S + 1 año Office</t>
+          <t>Beelink Mini PC SEi12, Intel Core i5-12450H de 12ª generación hasta 4.4 GHz (8C/12T), mini computadora con 16 GB DDR4 RAM/500GB M.2 2280 NVMe SSD, 4K FPS/WiFi 6/BT5.2/pantalla doble pantalla</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>B0CSBZ11RM</t>
+          <t>B0B93TMQJW</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -6723,42 +6743,42 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H146" t="n">
-        <v>127</v>
+        <v>426</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71Z1LDTb2XL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71w7bnK-5zL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MDY0Nzg4NTY2NzI3MTA4OjE3MjU4NzYwMzA6c3BfbXRmOjMwMDE3MjExNjM3ODIwMjo6MDo6&amp;url=%2FHP-2024-pulgadas-estudiantes-negocios%2Fdp%2FB0D1LRCVFC%2Fref%3Dsr_1_123_sspa%3Fdib%3DeyJ2IjoiMSJ9.jzC1HCqkMn9Rcbu0ajcyk2IW43UYOA41RQwP1gFJUGQ0CsAj-F6mjOofBOMem8R5tkTdA4QujkvdtsClpKL-ANfLebQgHA8Yx0R1zCsuOgFlbQnxeo96CmjO325-umBlFoPXAuaz_4llZFfEUjGj2Bx53GUvw34-8mNIhxWIw9iQFQnVx9or3mUKgPNEn1rQ1Ve5DrnZQ5GiDIvXyc3wwkAHsQlvegp2zTrjC-B76x0.eZj8MNU7of_kP1WB4DMUoqhl0y6yL2Iq-3u_oH4QhCA%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725876030%26sr%3D8-123-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo2Njc2NTk5ODA3NDMxNTAxOjE3MjY3NTkzNzA6c3BfYnRmOjMwMDE4Nzg4NzgxNjAwMjo6MDo6&amp;url=%2FWindows-Lake-N95-computadoras-escritorio-compatible%2Fdp%2FB0CYKYF7MQ%2Fref%3Dsr_1_118_sspa%3Fdib%3DeyJ2IjoiMSJ9.pzeZu5IhEYc0XqLlX7wMIcZbN38a5w7Nm_O1dV3fvwHPNcY3xXfRZPSaypW7awHw5vavVx4TrD561VYcO_-9MNFfYv9RNZcjWpZnTOoiWh2c4F97uj5DLz38ofu1vMiPZDIsmI_rvhiL0JT8xgF319hn-hDvIsuhH8GSDhqn43VfUt3foTJDdNj91YPk_WPqqjIJIH3O_QDuFzUyqtInDa2mKrEv7UN9DrYzZzkMKRM.meH7tdn0dtVVhrw9xS8XPXV4mDl5Uqra1OuBaesEqBQ%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759370%26sr%3D8-118-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>HP 2024 - Laptop de 14 pulgadas, delgada, luz para estudiantes de negocios, Intel N4120 de cuatro núcleos, 4 GB de RAM, 128 GB (64 GB eMMC+ tarjeta de 64 GB), 1 año Office 365, cámara web, WiFi,</t>
+          <t>Mini PC con Windows 11 Pro, 16 GB de RAM 512 GB M.2 SSD, Intel 12th Alder Lake-N95(hasta 3.4 GHz), mini computadoras de escritorio compatible con SATA/Dual HDMI 4K/ 4 USB 3.2/WiFi 5/BT 4/1000M</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>B0D1LRCVFC</t>
+          <t>B0CYKYF7MQ</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>259</v>
+        <v>198.98</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -6767,42 +6787,40 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H147" t="n">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61nXgmERYNL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J147" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71RkqAbmj2L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Lenovo-IdeaPad-Laptop-estudiantes-pantalla/dp/B0CV3CDRNG/ref=sr_1_126?dib=eyJ2IjoiMSJ9.jzC1HCqkMn9Rcbu0ajcyk2IW43UYOA41RQwP1gFJUGQ0CsAj-F6mjOofBOMem8R5tkTdA4QujkvdtsClpKL-ANfLebQgHA8Yx0R1zCsuOgFlbQnxeo96CmjO325-umBlFoPXAuaz_4llZFfEUjGj2Bx53GUvw34-8mNIhxWIw9iQFQnVx9or3mUKgPNEn1rQ1Ve5DrnZQ5GiDIvXyc3wwkAHsQlvegp2zTrjC-B76x0.eZj8MNU7of_kP1WB4DMUoqhl0y6yL2Iq-3u_oH4QhCA&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876030&amp;sr=8-126</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMjU2MjU2MTQ0ODY2NzYzOjE3MjY3NTkzODI6c3BfYXRmX25leHQ6MjAwMTM4NzIwNTc4ODk4OjowOjo&amp;url=%2Forganizaci%25C3%25B3n-organizadoras-alimentaci%25C3%25B3n-sobretensiones-escritorio%2Fdp%2FB09PL5BP72%2Fref%3Dsr_1_113_sspa%3Fdib%3DeyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759382%26sr%3D8-113-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Lenovo IdeaPad 1 Laptop para estudiantes, pantalla HD de 14 pulgadas, Intel Celeron N4020, 4 GB de RAM, 128 GB eMMC, batería de larga duración de hasta 11 horas, Wi-Fi 6, Windows 11 Home Business</t>
+          <t>Caja de organización de cables, paquete de 3 cajas organizadoras de cables con 33 piezas para ocultar regleta de alimentación, protector de sobretensiones debajo del escritorio y en el suelo,</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>B0CV3CDRNG</t>
+          <t>B09PL5BP72</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>175</v>
+        <v>23.99</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -6811,42 +6829,42 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>200+ comprados el mes pasado</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H148" t="n">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61aN75y1FHL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/616lEaMq2FL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-procesador-Ryzen-almacenamiento-microborde/dp/B09J1PS4TG/ref=sr_1_127?dib=eyJ2IjoiMSJ9.jzC1HCqkMn9Rcbu0ajcyk2IW43UYOA41RQwP1gFJUGQ0CsAj-F6mjOofBOMem8R5tkTdA4QujkvdtsClpKL-ANfLebQgHA8Yx0R1zCsuOgFlbQnxeo96CmjO325-umBlFoPXAuaz_4llZFfEUjGj2Bx53GUvw34-8mNIhxWIw9iQFQnVx9or3mUKgPNEn1rQ1Ve5DrnZQ5GiDIvXyc3wwkAHsQlvegp2zTrjC-B76x0.eZj8MNU7of_kP1WB4DMUoqhl0y6yL2Iq-3u_oH4QhCA&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876030&amp;sr=8-127</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMjU2MjU2MTQ0ODY2NzYzOjE3MjY3NTkzODI6c3BfYXRmX25leHQ6MjAwMDg5NjcyNDk5NTk4OjowOjo&amp;url=%2Findetectable-computadora-dispositivo-autom%25C3%25A1tico-movimiento%2Fdp%2FB09HT9TL2N%2Fref%3Dsr_1_114_sspa%3Fdib%3DeyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759382%26sr%3D8-114-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>HP Computadora portátil 15, procesador AMD Ryzen 3-5300U, 8 GB de RAM, almacenamiento SSD de 256 GB, pantalla de microborde HD de 15.6 pulgadas, Windows 11 Home, batería de larga duración, carga</t>
+          <t>Ratón Jiggler indetectable para computadora, ratón USB Mover, dispositivo automático de clic continuo y asistente para juegos, Plug &amp; Play, simular el movimiento del puntero del mouse para</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>B09J1PS4TG</t>
+          <t>B09HT9TL2N</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>322</v>
+        <v>13.99</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6855,43 +6873,41 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>400+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H149" t="n">
-        <v>487</v>
+        <v>1248</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61xwWfWiOSL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/6158+YL7PWL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-Pavilion-Computadora-procesador-retroiluminado/dp/B0C54DD8PP/ref=sr_1_128?dib=eyJ2IjoiMSJ9.jzC1HCqkMn9Rcbu0ajcyk2IW43UYOA41RQwP1gFJUGQ0CsAj-F6mjOofBOMem8R5tkTdA4QujkvdtsClpKL-ANfLebQgHA8Yx0R1zCsuOgFlbQnxeo96CmjO325-umBlFoPXAuaz_4llZFfEUjGj2Bx53GUvw34-8mNIhxWIw9iQFQnVx9or3mUKgPNEn1rQ1Ve5DrnZQ5GiDIvXyc3wwkAHsQlvegp2zTrjC-B76x0.eZj8MNU7of_kP1WB4DMUoqhl0y6yL2Iq-3u_oH4QhCA&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876030&amp;sr=8-128</t>
+          <t>https://www.amazon.com/-/es/Lenovo-Port%C3%A1til-14-procesador-renovado/dp/B0CBQTXF2C/ref=sr_1_115?dib=eyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759382&amp;sr=8-115</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>HP Pavilion - Computadora portátil, pantalla táctil FHD de 15.6 pulgadas, procesador Intel Core i7-1255U, 32 GB de RAM, SSD de 1 TB, HDMI, cámara web, Wi-Fi 6, KB retroiluminado, lector de huellas</t>
+          <t>Lenovo Portátil premium de 14", procesador Intel Pentium de hasta 3.0 GHz, memoria de 4 GB, SSD de 256 GB, WiFi, HDMI, Windows 11 (gris) (renovado)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>B0C54DD8PP</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
-        <v>799.65</v>
-      </c>
+          <t>B0CBQTXF2C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -6899,40 +6915,42 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Más opciones de compra</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H150" t="n">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/717ikWtIHNL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61ulke3pioL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HP-Stream-BrightView-pulgadas-almacenamiento/dp/B0D3GWGB66/ref=sr_1_129?dib=eyJ2IjoiMSJ9.jzC1HCqkMn9Rcbu0ajcyk2IW43UYOA41RQwP1gFJUGQ0CsAj-F6mjOofBOMem8R5tkTdA4QujkvdtsClpKL-ANfLebQgHA8Yx0R1zCsuOgFlbQnxeo96CmjO325-umBlFoPXAuaz_4llZFfEUjGj2Bx53GUvw34-8mNIhxWIw9iQFQnVx9or3mUKgPNEn1rQ1Ve5DrnZQ5GiDIvXyc3wwkAHsQlvegp2zTrjC-B76x0.eZj8MNU7of_kP1WB4DMUoqhl0y6yL2Iq-3u_oH4QhCA&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876030&amp;sr=8-129</t>
+          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-pulgadas-procesadores-apertura/dp/B0CKN9M1S8/ref=sr_1_116?dib=eyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759382&amp;sr=8-116</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>HP Stream - Laptop BrightView HD de 14 pulgadas, Intel Celeron N4120, 16 GB de RAM, 256 GB de almacenamiento (128 GB eMMC + tarjeta USB de 128 GB), gráficos Intel UHD, cámara HD, carga rápida, 1 año</t>
+          <t>Computadora portátil de 14 pulgadas, portátil para juegos, 8 GB de RAM 256 GB SSD, procesadores Intel Celeron N5095, FHD 1920 x 1080, admite apertura de ángulo de 180, Windows 11 Pro</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>B0D3GWGB66</t>
+          <t>B0CKN9M1S8</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>298</v>
+        <v>259.99</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -6941,42 +6959,42 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>300+ comprados el mes pasado</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H151" t="n">
-        <v>404</v>
+        <v>282</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81w81VfhiZL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/717IyvlQf-L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Port%C3%A1til-port%C3%A1tiles-procesador-computadora-altavoces/dp/B0CZDRBJ33/ref=sr_1_130?dib=eyJ2IjoiMSJ9.jzC1HCqkMn9Rcbu0ajcyk2IW43UYOA41RQwP1gFJUGQ0CsAj-F6mjOofBOMem8R5tkTdA4QujkvdtsClpKL-ANfLebQgHA8Yx0R1zCsuOgFlbQnxeo96CmjO325-umBlFoPXAuaz_4llZFfEUjGj2Bx53GUvw34-8mNIhxWIw9iQFQnVx9or3mUKgPNEn1rQ1Ve5DrnZQ5GiDIvXyc3wwkAHsQlvegp2zTrjC-B76x0.eZj8MNU7of_kP1WB4DMUoqhl0y6yL2Iq-3u_oH4QhCA&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876030&amp;sr=8-130</t>
+          <t>https://www.amazon.com/-/es/Port%C3%A1til-pantalla-procesador-almacenamiento-convertible/dp/B0D95HHJ9V/ref=sr_1_117?dib=eyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759382&amp;sr=8-117</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>jumper Portátil de 14 pulgadas, 12 GB DDR4 256 GB SSD, portátiles Windows 11 con procesador Celeron, computadora ligera con pantalla FHD 1080p, altavoces duales, WiFi de doble banda (2.4G/5G), batería</t>
+          <t>AWOW Portátil 2 en 1 con pantalla táctil morada, procesador FHD de 11.6 pulgadas, procesador Intel 4 Core Celeron N4120, 6 GB de RAM, 256 GB SSD M.2, almacenamiento para niños, portátil convertible</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>B0CZDRBJ33</t>
+          <t>B0D95HHJ9V</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>215.99</v>
+        <v>139.99</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6985,42 +7003,42 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H152" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/710TQVSX-PL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71P+OqxbLcL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-empresarial-generaci%C3%B3n-i7-1195G7-Bluetooth/dp/B0D263KCPF/ref=sr_1_132?dib=eyJ2IjoiMSJ9.jzC1HCqkMn9Rcbu0ajcyk2IW43UYOA41RQwP1gFJUGQ0CsAj-F6mjOofBOMem8R5tkTdA4QujkvdtsClpKL-ANfLebQgHA8Yx0R1zCsuOgFlbQnxeo96CmjO325-umBlFoPXAuaz_4llZFfEUjGj2Bx53GUvw34-8mNIhxWIw9iQFQnVx9or3mUKgPNEn1rQ1Ve5DrnZQ5GiDIvXyc3wwkAHsQlvegp2zTrjC-B76x0.eZj8MNU7of_kP1WB4DMUoqhl0y6yL2Iq-3u_oH4QhCA&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1725876030&amp;sr=8-132</t>
+          <t>https://www.amazon.com/-/es/pulgadas-integrada-port%C3%A1til-S15-N2/dp/B0C4YKD321/ref=sr_1_118?dib=eyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759382&amp;sr=8-118</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Dell Computadora portátil empresarial FHD de 15.6 pulgadas de 120Hz, Intel 10-Core i5-1235U de 12ª generación (Beat i7-1195G7), 16 GB DDR4 RAM, 512 GB PCIe SSD, WiFi 802.11ac, Bluetooth, negro carbón,</t>
+          <t>Laptop modelo 2023 con Windows 11 Home S Full HD de 15.6 pulgadas, 8 GB de RAM, 512 GB SSD, AC WiFi, RJ45, cámara web integrada, portátil ligero S15 N2 de 15 pulgadas</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>B0D263KCPF</t>
+          <t>B0C4YKD321</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>519</v>
+        <v>199.99</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7029,40 +7047,42 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="H153" t="n">
-        <v>24</v>
+        <v>1138</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71Icnns-UsL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61TLfc8EmNL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MDY0Nzg4NTY2NzI3MTA4OjE3MjU4NzYwMzA6c3BfYnRmOjMwMDM3MTIwODEwNzAwMjo6MDo6&amp;url=%2FPCG02-Windows-N4000-computadora-escritorio%2Fdp%2FB0C6GQDXBD%2Fref%3Dsr_1_133_sspa%3Fdib%3DeyJ2IjoiMSJ9.jzC1HCqkMn9Rcbu0ajcyk2IW43UYOA41RQwP1gFJUGQ0CsAj-F6mjOofBOMem8R5tkTdA4QujkvdtsClpKL-ANfLebQgHA8Yx0R1zCsuOgFlbQnxeo96CmjO325-umBlFoPXAuaz_4llZFfEUjGj2Bx53GUvw34-8mNIhxWIw9iQFQnVx9or3mUKgPNEn1rQ1Ve5DrnZQ5GiDIvXyc3wwkAHsQlvegp2zTrjC-B76x0.eZj8MNU7of_kP1WB4DMUoqhl0y6yL2Iq-3u_oH4QhCA%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725876030%26sr%3D8-133-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/HeroBook-Pro-port%C3%A1til-pantalla-mini-HDMI/dp/B08316YSKH/ref=sr_1_119?dib=eyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759382&amp;sr=8-119</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MeLE PCG02 Mini PC Stick Windows 11 Home Celeron N4000 (hasta 2.6 GHz) 4 GB LPDDR4 128 GB ROM Micro computadora de escritorio pequeño con 2.5G/5G WiFi, 4K HDMI</t>
+          <t>CHUWI HeroBook Pro 14.1'' portátil, 256GB SSD 8GB RAM, Windows 11 Laptop, 1TB SSD Expand, Intel Celeron N4020(hasta 2.8GHz), pantalla IPS FHD 2K, ultra delgada, mini-HDMI, WiFi 5G, USB3.0, cámara web,</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>B0C6GQDXBD</t>
+          <t>B08316YSKH</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>119.99</v>
+        <v>198.99</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7071,40 +7091,42 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H154" t="n">
-        <v>78</v>
+        <v>3564</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61FHm0QDmuL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61Iyy+2damL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MDY0Nzg4NTY2NzI3MTA4OjE3MjU4NzYwMzA6c3BfYnRmOjMwMDA1MjY3OTQwNjgwMjo6MDo6&amp;url=%2FMorostron-totalmente-procesador-retroiluminado-dactilares%2Fdp%2FB0CCD6YRCZ%2Fref%3Dsr_1_134_sspa%3Fdib%3DeyJ2IjoiMSJ9.jzC1HCqkMn9Rcbu0ajcyk2IW43UYOA41RQwP1gFJUGQ0CsAj-F6mjOofBOMem8R5tkTdA4QujkvdtsClpKL-ANfLebQgHA8Yx0R1zCsuOgFlbQnxeo96CmjO325-umBlFoPXAuaz_4llZFfEUjGj2Bx53GUvw34-8mNIhxWIw9iQFQnVx9or3mUKgPNEn1rQ1Ve5DrnZQ5GiDIvXyc3wwkAHsQlvegp2zTrjC-B76x0.eZj8MNU7of_kP1WB4DMUoqhl0y6yL2Iq-3u_oH4QhCA%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1725876030%26sr%3D8-134-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/HP-BrightView-pulgadas-procesador-altavoces/dp/B0BKBHXC5S/ref=sr_1_120?dib=eyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759382&amp;sr=8-120</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Morostron Portátil con pantalla táctil, 15.6 pulgadas HD, cuerpo totalmente metálico N5095 procesador de 2.9 GHz, 16 GB DDR4 256 GB SSD, teclado retroiluminado y huellas dactilares, FHD 1920 x 1080</t>
+          <t>HP Laptop BrightView HD 2022 de 15.6 pulgadas, procesador Intel Pentium Silver N5030, 8 GB de RAM, SSD PCIe de 256 GB, gráficos Intel HD 605, cámara web HD 720p, altavoces estéreo, azul, Windows 11,</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>B0CCD6YRCZ</t>
+          <t>B0BKBHXC5S</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>289.99</v>
+        <v>399</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7113,21 +7135,575 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
+          <t>Más opciones de compra</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H155" t="n">
+        <v>186</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61ofX67oNTL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/-/es/Lenovo-Computadora-port%C3%A1til-esencial-Almacenamiento/dp/B09RNC69K8/ref=sr_1_121?dib=eyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759382&amp;sr=8-121</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Lenovo - IdeaPad 3i - Computadora portátil esencial - Intel Core i5 - Pantalla FHD de 15.6" - Memoria de 8 GB - Almacenamiento de 512 GB - Windows 11 Pro</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>B09RNC69K8</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>419</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>100+ comprados el mes pasado</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H156" t="n">
+        <v>598</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71Tp0GOd33L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/-/es/Computadora-escritorio-OptiPlex-monitor-pulgadas/dp/B0BKZTSKKR/ref=sr_1_122?dib=eyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759382&amp;sr=8-122</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Dell Computadora de escritorio OptiPlex RGB, Intel Core i7 de hasta 3.8 GHz, 16 G RAM, SSD de 512 G, nuevo monitor LED FHD de 22 pulgadas, teclado y mouse RGB, barra de sonido RGB BT, cámara web,</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>B0BKZTSKKR</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>50+ comprados el mes pasado</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H157" t="n">
+        <v>153</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/91mOKHYSs9L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMjU2MjU2MTQ0ODY2NzYzOjE3MjY3NTkzODI6c3BfbXRmOjMwMDMyNjQzMTI2ODQwMjo6MDo6&amp;url=%2FHP-Computadora-2024-15-6-almacenamiento%2Fdp%2FB0DBD4QQD5%2Fref%3Dsr_1_123_sspa%3Fdib%3DeyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759382%26sr%3D8-123-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>HP Computadora portátil 2024, pantalla HD de 15.6", procesador Intel de cuatro núcleos N200, 16 GB de RAM, 384 GB de almacenamiento (128 GB UFS + tarjeta de 256 GB), Wi-Fi 6, 1 año MS Office 365,</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>B0DBD4QQD5</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>379</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>5</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61JRzfzrNIL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMjU2MjU2MTQ0ODY2NzYzOjE3MjY3NTkzODI6c3BfbXRmOjIwMDA5ODgzMzkyNTE5ODo6MDo6&amp;url=%2FComputadora-escritorio-5500-ventiladores-computadora%2Fdp%2FB0BGLKVTR9%2Fref%3Dsr_1_124_sspa%3Fdib%3DeyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759382%26sr%3D8-124-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>MXZ Computadora de escritorio para juegos, AMD Ryzen 5 5500, GTX1660S 6GB, 16GB DDR4, NVME 500GB SSD, ventiladores 6RGB, Win 11 Pro Ready, computadora de escritorio Gamer (R5 5500| GTX1660S)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>B0BGLKVTR9</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>659</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>4</v>
+      </c>
+      <c r="H159" t="n">
+        <v>71</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81pEuqNbRcL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/-/es/IdeaPad-estudiantes-pantalla-procesador-Bluetooth/dp/B0CQB84CTP/ref=sr_1_125?dib=eyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759382&amp;sr=8-125</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad 1 Laptop para estudiantes, pantalla FHD de 15.6 pulgadas, procesador Intel de doble núcleo, 8 GB de RAM, SSD de 128 GB + 128 GB eMMC, Wi-Fi 6, cámara web, Bluetooth, 1 año Office 365,</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>B0CQB84CTP</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>299</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Más opciones de compra</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H160" t="n">
+        <v>297</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71z91xHypWL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/-/es/99K5T-OptiPlex-Computadora-escritorio-peque%C3%B1o/dp/B06X6DHVJC/ref=sr_1_126?dib=eyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759382&amp;sr=8-126</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Dell 99K5T OptiPlex 3050 Computadora de escritorio de factor de forma pequeño, Intel Core i5-7500, 8GB DDR4, unidad de estado sólido de 256 GB, Windows 10 Pro</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>B06X6DHVJC</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>No hay ofertas destacadas disponibles</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H161" t="n">
+        <v>52</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71frNmmZpGL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/-/es/HP-Laptop-14-pulgadas-estudiantes/dp/B0CVGYN75Y/ref=sr_1_127?dib=eyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759382&amp;sr=8-127</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>HP Laptop delgada HD de 14 pulgadas para estudiantes, Intel N4120 de cuatro núcleos, 4 GB de RAM, 128 GB (64 GB eMMC+ tarjeta de 64 GB), cámara web, Wi-Fi, batería larga, Windows 11S + 1 año Office</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>B0CVGYN75Y</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>239</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>100+ comprados el mes pasado</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H162" t="n">
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81f8qDXhniL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-pantalla-pulgadas-pr%C3%A9mium/dp/B0DF7BX3VN/ref=sr_1_128?dib=eyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759382&amp;sr=8-128</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>AOC Computadora portátil de 16 GB de RAM 512 GB SSD, para juegos, pantalla FHD de 15.6 pulgadas, portátil prémium (hasta 3.6 GHz) con Windows 11, ligera y delgada, carcasa de metal, cámara web, tipo</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>B0DF7BX3VN</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>379.98</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
           <t>Típico:</t>
         </is>
       </c>
-      <c r="G155" t="n">
-        <v>4</v>
-      </c>
-      <c r="H155" t="n">
-        <v>45</v>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/71CXjkVjJQL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="G163" t="n">
+        <v>5</v>
+      </c>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71Y800Fqu1L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/-/es/ApoloSign-Computadora-port%C3%A1til-ampliable-computadora/dp/B0CCRMZDJ3/ref=sr_1_130?dib=eyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759382&amp;sr=8-130</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>ApoloSign Computadora portátil Windows, 12 GB de RAM, SSD de 512 GB (ampliable 1T) computadora portátil de 15.6 pulgadas, pantalla FHD de 1080P, Intel Jasper Lake N5095, computadora delgada de hasta</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>B0CCRMZDJ3</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H164" t="n">
+        <v>43</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71SKrnHs6LL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/-/es/Altavoces-computadora-Bluetooth-envolvente-interruptor/dp/B0D4H4JWCX/ref=sr_1_131?dib=eyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759382&amp;sr=8-131</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>SOULION Altavoces de computadora Bluetooth R60, altavoces USB Plug &amp; Play para PC con luz dinámica LED, altavoces de barra de sonido envolvente con interruptor giratorio para computadora portátil de</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>B0D4H4JWCX</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>50+ comprados el mes pasado</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>5</v>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71fJagWPNlL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/-/es/LENOVO-IdeaPad-Computadora-procesador-i3-1115G4/dp/B08F93HGNB/ref=sr_1_132?dib=eyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0&amp;dib_tag=se&amp;keywords=Computadoras&amp;qid=1726759382&amp;sr=8-132</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>LENOVO IdeaPad 3i - Computadora portátil, pantalla táctil HD de 15.6 pulgadas, procesador Intel Core i3-1115G4, RAM DDR4 de 12 GB, SSD PCIe de 256 GB, Bluetooth, cámara web, Wi-Fi 6, HDMI, Windows 11</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>B08F93HGNB</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>328.93</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>500+ comprados el mes pasado</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H166" t="n">
+        <v>582</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61eFMUYS+HL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMjU2MjU2MTQ0ODY2NzYzOjE3MjY3NTkzODI6c3BfYnRmOjMwMDM2NzI5NTA4MzUwMjo6MDo6&amp;url=%2FThinkCentre-M70q-Business-generaci%25C3%25B3n-i7-13700T%2Fdp%2FB0DDPVKXN1%2Fref%3Dsr_1_133_sspa%3Fdib%3DeyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759382%26sr%3D8-133-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Lenovo ThinkCentre M70q Gen 4 MFF Tiny 1L Mini PC Business Desktop Computer, 13ª generación Intel 16-Core i7-13700T hasta 4.9GHz, 32GB DDR4 RAM, 1TB PCIe SSD, WiFi 6, RJ45, HDMI, Windows 11 Pro,</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>B0DDPVKXN1</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>859</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61EQMh6PGdL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMjU2MjU2MTQ0ODY2NzYzOjE3MjY3NTkzODI6c3BfYnRmOjMwMDM1MjExNjI3NjYwMjo6MDo6&amp;url=%2FThinkCentre-escritorio-Hexa-Core-i5-11500T-i7-10700T%2Fdp%2FB0CWKVXYK5%2Fref%3Dsr_1_134_sspa%3Fdib%3DeyJ2IjoiMSJ9.xHe3GB6fCPBHb0XbmMqbKQnzHPI4FArIWS0vj5PVR6NjIIPYw9tSI1jFBFs6x8mKu9a_JJS35o_iUnE3Yk5AOeOGrQdNB5w1FLxbgYU9Gc4Wj9uIgqy1odZAcLmPy0ApX0eTcc3cw4n-M3h1BE4y4CwZaBdNlG6SuRXyOxc4FHGPCV520WgSwZxDm70ehiXYnYSkZ7Xv1CoT0S8WzFicUgi5FwT5SgPG3fag8FzWrbs.yoERGLcat16aopm0XfisMUV8C75bctgk7DPgFDi-Ic0%26dib_tag%3Dse%26keywords%3DComputadoras%26qid%3D1726759382%26sr%3D8-134-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Lenovo ThinkCentre M740q 1L Tiny Business Computer de escritorio, Intel Hexa-Core i5-11500T (Beat i7-10700T), 8 GB DDR4 RAM, 512 GB PCIe SSD, WiFi, Bluetooth 5.1, Windows 11 Pro, Tilsiy</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>B0CWKVXYK5</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>599</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>5</v>
+      </c>
+      <c r="H168" t="n">
+        <v>12</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/618Opp8wGwL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
